--- a/EquityHedging/data/returns_data/liq_alts_data.xlsx
+++ b/EquityHedging/data/returns_data/liq_alts_data.xlsx
@@ -565,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM155"/>
+  <dimension ref="A1:ALM156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12590,13 +12590,99 @@
         <v>-0.021035</v>
       </c>
     </row>
+    <row r="156" spans="1:53">
+      <c r="A156" s="3">
+        <v>44895</v>
+      </c>
+      <c r="B156" s="1">
+        <v>-0.0004660000000000001</v>
+      </c>
+      <c r="C156" s="1">
+        <v>-0.085928</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>-0.089367</v>
+      </c>
+      <c r="F156" s="1">
+        <v>-0.002995</v>
+      </c>
+      <c r="G156" s="1">
+        <v>-0.013871</v>
+      </c>
+      <c r="J156" s="1">
+        <v>-0.016931</v>
+      </c>
+      <c r="L156" s="1">
+        <v>-0.058901</v>
+      </c>
+      <c r="N156" s="1">
+        <v>-0.08334199999999999</v>
+      </c>
+      <c r="O156" s="1">
+        <v>-4.9E-05</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>-0.003656</v>
+      </c>
+      <c r="R156" s="1">
+        <v>-0.027932</v>
+      </c>
+      <c r="S156" s="1">
+        <v>0.001842</v>
+      </c>
+      <c r="W156" s="1">
+        <v>0.031437</v>
+      </c>
+      <c r="AC156" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD156" s="1">
+        <v>-0.003117</v>
+      </c>
+      <c r="AF156" s="1">
+        <v>-0.120316</v>
+      </c>
+      <c r="AI156" s="1">
+        <v>-0.012078</v>
+      </c>
+      <c r="AK156" s="1">
+        <v>-0.007531</v>
+      </c>
+      <c r="AN156" s="1">
+        <v>-0.046253</v>
+      </c>
+      <c r="AO156" s="1">
+        <v>-0.005647999999999999</v>
+      </c>
+      <c r="AQ156" s="1">
+        <v>-0.060704</v>
+      </c>
+      <c r="AT156" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV156" s="1">
+        <v>0.322609</v>
+      </c>
+      <c r="AW156" s="1">
+        <v>-0.105612</v>
+      </c>
+      <c r="AZ156" s="1">
+        <v>-0.046014</v>
+      </c>
+      <c r="BA156" s="1">
+        <v>-0.089447</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A155">
+  <conditionalFormatting sqref="A1:A156">
     <cfRule type="notContainsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:BB155">
+  <conditionalFormatting sqref="B2:BB156">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -12613,7 +12699,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM155"/>
+  <dimension ref="A1:ALM156"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24665,13 +24751,99 @@
         <v>818886602.03</v>
       </c>
     </row>
+    <row r="156" spans="1:53">
+      <c r="A156" s="3">
+        <v>44895</v>
+      </c>
+      <c r="B156" s="1">
+        <v>90610661.73</v>
+      </c>
+      <c r="C156" s="1">
+        <v>97058719.03</v>
+      </c>
+      <c r="D156" s="1">
+        <v>687749.4</v>
+      </c>
+      <c r="E156" s="1">
+        <v>185557985.03</v>
+      </c>
+      <c r="F156" s="1">
+        <v>101785874.1</v>
+      </c>
+      <c r="G156" s="1">
+        <v>178789619.98</v>
+      </c>
+      <c r="J156" s="1">
+        <v>229905724.75</v>
+      </c>
+      <c r="L156" s="1">
+        <v>156478427.82</v>
+      </c>
+      <c r="N156" s="1">
+        <v>322563471.03</v>
+      </c>
+      <c r="O156" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>1212659461.74</v>
+      </c>
+      <c r="R156" s="1">
+        <v>105242811.3</v>
+      </c>
+      <c r="S156" s="1">
+        <v>11850876</v>
+      </c>
+      <c r="W156" s="1">
+        <v>3037855.14</v>
+      </c>
+      <c r="AC156" s="1">
+        <v>96960.78999999999</v>
+      </c>
+      <c r="AD156" s="1">
+        <v>65307684.07</v>
+      </c>
+      <c r="AF156" s="1">
+        <v>333637554.18</v>
+      </c>
+      <c r="AI156" s="1">
+        <v>383965007.4</v>
+      </c>
+      <c r="AK156" s="1">
+        <v>78262361.7</v>
+      </c>
+      <c r="AN156" s="1">
+        <v>175873551.35</v>
+      </c>
+      <c r="AO156" s="1">
+        <v>326642922.04</v>
+      </c>
+      <c r="AQ156" s="1">
+        <v>1061902377.54</v>
+      </c>
+      <c r="AT156" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV156" s="1">
+        <v>32386197.53</v>
+      </c>
+      <c r="AW156" s="1">
+        <v>140459139</v>
+      </c>
+      <c r="AZ156" s="1">
+        <v>3020201153.37</v>
+      </c>
+      <c r="BA156" s="1">
+        <v>745639314.09</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A155">
+  <conditionalFormatting sqref="A1:A156">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:BB155">
+  <conditionalFormatting sqref="B2:BB156">
     <cfRule type="notContainsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>

--- a/EquityHedging/data/returns_data/liq_alts_data.xlsx
+++ b/EquityHedging/data/returns_data/liq_alts_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
   <si>
     <t>1907 ARP EM</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>IPM Systematic Macro</t>
+  </si>
+  <si>
+    <t>JSC Vantage</t>
   </si>
   <si>
     <t>LIQUID ALTERNATIVES CASH</t>
@@ -565,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM156"/>
+  <dimension ref="A1:ALM159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,9 +577,9 @@
     <col min="1" max="1001" width="21.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:55">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -737,8 +740,11 @@
       <c r="BB1" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:54">
+      <c r="BC1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55">
       <c r="A2" s="3">
         <v>40209</v>
       </c>
@@ -775,14 +781,14 @@
       <c r="AQ2" s="1">
         <v>0.009079</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AY2" s="1">
         <v>-0.0066</v>
       </c>
-      <c r="AZ2" s="1">
+      <c r="BA2" s="1">
         <v>0.009515000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:55">
       <c r="A3" s="3">
         <v>40237</v>
       </c>
@@ -819,14 +825,14 @@
       <c r="AQ3" s="1">
         <v>0.010456</v>
       </c>
-      <c r="AX3" s="1">
+      <c r="AY3" s="1">
         <v>-0.0009339999999999999</v>
       </c>
-      <c r="AZ3" s="1">
+      <c r="BA3" s="1">
         <v>0.011262</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:55">
       <c r="A4" s="3">
         <v>40268</v>
       </c>
@@ -869,17 +875,17 @@
       <c r="AQ4" s="1">
         <v>0.003035</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AY4" s="1">
         <v>0.016831</v>
       </c>
-      <c r="AZ4" s="1">
+      <c r="BA4" s="1">
         <v>0.008973999999999999</v>
       </c>
-      <c r="BA4" s="1">
+      <c r="BB4" s="1">
         <v>0.061285</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:55">
       <c r="A5" s="3">
         <v>40298</v>
       </c>
@@ -922,17 +928,17 @@
       <c r="AQ5" s="1">
         <v>0.022498</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AY5" s="1">
         <v>0.0282</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="BA5" s="1">
         <v>0.019678</v>
       </c>
-      <c r="BA5" s="1">
+      <c r="BB5" s="1">
         <v>0.031629</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:55">
       <c r="A6" s="3">
         <v>40329</v>
       </c>
@@ -975,17 +981,17 @@
       <c r="AQ6" s="1">
         <v>-0.003182</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AY6" s="1">
         <v>-0.047892</v>
       </c>
-      <c r="AZ6" s="1">
+      <c r="BA6" s="1">
         <v>-0.010882</v>
       </c>
-      <c r="BA6" s="1">
+      <c r="BB6" s="1">
         <v>-0.083255</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:55">
       <c r="A7" s="3">
         <v>40359</v>
       </c>
@@ -1028,17 +1034,17 @@
       <c r="AQ7" s="1">
         <v>-7.499999999999999E-05</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="AY7" s="1">
         <v>-0.045778</v>
       </c>
-      <c r="AZ7" s="1">
+      <c r="BA7" s="1">
         <v>0.000676</v>
       </c>
-      <c r="BA7" s="1">
+      <c r="BB7" s="1">
         <v>0.0068</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:55">
       <c r="A8" s="3">
         <v>40390</v>
       </c>
@@ -1081,17 +1087,17 @@
       <c r="AQ8" s="1">
         <v>0.005798999999999999</v>
       </c>
-      <c r="AX8" s="1">
+      <c r="AY8" s="1">
         <v>0.010844</v>
       </c>
-      <c r="AZ8" s="1">
+      <c r="BA8" s="1">
         <v>0.00788</v>
       </c>
-      <c r="BA8" s="1">
+      <c r="BB8" s="1">
         <v>0.009004999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:55">
       <c r="A9" s="3">
         <v>40421</v>
       </c>
@@ -1134,17 +1140,17 @@
       <c r="AQ9" s="1">
         <v>0.019768</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="AY9" s="1">
         <v>-0.028797</v>
       </c>
-      <c r="AZ9" s="1">
+      <c r="BA9" s="1">
         <v>0.017186</v>
       </c>
-      <c r="BA9" s="1">
+      <c r="BB9" s="1">
         <v>-0.0005319999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:55">
       <c r="A10" s="3">
         <v>40451</v>
       </c>
@@ -1187,17 +1193,17 @@
       <c r="AQ10" s="1">
         <v>0.020647</v>
       </c>
-      <c r="AX10" s="1">
+      <c r="AY10" s="1">
         <v>0.07757900000000001</v>
       </c>
-      <c r="AZ10" s="1">
+      <c r="BA10" s="1">
         <v>0.022955</v>
       </c>
-      <c r="BA10" s="1">
+      <c r="BB10" s="1">
         <v>0.049883</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:55">
       <c r="A11" s="3">
         <v>40482</v>
       </c>
@@ -1240,17 +1246,17 @@
       <c r="AQ11" s="1">
         <v>0.01519</v>
       </c>
-      <c r="AX11" s="1">
+      <c r="AY11" s="1">
         <v>0.017363</v>
       </c>
-      <c r="AZ11" s="1">
+      <c r="BA11" s="1">
         <v>0.01542</v>
       </c>
-      <c r="BA11" s="1">
+      <c r="BB11" s="1">
         <v>0.033655</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:55">
       <c r="A12" s="3">
         <v>40512</v>
       </c>
@@ -1293,17 +1299,17 @@
       <c r="AQ12" s="1">
         <v>-0.004452999999999999</v>
       </c>
-      <c r="AX12" s="1">
+      <c r="AY12" s="1">
         <v>0.004677</v>
       </c>
-      <c r="AZ12" s="1">
+      <c r="BA12" s="1">
         <v>-0.007644</v>
       </c>
-      <c r="BA12" s="1">
+      <c r="BB12" s="1">
         <v>-0.030046</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:55">
       <c r="A13" s="3">
         <v>40543</v>
       </c>
@@ -1349,17 +1355,17 @@
       <c r="AQ13" s="1">
         <v>0.027443</v>
       </c>
-      <c r="AX13" s="1">
+      <c r="AY13" s="1">
         <v>0.09005800000000001</v>
       </c>
-      <c r="AZ13" s="1">
+      <c r="BA13" s="1">
         <v>0.024241</v>
       </c>
-      <c r="BA13" s="1">
+      <c r="BB13" s="1">
         <v>0.06673</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:55">
       <c r="A14" s="3">
         <v>40574</v>
       </c>
@@ -1408,17 +1414,17 @@
       <c r="AQ14" s="1">
         <v>0.005061</v>
       </c>
-      <c r="AX14" s="1">
+      <c r="AY14" s="1">
         <v>0.002517</v>
       </c>
-      <c r="AZ14" s="1">
+      <c r="BA14" s="1">
         <v>0.004273</v>
       </c>
-      <c r="BA14" s="1">
+      <c r="BB14" s="1">
         <v>0.005669</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:55">
       <c r="A15" s="3">
         <v>40602</v>
       </c>
@@ -1470,17 +1476,17 @@
       <c r="AQ15" s="1">
         <v>0.016099</v>
       </c>
-      <c r="AX15" s="1">
+      <c r="AY15" s="1">
         <v>0.0161</v>
       </c>
-      <c r="AZ15" s="1">
+      <c r="BA15" s="1">
         <v>0.017703</v>
       </c>
-      <c r="BA15" s="1">
+      <c r="BB15" s="1">
         <v>0.034435</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:55">
       <c r="A16" s="3">
         <v>40633</v>
       </c>
@@ -1532,17 +1538,17 @@
       <c r="AQ16" s="1">
         <v>0.005163999999999999</v>
       </c>
-      <c r="AX16" s="1">
+      <c r="AY16" s="1">
         <v>-0.030761</v>
       </c>
-      <c r="AZ16" s="1">
+      <c r="BA16" s="1">
         <v>0.002161</v>
       </c>
-      <c r="BA16" s="1">
+      <c r="BB16" s="1">
         <v>-0.008463</v>
       </c>
     </row>
-    <row r="17" spans="1:54">
+    <row r="17" spans="1:55">
       <c r="A17" s="3">
         <v>40663</v>
       </c>
@@ -1594,20 +1600,20 @@
       <c r="AQ17" s="1">
         <v>0.029924</v>
       </c>
-      <c r="AX17" s="1">
+      <c r="AY17" s="1">
         <v>-0.0003</v>
       </c>
-      <c r="AZ17" s="1">
+      <c r="BA17" s="1">
         <v>0.030118</v>
       </c>
-      <c r="BA17" s="1">
+      <c r="BB17" s="1">
         <v>0.059374</v>
       </c>
-      <c r="BB17" s="1">
+      <c r="BC17" s="1">
         <v>0.022126</v>
       </c>
     </row>
-    <row r="18" spans="1:54">
+    <row r="18" spans="1:55">
       <c r="A18" s="3">
         <v>40694</v>
       </c>
@@ -1659,20 +1665,20 @@
       <c r="AQ18" s="1">
         <v>-0.003582</v>
       </c>
-      <c r="AX18" s="1">
+      <c r="AY18" s="1">
         <v>-0.040685</v>
       </c>
-      <c r="AZ18" s="1">
+      <c r="BA18" s="1">
         <v>-0.003184</v>
       </c>
-      <c r="BA18" s="1">
+      <c r="BB18" s="1">
         <v>-0.032045</v>
       </c>
-      <c r="BB18" s="1">
+      <c r="BC18" s="1">
         <v>-0.029818</v>
       </c>
     </row>
-    <row r="19" spans="1:54">
+    <row r="19" spans="1:55">
       <c r="A19" s="3">
         <v>40724</v>
       </c>
@@ -1724,20 +1730,20 @@
       <c r="AQ19" s="1">
         <v>-0.005359</v>
       </c>
-      <c r="AX19" s="1">
+      <c r="AY19" s="1">
         <v>-0.073089</v>
       </c>
-      <c r="AZ19" s="1">
+      <c r="BA19" s="1">
         <v>-0.007058</v>
       </c>
-      <c r="BA19" s="1">
+      <c r="BB19" s="1">
         <v>-0.038988</v>
       </c>
-      <c r="BB19" s="1">
+      <c r="BC19" s="1">
         <v>-0.02908</v>
       </c>
     </row>
-    <row r="20" spans="1:54">
+    <row r="20" spans="1:55">
       <c r="A20" s="3">
         <v>40755</v>
       </c>
@@ -1789,20 +1795,20 @@
       <c r="AQ20" s="1">
         <v>0.019693</v>
       </c>
-      <c r="AX20" s="1">
+      <c r="AY20" s="1">
         <v>-0.033196</v>
       </c>
-      <c r="AZ20" s="1">
+      <c r="BA20" s="1">
         <v>0.022707</v>
       </c>
-      <c r="BA20" s="1">
+      <c r="BB20" s="1">
         <v>0.040017</v>
       </c>
-      <c r="BB20" s="1">
+      <c r="BC20" s="1">
         <v>0.012378</v>
       </c>
     </row>
-    <row r="21" spans="1:54">
+    <row r="21" spans="1:55">
       <c r="A21" s="3">
         <v>40786</v>
       </c>
@@ -1854,20 +1860,20 @@
       <c r="AQ21" s="1">
         <v>0.007606000000000001</v>
       </c>
-      <c r="AX21" s="1">
+      <c r="AY21" s="1">
         <v>-0.09492300000000001</v>
       </c>
-      <c r="AZ21" s="1">
+      <c r="BA21" s="1">
         <v>0.002562</v>
       </c>
-      <c r="BA21" s="1">
+      <c r="BB21" s="1">
         <v>-0.020893</v>
       </c>
-      <c r="BB21" s="1">
+      <c r="BC21" s="1">
         <v>0.025366</v>
       </c>
     </row>
-    <row r="22" spans="1:54">
+    <row r="22" spans="1:55">
       <c r="A22" s="3">
         <v>40816</v>
       </c>
@@ -1919,20 +1925,20 @@
       <c r="AQ22" s="1">
         <v>-0.014361</v>
       </c>
-      <c r="AX22" s="1">
+      <c r="AY22" s="1">
         <v>-0.123667</v>
       </c>
-      <c r="AZ22" s="1">
+      <c r="BA22" s="1">
         <v>-0.012071</v>
       </c>
-      <c r="BA22" s="1">
+      <c r="BB22" s="1">
         <v>0.001683</v>
       </c>
-      <c r="BB22" s="1">
+      <c r="BC22" s="1">
         <v>0.048723</v>
       </c>
     </row>
-    <row r="23" spans="1:54">
+    <row r="23" spans="1:55">
       <c r="A23" s="3">
         <v>40847</v>
       </c>
@@ -1984,20 +1990,20 @@
       <c r="AQ23" s="1">
         <v>0.006543999999999999</v>
       </c>
-      <c r="AX23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="1">
+      <c r="AY23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="1">
         <v>0.004115</v>
       </c>
-      <c r="BA23" s="1">
+      <c r="BB23" s="1">
         <v>-0.07249900000000001</v>
       </c>
-      <c r="BB23" s="1">
+      <c r="BC23" s="1">
         <v>-0.024339</v>
       </c>
     </row>
-    <row r="24" spans="1:54">
+    <row r="24" spans="1:55">
       <c r="A24" s="3">
         <v>40877</v>
       </c>
@@ -2049,17 +2055,17 @@
       <c r="AQ24" s="1">
         <v>0.000528</v>
       </c>
-      <c r="AZ24" s="1">
+      <c r="BA24" s="1">
         <v>-0.001239</v>
       </c>
-      <c r="BA24" s="1">
+      <c r="BB24" s="1">
         <v>0.017417</v>
       </c>
-      <c r="BB24" s="1">
+      <c r="BC24" s="1">
         <v>-0.012866</v>
       </c>
     </row>
-    <row r="25" spans="1:54">
+    <row r="25" spans="1:55">
       <c r="A25" s="3">
         <v>40908</v>
       </c>
@@ -2114,17 +2120,17 @@
       <c r="AQ25" s="1">
         <v>0.0009429999999999999</v>
       </c>
-      <c r="AZ25" s="1">
+      <c r="BA25" s="1">
         <v>0.006749000000000001</v>
       </c>
-      <c r="BA25" s="1">
+      <c r="BB25" s="1">
         <v>0.022205</v>
       </c>
-      <c r="BB25" s="1">
+      <c r="BC25" s="1">
         <v>0.005444</v>
       </c>
     </row>
-    <row r="26" spans="1:54">
+    <row r="26" spans="1:55">
       <c r="A26" s="3">
         <v>40939</v>
       </c>
@@ -2179,17 +2185,17 @@
       <c r="AQ26" s="1">
         <v>0.011361</v>
       </c>
-      <c r="AZ26" s="1">
+      <c r="BA26" s="1">
         <v>0.018128</v>
       </c>
-      <c r="BA26" s="1">
+      <c r="BB26" s="1">
         <v>0.008099</v>
       </c>
-      <c r="BB26" s="1">
+      <c r="BC26" s="1">
         <v>0.011857</v>
       </c>
     </row>
-    <row r="27" spans="1:54">
+    <row r="27" spans="1:55">
       <c r="A27" s="3">
         <v>40968</v>
       </c>
@@ -2244,17 +2250,17 @@
       <c r="AQ27" s="1">
         <v>0.009848000000000001</v>
       </c>
-      <c r="AZ27" s="1">
+      <c r="BA27" s="1">
         <v>0.012696</v>
       </c>
-      <c r="BA27" s="1">
+      <c r="BB27" s="1">
         <v>0.012327</v>
       </c>
-      <c r="BB27" s="1">
+      <c r="BC27" s="1">
         <v>0.019028</v>
       </c>
     </row>
-    <row r="28" spans="1:54">
+    <row r="28" spans="1:55">
       <c r="A28" s="3">
         <v>40999</v>
       </c>
@@ -2315,17 +2321,17 @@
       <c r="AQ28" s="1">
         <v>0.003025</v>
       </c>
-      <c r="AZ28" s="1">
+      <c r="BA28" s="1">
         <v>-0.00217</v>
       </c>
-      <c r="BA28" s="1">
+      <c r="BB28" s="1">
         <v>-0.048776</v>
       </c>
-      <c r="BB28" s="1">
+      <c r="BC28" s="1">
         <v>-0.0033</v>
       </c>
     </row>
-    <row r="29" spans="1:54">
+    <row r="29" spans="1:55">
       <c r="A29" s="3">
         <v>41029</v>
       </c>
@@ -2386,17 +2392,17 @@
       <c r="AQ29" s="1">
         <v>0.000372</v>
       </c>
-      <c r="AZ29" s="1">
+      <c r="BA29" s="1">
         <v>0.006162999999999999</v>
       </c>
-      <c r="BA29" s="1">
+      <c r="BB29" s="1">
         <v>0.037126</v>
       </c>
-      <c r="BB29" s="1">
+      <c r="BC29" s="1">
         <v>-0.020173</v>
       </c>
     </row>
-    <row r="30" spans="1:54">
+    <row r="30" spans="1:55">
       <c r="A30" s="3">
         <v>41060</v>
       </c>
@@ -2460,17 +2466,17 @@
       <c r="AR30" s="1">
         <v>-0.000749</v>
       </c>
-      <c r="AZ30" s="1">
+      <c r="BA30" s="1">
         <v>-0.003984</v>
       </c>
-      <c r="BA30" s="1">
+      <c r="BB30" s="1">
         <v>0.010601</v>
       </c>
-      <c r="BB30" s="1">
+      <c r="BC30" s="1">
         <v>0.038868</v>
       </c>
     </row>
-    <row r="31" spans="1:54">
+    <row r="31" spans="1:55">
       <c r="A31" s="3">
         <v>41090</v>
       </c>
@@ -2534,17 +2540,17 @@
       <c r="AR31" s="1">
         <v>-0.001168</v>
       </c>
-      <c r="AZ31" s="1">
+      <c r="BA31" s="1">
         <v>-0.006199</v>
       </c>
-      <c r="BA31" s="1">
+      <c r="BB31" s="1">
         <v>-0.053884</v>
       </c>
-      <c r="BB31" s="1">
+      <c r="BC31" s="1">
         <v>-0.043697</v>
       </c>
     </row>
-    <row r="32" spans="1:54">
+    <row r="32" spans="1:55">
       <c r="A32" s="3">
         <v>41121</v>
       </c>
@@ -2608,17 +2614,17 @@
       <c r="AR32" s="1">
         <v>0.011066</v>
       </c>
-      <c r="AZ32" s="1">
+      <c r="BA32" s="1">
         <v>0.02095</v>
       </c>
-      <c r="BA32" s="1">
+      <c r="BB32" s="1">
         <v>0.066189</v>
       </c>
-      <c r="BB32" s="1">
+      <c r="BC32" s="1">
         <v>0.028149</v>
       </c>
     </row>
-    <row r="33" spans="1:54">
+    <row r="33" spans="1:55">
       <c r="A33" s="3">
         <v>41152</v>
       </c>
@@ -2682,17 +2688,17 @@
       <c r="AR33" s="1">
         <v>-0.002123</v>
       </c>
-      <c r="AZ33" s="1">
+      <c r="BA33" s="1">
         <v>0.007521</v>
       </c>
-      <c r="BA33" s="1">
+      <c r="BB33" s="1">
         <v>-0.001062</v>
       </c>
-      <c r="BB33" s="1">
+      <c r="BC33" s="1">
         <v>0.0046</v>
       </c>
     </row>
-    <row r="34" spans="1:54">
+    <row r="34" spans="1:55">
       <c r="A34" s="3">
         <v>41182</v>
       </c>
@@ -2759,17 +2765,17 @@
       <c r="AR34" s="1">
         <v>0.006776</v>
       </c>
-      <c r="AZ34" s="1">
+      <c r="BA34" s="1">
         <v>0.011474</v>
       </c>
-      <c r="BA34" s="1">
+      <c r="BB34" s="1">
         <v>-0.001893</v>
       </c>
-      <c r="BB34" s="1">
+      <c r="BC34" s="1">
         <v>0.001657</v>
       </c>
     </row>
-    <row r="35" spans="1:54">
+    <row r="35" spans="1:55">
       <c r="A35" s="3">
         <v>41213</v>
       </c>
@@ -2836,17 +2842,17 @@
       <c r="AR35" s="1">
         <v>0.011242</v>
       </c>
-      <c r="AZ35" s="1">
+      <c r="BA35" s="1">
         <v>-0.004262</v>
       </c>
-      <c r="BA35" s="1">
+      <c r="BB35" s="1">
         <v>-0.053434</v>
       </c>
-      <c r="BB35" s="1">
+      <c r="BC35" s="1">
         <v>-0.0156</v>
       </c>
     </row>
-    <row r="36" spans="1:54">
+    <row r="36" spans="1:55">
       <c r="A36" s="3">
         <v>41243</v>
       </c>
@@ -2913,17 +2919,17 @@
       <c r="AR36" s="1">
         <v>-0.005841</v>
       </c>
-      <c r="AZ36" s="1">
+      <c r="BA36" s="1">
         <v>0.010373</v>
       </c>
-      <c r="BA36" s="1">
+      <c r="BB36" s="1">
         <v>0.017349</v>
       </c>
-      <c r="BB36" s="1">
+      <c r="BC36" s="1">
         <v>0.010637</v>
       </c>
     </row>
-    <row r="37" spans="1:54">
+    <row r="37" spans="1:55">
       <c r="A37" s="3">
         <v>41274</v>
       </c>
@@ -2990,17 +2996,17 @@
       <c r="AR37" s="1">
         <v>0.020102</v>
       </c>
-      <c r="AZ37" s="1">
+      <c r="BA37" s="1">
         <v>0.015749</v>
       </c>
-      <c r="BA37" s="1">
+      <c r="BB37" s="1">
         <v>0.014965</v>
       </c>
-      <c r="BB37" s="1">
+      <c r="BC37" s="1">
         <v>0.027112</v>
       </c>
     </row>
-    <row r="38" spans="1:54">
+    <row r="38" spans="1:55">
       <c r="A38" s="3">
         <v>41305</v>
       </c>
@@ -3067,17 +3073,17 @@
       <c r="AR38" s="1">
         <v>-4.7E-05</v>
       </c>
-      <c r="AZ38" s="1">
+      <c r="BA38" s="1">
         <v>0.022744</v>
       </c>
-      <c r="BA38" s="1">
+      <c r="BB38" s="1">
         <v>0.038139</v>
       </c>
-      <c r="BB38" s="1">
+      <c r="BC38" s="1">
         <v>0.0432</v>
       </c>
     </row>
-    <row r="39" spans="1:54">
+    <row r="39" spans="1:55">
       <c r="A39" s="3">
         <v>41333</v>
       </c>
@@ -3147,17 +3153,17 @@
       <c r="AR39" s="1">
         <v>0.009941</v>
       </c>
-      <c r="AZ39" s="1">
+      <c r="BA39" s="1">
         <v>0.009202999999999999</v>
       </c>
-      <c r="BA39" s="1">
+      <c r="BB39" s="1">
         <v>-0.012338</v>
       </c>
-      <c r="BB39" s="1">
+      <c r="BC39" s="1">
         <v>0.006978</v>
       </c>
     </row>
-    <row r="40" spans="1:54">
+    <row r="40" spans="1:55">
       <c r="A40" s="3">
         <v>41364</v>
       </c>
@@ -3227,17 +3233,17 @@
       <c r="AR40" s="1">
         <v>0.046333</v>
       </c>
-      <c r="AZ40" s="1">
+      <c r="BA40" s="1">
         <v>0.016489</v>
       </c>
-      <c r="BA40" s="1">
+      <c r="BB40" s="1">
         <v>0.025213</v>
       </c>
-      <c r="BB40" s="1">
+      <c r="BC40" s="1">
         <v>0.019424</v>
       </c>
     </row>
-    <row r="41" spans="1:54">
+    <row r="41" spans="1:55">
       <c r="A41" s="3">
         <v>41394</v>
       </c>
@@ -3307,20 +3313,20 @@
       <c r="AR41" s="1">
         <v>0.023803</v>
       </c>
-      <c r="AY41" s="1">
-        <v>0</v>
-      </c>
       <c r="AZ41" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA41" s="1">
         <v>0.01557</v>
       </c>
-      <c r="BA41" s="1">
+      <c r="BB41" s="1">
         <v>0.025363</v>
       </c>
-      <c r="BB41" s="1">
+      <c r="BC41" s="1">
         <v>0.005762000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:54">
+    <row r="42" spans="1:55">
       <c r="A42" s="3">
         <v>41425</v>
       </c>
@@ -3390,20 +3396,20 @@
       <c r="AR42" s="1">
         <v>0.011716</v>
       </c>
-      <c r="AY42" s="1">
+      <c r="AZ42" s="1">
         <v>0.03558</v>
       </c>
-      <c r="AZ42" s="1">
+      <c r="BA42" s="1">
         <v>-0.002546</v>
       </c>
-      <c r="BA42" s="1">
+      <c r="BB42" s="1">
         <v>-0.08167199999999999</v>
       </c>
-      <c r="BB42" s="1">
+      <c r="BC42" s="1">
         <v>0.035909</v>
       </c>
     </row>
-    <row r="43" spans="1:54">
+    <row r="43" spans="1:55">
       <c r="A43" s="3">
         <v>41455</v>
       </c>
@@ -3473,20 +3479,20 @@
       <c r="AR43" s="1">
         <v>-0.024078</v>
       </c>
-      <c r="AY43" s="1">
+      <c r="AZ43" s="1">
         <v>0.002739</v>
       </c>
-      <c r="AZ43" s="1">
+      <c r="BA43" s="1">
         <v>-0.030947</v>
       </c>
-      <c r="BA43" s="1">
+      <c r="BB43" s="1">
         <v>-0.09459899999999999</v>
       </c>
-      <c r="BB43" s="1">
+      <c r="BC43" s="1">
         <v>0.00528</v>
       </c>
     </row>
-    <row r="44" spans="1:54">
+    <row r="44" spans="1:55">
       <c r="A44" s="3">
         <v>41486</v>
       </c>
@@ -3556,20 +3562,20 @@
       <c r="AR44" s="1">
         <v>0.007268</v>
       </c>
-      <c r="AY44" s="1">
+      <c r="AZ44" s="1">
         <v>0.006951000000000001</v>
       </c>
-      <c r="AZ44" s="1">
+      <c r="BA44" s="1">
         <v>0.006632</v>
       </c>
-      <c r="BA44" s="1">
+      <c r="BB44" s="1">
         <v>-0.007865</v>
       </c>
-      <c r="BB44" s="1">
+      <c r="BC44" s="1">
         <v>-0.0284</v>
       </c>
     </row>
-    <row r="45" spans="1:54">
+    <row r="45" spans="1:55">
       <c r="A45" s="3">
         <v>41517</v>
       </c>
@@ -3642,20 +3648,20 @@
       <c r="AR45" s="1">
         <v>0.018921</v>
       </c>
-      <c r="AY45" s="1">
+      <c r="AZ45" s="1">
         <v>0.007665</v>
       </c>
-      <c r="AZ45" s="1">
+      <c r="BA45" s="1">
         <v>-0.006783</v>
       </c>
-      <c r="BA45" s="1">
+      <c r="BB45" s="1">
         <v>-0.00509</v>
       </c>
-      <c r="BB45" s="1">
+      <c r="BC45" s="1">
         <v>-0.007348</v>
       </c>
     </row>
-    <row r="46" spans="1:54">
+    <row r="46" spans="1:55">
       <c r="A46" s="3">
         <v>41547</v>
       </c>
@@ -3731,20 +3737,20 @@
       <c r="AR46" s="1">
         <v>0.014872</v>
       </c>
-      <c r="AY46" s="1">
+      <c r="AZ46" s="1">
         <v>0.008599000000000001</v>
       </c>
-      <c r="AZ46" s="1">
+      <c r="BA46" s="1">
         <v>0.008038999999999999</v>
       </c>
-      <c r="BA46" s="1">
+      <c r="BB46" s="1">
         <v>-0.007808000000000001</v>
       </c>
-      <c r="BB46" s="1">
+      <c r="BC46" s="1">
         <v>-0.003695</v>
       </c>
     </row>
-    <row r="47" spans="1:54">
+    <row r="47" spans="1:55">
       <c r="A47" s="3">
         <v>41578</v>
       </c>
@@ -3820,20 +3826,20 @@
       <c r="AR47" s="1">
         <v>0.009944</v>
       </c>
-      <c r="AY47" s="1">
+      <c r="AZ47" s="1">
         <v>0.003773</v>
       </c>
-      <c r="AZ47" s="1">
+      <c r="BA47" s="1">
         <v>0.012158</v>
       </c>
-      <c r="BA47" s="1">
+      <c r="BB47" s="1">
         <v>0.038158</v>
       </c>
-      <c r="BB47" s="1">
+      <c r="BC47" s="1">
         <v>-0.0001</v>
       </c>
     </row>
-    <row r="48" spans="1:54">
+    <row r="48" spans="1:55">
       <c r="A48" s="3">
         <v>41608</v>
       </c>
@@ -3909,20 +3915,20 @@
       <c r="AR48" s="1">
         <v>0.002652</v>
       </c>
-      <c r="AY48" s="1">
+      <c r="AZ48" s="1">
         <v>0.015641</v>
       </c>
-      <c r="AZ48" s="1">
+      <c r="BA48" s="1">
         <v>0.009136</v>
       </c>
-      <c r="BA48" s="1">
+      <c r="BB48" s="1">
         <v>0.002931</v>
       </c>
-      <c r="BB48" s="1">
+      <c r="BC48" s="1">
         <v>0.036344</v>
       </c>
     </row>
-    <row r="49" spans="1:54">
+    <row r="49" spans="1:55">
       <c r="A49" s="3">
         <v>41639</v>
       </c>
@@ -3998,20 +4004,20 @@
       <c r="AR49" s="1">
         <v>0.004162</v>
       </c>
-      <c r="AY49" s="1">
+      <c r="AZ49" s="1">
         <v>0.007006</v>
       </c>
-      <c r="AZ49" s="1">
+      <c r="BA49" s="1">
         <v>0.003543</v>
       </c>
-      <c r="BA49" s="1">
+      <c r="BB49" s="1">
         <v>-0.03121</v>
       </c>
-      <c r="BB49" s="1">
+      <c r="BC49" s="1">
         <v>0.023342</v>
       </c>
     </row>
-    <row r="50" spans="1:54">
+    <row r="50" spans="1:55">
       <c r="A50" s="3">
         <v>41670</v>
       </c>
@@ -4087,20 +4093,20 @@
       <c r="AR50" s="1">
         <v>0.010316</v>
       </c>
-      <c r="AY50" s="1">
+      <c r="AZ50" s="1">
         <v>0.016483</v>
       </c>
-      <c r="AZ50" s="1">
+      <c r="BA50" s="1">
         <v>0.0009320000000000001</v>
       </c>
-      <c r="BA50" s="1">
+      <c r="BB50" s="1">
         <v>-0.039505</v>
       </c>
-      <c r="BB50" s="1">
+      <c r="BC50" s="1">
         <v>-0.0207</v>
       </c>
     </row>
-    <row r="51" spans="1:54">
+    <row r="51" spans="1:55">
       <c r="A51" s="3">
         <v>41698</v>
       </c>
@@ -4176,20 +4182,20 @@
       <c r="AR51" s="1">
         <v>-0.00181</v>
       </c>
-      <c r="AY51" s="1">
+      <c r="AZ51" s="1">
         <v>0.012484</v>
       </c>
-      <c r="AZ51" s="1">
+      <c r="BA51" s="1">
         <v>0.010285</v>
       </c>
-      <c r="BA51" s="1">
+      <c r="BB51" s="1">
         <v>0.026999</v>
       </c>
-      <c r="BB51" s="1">
+      <c r="BC51" s="1">
         <v>-0.008381999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:54">
+    <row r="52" spans="1:55">
       <c r="A52" s="3">
         <v>41729</v>
       </c>
@@ -4265,20 +4271,20 @@
       <c r="AR52" s="1">
         <v>0.005104999999999999</v>
       </c>
-      <c r="AY52" s="1">
+      <c r="AZ52" s="1">
         <v>0.002003</v>
       </c>
-      <c r="AZ52" s="1">
+      <c r="BA52" s="1">
         <v>-0.000425</v>
       </c>
-      <c r="BA52" s="1">
+      <c r="BB52" s="1">
         <v>-0.024001</v>
       </c>
-      <c r="BB52" s="1">
+      <c r="BC52" s="1">
         <v>-0.003123</v>
       </c>
     </row>
-    <row r="53" spans="1:54">
+    <row r="53" spans="1:55">
       <c r="A53" s="3">
         <v>41759</v>
       </c>
@@ -4354,20 +4360,20 @@
       <c r="AR53" s="1">
         <v>0.000916</v>
       </c>
-      <c r="AY53" s="1">
+      <c r="AZ53" s="1">
         <v>0.007514999999999999</v>
       </c>
-      <c r="AZ53" s="1">
+      <c r="BA53" s="1">
         <v>0.001525</v>
       </c>
-      <c r="BA53" s="1">
+      <c r="BB53" s="1">
         <v>0.009555000000000001</v>
       </c>
-      <c r="BB53" s="1">
+      <c r="BC53" s="1">
         <v>-0.007881000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:54">
+    <row r="54" spans="1:55">
       <c r="A54" s="3">
         <v>41790</v>
       </c>
@@ -4443,20 +4449,20 @@
       <c r="AR54" s="1">
         <v>-0.002305</v>
       </c>
-      <c r="AY54" s="1">
+      <c r="AZ54" s="1">
         <v>0.005868</v>
       </c>
-      <c r="AZ54" s="1">
+      <c r="BA54" s="1">
         <v>0.009306</v>
       </c>
-      <c r="BA54" s="1">
+      <c r="BB54" s="1">
         <v>0.063212</v>
       </c>
-      <c r="BB54" s="1">
+      <c r="BC54" s="1">
         <v>-0.004870999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:54">
+    <row r="55" spans="1:55">
       <c r="A55" s="3">
         <v>41820</v>
       </c>
@@ -4532,20 +4538,20 @@
       <c r="AR55" s="1">
         <v>0.005664</v>
       </c>
-      <c r="AY55" s="1">
+      <c r="AZ55" s="1">
         <v>0.006825</v>
       </c>
-      <c r="AZ55" s="1">
+      <c r="BA55" s="1">
         <v>0.005043</v>
       </c>
-      <c r="BA55" s="1">
+      <c r="BB55" s="1">
         <v>0.027277</v>
       </c>
-      <c r="BB55" s="1">
+      <c r="BC55" s="1">
         <v>0.003128</v>
       </c>
     </row>
-    <row r="56" spans="1:54">
+    <row r="56" spans="1:55">
       <c r="A56" s="3">
         <v>41851</v>
       </c>
@@ -4621,20 +4627,20 @@
       <c r="AR56" s="1">
         <v>0.005191</v>
       </c>
-      <c r="AY56" s="1">
+      <c r="AZ56" s="1">
         <v>0.006199</v>
       </c>
-      <c r="AZ56" s="1">
+      <c r="BA56" s="1">
         <v>0.0007099999999999999</v>
       </c>
-      <c r="BA56" s="1">
+      <c r="BB56" s="1">
         <v>-0.021145</v>
       </c>
-      <c r="BB56" s="1">
+      <c r="BC56" s="1">
         <v>0.015327</v>
       </c>
     </row>
-    <row r="57" spans="1:54">
+    <row r="57" spans="1:55">
       <c r="A57" s="3">
         <v>41882</v>
       </c>
@@ -4707,20 +4713,20 @@
       <c r="AR57" s="1">
         <v>0.005473</v>
       </c>
-      <c r="AY57" s="1">
+      <c r="AZ57" s="1">
         <v>0.00557</v>
       </c>
-      <c r="AZ57" s="1">
+      <c r="BA57" s="1">
         <v>0.010746</v>
       </c>
-      <c r="BA57" s="1">
+      <c r="BB57" s="1">
         <v>0.048887</v>
       </c>
-      <c r="BB57" s="1">
+      <c r="BC57" s="1">
         <v>0.002756</v>
       </c>
     </row>
-    <row r="58" spans="1:54">
+    <row r="58" spans="1:55">
       <c r="A58" s="3">
         <v>41912</v>
       </c>
@@ -4793,20 +4799,20 @@
       <c r="AR58" s="1">
         <v>0.004563</v>
       </c>
-      <c r="AY58" s="1">
+      <c r="AZ58" s="1">
         <v>0.007748000000000001</v>
       </c>
-      <c r="AZ58" s="1">
+      <c r="BA58" s="1">
         <v>-0.005199</v>
       </c>
-      <c r="BA58" s="1">
+      <c r="BB58" s="1">
         <v>-0.026942</v>
       </c>
-      <c r="BB58" s="1">
+      <c r="BC58" s="1">
         <v>0.036017</v>
       </c>
     </row>
-    <row r="59" spans="1:54">
+    <row r="59" spans="1:55">
       <c r="A59" s="3">
         <v>41943</v>
       </c>
@@ -4879,20 +4885,20 @@
       <c r="AR59" s="1">
         <v>0.000278</v>
       </c>
-      <c r="AY59" s="1">
+      <c r="AZ59" s="1">
         <v>0.006</v>
       </c>
-      <c r="AZ59" s="1">
+      <c r="BA59" s="1">
         <v>-0.005983</v>
       </c>
-      <c r="BA59" s="1">
+      <c r="BB59" s="1">
         <v>0.022217</v>
       </c>
-      <c r="BB59" s="1">
+      <c r="BC59" s="1">
         <v>-0.016337</v>
       </c>
     </row>
-    <row r="60" spans="1:54">
+    <row r="60" spans="1:55">
       <c r="A60" s="3">
         <v>41973</v>
       </c>
@@ -4965,20 +4971,20 @@
       <c r="AR60" s="1">
         <v>0.002513</v>
       </c>
-      <c r="AY60" s="1">
+      <c r="AZ60" s="1">
         <v>0.004157</v>
       </c>
-      <c r="AZ60" s="1">
+      <c r="BA60" s="1">
         <v>0.011543</v>
       </c>
-      <c r="BA60" s="1">
+      <c r="BB60" s="1">
         <v>0.04981</v>
       </c>
-      <c r="BB60" s="1">
+      <c r="BC60" s="1">
         <v>0.032408</v>
       </c>
     </row>
-    <row r="61" spans="1:54">
+    <row r="61" spans="1:55">
       <c r="A61" s="3">
         <v>42004</v>
       </c>
@@ -5051,20 +5057,20 @@
       <c r="AR61" s="1">
         <v>0.004001</v>
       </c>
-      <c r="AY61" s="1">
+      <c r="AZ61" s="1">
         <v>9.7E-05</v>
       </c>
-      <c r="AZ61" s="1">
+      <c r="BA61" s="1">
         <v>-0.004608999999999999</v>
       </c>
-      <c r="BA61" s="1">
+      <c r="BB61" s="1">
         <v>-0.008612</v>
       </c>
-      <c r="BB61" s="1">
+      <c r="BC61" s="1">
         <v>0.0075</v>
       </c>
     </row>
-    <row r="62" spans="1:54">
+    <row r="62" spans="1:55">
       <c r="A62" s="3">
         <v>42035</v>
       </c>
@@ -5137,20 +5143,20 @@
       <c r="AR62" s="1">
         <v>-0.0009700000000000001</v>
       </c>
-      <c r="AY62" s="1">
+      <c r="AZ62" s="1">
         <v>-0.003</v>
       </c>
-      <c r="AZ62" s="1">
+      <c r="BA62" s="1">
         <v>0.018125</v>
       </c>
-      <c r="BA62" s="1">
+      <c r="BB62" s="1">
         <v>0.093871</v>
       </c>
-      <c r="BB62" s="1">
+      <c r="BC62" s="1">
         <v>0.026782</v>
       </c>
     </row>
-    <row r="63" spans="1:54">
+    <row r="63" spans="1:55">
       <c r="A63" s="3">
         <v>42063</v>
       </c>
@@ -5223,20 +5229,20 @@
       <c r="AR63" s="1">
         <v>0.007519000000000001</v>
       </c>
-      <c r="AY63" s="1">
+      <c r="AZ63" s="1">
         <v>-0.008765</v>
       </c>
-      <c r="AZ63" s="1">
+      <c r="BA63" s="1">
         <v>0.013834</v>
       </c>
-      <c r="BA63" s="1">
+      <c r="BB63" s="1">
         <v>0.001328</v>
       </c>
-      <c r="BB63" s="1">
+      <c r="BC63" s="1">
         <v>-0.005886</v>
       </c>
     </row>
-    <row r="64" spans="1:54">
+    <row r="64" spans="1:55">
       <c r="A64" s="3">
         <v>42094</v>
       </c>
@@ -5309,20 +5315,20 @@
       <c r="AR64" s="1">
         <v>0.003867</v>
       </c>
-      <c r="AY64" s="1">
+      <c r="AZ64" s="1">
         <v>0.007901999999999999</v>
       </c>
-      <c r="AZ64" s="1">
+      <c r="BA64" s="1">
         <v>0.011452</v>
       </c>
-      <c r="BA64" s="1">
+      <c r="BB64" s="1">
         <v>0.019184</v>
       </c>
-      <c r="BB64" s="1">
+      <c r="BC64" s="1">
         <v>0.019462</v>
       </c>
     </row>
-    <row r="65" spans="1:54">
+    <row r="65" spans="1:55">
       <c r="A65" s="3">
         <v>42124</v>
       </c>
@@ -5395,20 +5401,20 @@
       <c r="AR65" s="1">
         <v>0.003849</v>
       </c>
-      <c r="AY65" s="1">
+      <c r="AZ65" s="1">
         <v>0.008314</v>
       </c>
-      <c r="AZ65" s="1">
+      <c r="BA65" s="1">
         <v>-0.0027</v>
       </c>
-      <c r="BA65" s="1">
+      <c r="BB65" s="1">
         <v>-0.031132</v>
       </c>
-      <c r="BB65" s="1">
+      <c r="BC65" s="1">
         <v>-0.024114</v>
       </c>
     </row>
-    <row r="66" spans="1:54">
+    <row r="66" spans="1:55">
       <c r="A66" s="3">
         <v>42155</v>
       </c>
@@ -5481,20 +5487,20 @@
       <c r="AR66" s="1">
         <v>0.003633</v>
       </c>
-      <c r="AY66" s="1">
+      <c r="AZ66" s="1">
         <v>0.008237</v>
       </c>
-      <c r="AZ66" s="1">
+      <c r="BA66" s="1">
         <v>0.007499</v>
       </c>
-      <c r="BA66" s="1">
+      <c r="BB66" s="1">
         <v>-0.020862</v>
       </c>
-      <c r="BB66" s="1">
+      <c r="BC66" s="1">
         <v>0.015608</v>
       </c>
     </row>
-    <row r="67" spans="1:54">
+    <row r="67" spans="1:55">
       <c r="A67" s="3">
         <v>42185</v>
       </c>
@@ -5564,20 +5570,20 @@
       <c r="AR67" s="1">
         <v>-0.001146</v>
       </c>
-      <c r="AY67" s="1">
+      <c r="AZ67" s="1">
         <v>-0.003195</v>
       </c>
-      <c r="AZ67" s="1">
+      <c r="BA67" s="1">
         <v>-0.018586</v>
       </c>
-      <c r="BA67" s="1">
+      <c r="BB67" s="1">
         <v>-0.082897</v>
       </c>
-      <c r="BB67" s="1">
+      <c r="BC67" s="1">
         <v>-0.027385</v>
       </c>
     </row>
-    <row r="68" spans="1:54">
+    <row r="68" spans="1:55">
       <c r="A68" s="3">
         <v>42216</v>
       </c>
@@ -5647,20 +5653,20 @@
       <c r="AR68" s="1">
         <v>0.001981</v>
       </c>
-      <c r="AY68" s="1">
+      <c r="AZ68" s="1">
         <v>-0.006867</v>
       </c>
-      <c r="AZ68" s="1">
+      <c r="BA68" s="1">
         <v>0.006813</v>
       </c>
-      <c r="BA68" s="1">
+      <c r="BB68" s="1">
         <v>0.062341</v>
       </c>
-      <c r="BB68" s="1">
+      <c r="BC68" s="1">
         <v>0.016667</v>
       </c>
     </row>
-    <row r="69" spans="1:54">
+    <row r="69" spans="1:55">
       <c r="A69" s="3">
         <v>42247</v>
       </c>
@@ -5730,20 +5736,20 @@
       <c r="AR69" s="1">
         <v>-0.000378</v>
       </c>
-      <c r="AY69" s="1">
+      <c r="AZ69" s="1">
         <v>-0.000102</v>
       </c>
-      <c r="AZ69" s="1">
+      <c r="BA69" s="1">
         <v>-0.013868</v>
       </c>
-      <c r="BA69" s="1">
+      <c r="BB69" s="1">
         <v>0.00413</v>
       </c>
-      <c r="BB69" s="1">
+      <c r="BC69" s="1">
         <v>-0.007965999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:54">
+    <row r="70" spans="1:55">
       <c r="A70" s="3">
         <v>42277</v>
       </c>
@@ -5813,20 +5819,20 @@
       <c r="AR70" s="1">
         <v>-0.002754</v>
       </c>
-      <c r="AY70" s="1">
+      <c r="AZ70" s="1">
         <v>-0.010032</v>
       </c>
-      <c r="AZ70" s="1">
+      <c r="BA70" s="1">
         <v>-0.002276</v>
       </c>
-      <c r="BA70" s="1">
+      <c r="BB70" s="1">
         <v>0.024628</v>
       </c>
-      <c r="BB70" s="1">
+      <c r="BC70" s="1">
         <v>-0.011941</v>
       </c>
     </row>
-    <row r="71" spans="1:54">
+    <row r="71" spans="1:55">
       <c r="A71" s="3">
         <v>42308</v>
       </c>
@@ -5896,20 +5902,20 @@
       <c r="AR71" s="1">
         <v>-0.004289</v>
       </c>
-      <c r="AY71" s="1">
+      <c r="AZ71" s="1">
         <v>-0.01924</v>
       </c>
-      <c r="AZ71" s="1">
+      <c r="BA71" s="1">
         <v>-5.2E-05</v>
       </c>
-      <c r="BA71" s="1">
+      <c r="BB71" s="1">
         <v>-0.018387</v>
       </c>
-      <c r="BB71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:54">
+      <c r="BC71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:55">
       <c r="A72" s="3">
         <v>42338</v>
       </c>
@@ -5979,20 +5985,20 @@
       <c r="AR72" s="1">
         <v>-0.006217</v>
       </c>
-      <c r="AY72" s="1">
+      <c r="AZ72" s="1">
         <v>0.00464</v>
       </c>
-      <c r="AZ72" s="1">
+      <c r="BA72" s="1">
         <v>0.003671</v>
       </c>
-      <c r="BA72" s="1">
+      <c r="BB72" s="1">
         <v>0.032751</v>
       </c>
-      <c r="BB72" s="1">
+      <c r="BC72" s="1">
         <v>0.023325</v>
       </c>
     </row>
-    <row r="73" spans="1:54">
+    <row r="73" spans="1:55">
       <c r="A73" s="3">
         <v>42369</v>
       </c>
@@ -6062,20 +6068,20 @@
       <c r="AR73" s="1">
         <v>0.003287</v>
       </c>
-      <c r="AY73" s="1">
+      <c r="AZ73" s="1">
         <v>0.001211</v>
       </c>
-      <c r="AZ73" s="1">
+      <c r="BA73" s="1">
         <v>-0.018914</v>
       </c>
-      <c r="BA73" s="1">
+      <c r="BB73" s="1">
         <v>-0.035705</v>
       </c>
-      <c r="BB73" s="1">
+      <c r="BC73" s="1">
         <v>-0.008699999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:54">
+    <row r="74" spans="1:55">
       <c r="A74" s="3">
         <v>42400</v>
       </c>
@@ -6148,20 +6154,20 @@
       <c r="AQ74" s="1">
         <v>0.002496</v>
       </c>
-      <c r="AU74" s="1">
+      <c r="AV74" s="1">
         <v>-0.016711</v>
       </c>
-      <c r="AZ74" s="1">
+      <c r="BA74" s="1">
         <v>0.0008899999999999999</v>
       </c>
-      <c r="BA74" s="1">
+      <c r="BB74" s="1">
         <v>0.075613</v>
       </c>
-      <c r="BB74" s="1">
+      <c r="BC74" s="1">
         <v>-0.008356000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:54">
+    <row r="75" spans="1:55">
       <c r="A75" s="3">
         <v>42429</v>
       </c>
@@ -6234,20 +6240,20 @@
       <c r="AQ75" s="1">
         <v>-0.006170999999999999</v>
       </c>
-      <c r="AU75" s="1">
+      <c r="AV75" s="1">
         <v>-0.016849</v>
       </c>
-      <c r="AZ75" s="1">
+      <c r="BA75" s="1">
         <v>0.000371</v>
       </c>
-      <c r="BA75" s="1">
+      <c r="BB75" s="1">
         <v>0.022009</v>
       </c>
-      <c r="BB75" s="1">
+      <c r="BC75" s="1">
         <v>-0.001951</v>
       </c>
     </row>
-    <row r="76" spans="1:54">
+    <row r="76" spans="1:55">
       <c r="A76" s="3">
         <v>42460</v>
       </c>
@@ -6314,20 +6320,20 @@
       <c r="AQ76" s="1">
         <v>-0.027403</v>
       </c>
-      <c r="AU76" s="1">
+      <c r="AV76" s="1">
         <v>0.016731</v>
       </c>
-      <c r="AZ76" s="1">
+      <c r="BA76" s="1">
         <v>-0.017275</v>
       </c>
-      <c r="BA76" s="1">
+      <c r="BB76" s="1">
         <v>-0.019071</v>
       </c>
-      <c r="BB76" s="1">
+      <c r="BC76" s="1">
         <v>-0.017771</v>
       </c>
     </row>
-    <row r="77" spans="1:54">
+    <row r="77" spans="1:55">
       <c r="A77" s="3">
         <v>42490</v>
       </c>
@@ -6391,20 +6397,20 @@
       <c r="AQ77" s="1">
         <v>-0.010744</v>
       </c>
-      <c r="AU77" s="1">
+      <c r="AV77" s="1">
         <v>0.002997</v>
       </c>
-      <c r="AZ77" s="1">
+      <c r="BA77" s="1">
         <v>-0.006489</v>
       </c>
-      <c r="BA77" s="1">
+      <c r="BB77" s="1">
         <v>-0.069548</v>
       </c>
-      <c r="BB77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:54">
+      <c r="BC77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:55">
       <c r="A78" s="3">
         <v>42521</v>
       </c>
@@ -6465,20 +6471,20 @@
       <c r="AQ78" s="1">
         <v>0.007383999999999999</v>
       </c>
-      <c r="AU78" s="1">
+      <c r="AV78" s="1">
         <v>-0.000172</v>
       </c>
-      <c r="AZ78" s="1">
+      <c r="BA78" s="1">
         <v>0.002097</v>
       </c>
-      <c r="BA78" s="1">
+      <c r="BB78" s="1">
         <v>-0.026286</v>
       </c>
-      <c r="BB78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:54">
+      <c r="BC78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:55">
       <c r="A79" s="3">
         <v>42551</v>
       </c>
@@ -6539,17 +6545,17 @@
       <c r="AQ79" s="1">
         <v>-0.011528</v>
       </c>
-      <c r="AU79" s="1">
+      <c r="AV79" s="1">
         <v>0.005410000000000001</v>
       </c>
-      <c r="AZ79" s="1">
+      <c r="BA79" s="1">
         <v>0.00049</v>
       </c>
-      <c r="BA79" s="1">
+      <c r="BB79" s="1">
         <v>0.027644</v>
       </c>
     </row>
-    <row r="80" spans="1:54">
+    <row r="80" spans="1:55">
       <c r="A80" s="3">
         <v>42582</v>
       </c>
@@ -6607,17 +6613,17 @@
       <c r="AQ80" s="1">
         <v>-0.003677</v>
       </c>
-      <c r="AU80" s="1">
+      <c r="AV80" s="1">
         <v>0.00426</v>
       </c>
-      <c r="AZ80" s="1">
+      <c r="BA80" s="1">
         <v>0.005207000000000001</v>
       </c>
-      <c r="BA80" s="1">
+      <c r="BB80" s="1">
         <v>0.030076</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="3">
         <v>42613</v>
       </c>
@@ -6675,17 +6681,17 @@
       <c r="AQ81" s="1">
         <v>0.003172</v>
       </c>
-      <c r="AU81" s="1">
+      <c r="AV81" s="1">
         <v>-0.02006</v>
       </c>
-      <c r="AZ81" s="1">
+      <c r="BA81" s="1">
         <v>0.001597</v>
       </c>
-      <c r="BA81" s="1">
+      <c r="BB81" s="1">
         <v>-0.040317</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="3">
         <v>42643</v>
       </c>
@@ -6746,17 +6752,17 @@
       <c r="AQ82" s="1">
         <v>-0.005092</v>
       </c>
-      <c r="AU82" s="1">
+      <c r="AV82" s="1">
         <v>0.000144</v>
       </c>
-      <c r="AZ82" s="1">
+      <c r="BA82" s="1">
         <v>-0.005722000000000001</v>
       </c>
-      <c r="BA82" s="1">
+      <c r="BB82" s="1">
         <v>-0.048745</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:54">
       <c r="A83" s="3">
         <v>42674</v>
       </c>
@@ -6820,17 +6826,17 @@
       <c r="AQ83" s="1">
         <v>0.025865</v>
       </c>
-      <c r="AU83" s="1">
+      <c r="AV83" s="1">
         <v>0.003509</v>
       </c>
-      <c r="AZ83" s="1">
+      <c r="BA83" s="1">
         <v>0.009523999999999999</v>
       </c>
-      <c r="BA83" s="1">
+      <c r="BB83" s="1">
         <v>-0.044423</v>
       </c>
     </row>
-    <row r="84" spans="1:53">
+    <row r="84" spans="1:54">
       <c r="A84" s="3">
         <v>42704</v>
       </c>
@@ -6894,17 +6900,17 @@
       <c r="AQ84" s="1">
         <v>0.019477</v>
       </c>
-      <c r="AU84" s="1">
+      <c r="AV84" s="1">
         <v>0.001656</v>
       </c>
-      <c r="AZ84" s="1">
+      <c r="BA84" s="1">
         <v>0.010288</v>
       </c>
-      <c r="BA84" s="1">
+      <c r="BB84" s="1">
         <v>-0.007778</v>
       </c>
     </row>
-    <row r="85" spans="1:53">
+    <row r="85" spans="1:54">
       <c r="A85" s="3">
         <v>42735</v>
       </c>
@@ -6968,17 +6974,17 @@
       <c r="AQ85" s="1">
         <v>0.013605</v>
       </c>
-      <c r="AU85" s="1">
+      <c r="AV85" s="1">
         <v>0.013607</v>
       </c>
-      <c r="AZ85" s="1">
+      <c r="BA85" s="1">
         <v>0.014488</v>
       </c>
-      <c r="BA85" s="1">
+      <c r="BB85" s="1">
         <v>0.010279</v>
       </c>
     </row>
-    <row r="86" spans="1:53">
+    <row r="86" spans="1:54">
       <c r="A86" s="3">
         <v>42766</v>
       </c>
@@ -7045,17 +7051,17 @@
       <c r="AQ86" s="1">
         <v>-0.019081</v>
       </c>
-      <c r="AU86" s="1">
+      <c r="AV86" s="1">
         <v>0.018963</v>
       </c>
-      <c r="AZ86" s="1">
+      <c r="BA86" s="1">
         <v>-0.004032</v>
       </c>
-      <c r="BA86" s="1">
+      <c r="BB86" s="1">
         <v>-0.018849</v>
       </c>
     </row>
-    <row r="87" spans="1:53">
+    <row r="87" spans="1:54">
       <c r="A87" s="3">
         <v>42794</v>
       </c>
@@ -7125,17 +7131,17 @@
       <c r="AQ87" s="1">
         <v>0.013378</v>
       </c>
-      <c r="AU87" s="1">
+      <c r="AV87" s="1">
         <v>0.006443</v>
       </c>
-      <c r="AZ87" s="1">
+      <c r="BA87" s="1">
         <v>0.01326</v>
       </c>
-      <c r="BA87" s="1">
+      <c r="BB87" s="1">
         <v>0.020887</v>
       </c>
     </row>
-    <row r="88" spans="1:53">
+    <row r="88" spans="1:54">
       <c r="A88" s="3">
         <v>42825</v>
       </c>
@@ -7202,17 +7208,17 @@
       <c r="AQ88" s="1">
         <v>-0.002316</v>
       </c>
-      <c r="AU88" s="1">
+      <c r="AV88" s="1">
         <v>0.00449</v>
       </c>
-      <c r="AZ88" s="1">
+      <c r="BA88" s="1">
         <v>-0.002092</v>
       </c>
-      <c r="BA88" s="1">
+      <c r="BB88" s="1">
         <v>-0.008464000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:53">
+    <row r="89" spans="1:54">
       <c r="A89" s="3">
         <v>42855</v>
       </c>
@@ -7276,17 +7282,17 @@
       <c r="AQ89" s="1">
         <v>-0.013384</v>
       </c>
-      <c r="AU89" s="1">
+      <c r="AV89" s="1">
         <v>-0.014134</v>
       </c>
-      <c r="AZ89" s="1">
+      <c r="BA89" s="1">
         <v>-0.006401</v>
       </c>
-      <c r="BA89" s="1">
+      <c r="BB89" s="1">
         <v>0.00844</v>
       </c>
     </row>
-    <row r="90" spans="1:53">
+    <row r="90" spans="1:54">
       <c r="A90" s="3">
         <v>42886</v>
       </c>
@@ -7350,17 +7356,17 @@
       <c r="AQ90" s="1">
         <v>-0.009091999999999999</v>
       </c>
-      <c r="AU90" s="1">
+      <c r="AV90" s="1">
         <v>0.003173</v>
       </c>
-      <c r="AZ90" s="1">
+      <c r="BA90" s="1">
         <v>-0.004066</v>
       </c>
-      <c r="BA90" s="1">
+      <c r="BB90" s="1">
         <v>-0.002421</v>
       </c>
     </row>
-    <row r="91" spans="1:53">
+    <row r="91" spans="1:54">
       <c r="A91" s="3">
         <v>42916</v>
       </c>
@@ -7424,17 +7430,17 @@
       <c r="AQ91" s="1">
         <v>-0.011685</v>
       </c>
-      <c r="AU91" s="1">
+      <c r="AV91" s="1">
         <v>0.033561</v>
       </c>
-      <c r="AZ91" s="1">
+      <c r="BA91" s="1">
         <v>-0.004543</v>
       </c>
-      <c r="BA91" s="1">
+      <c r="BB91" s="1">
         <v>-0.039503</v>
       </c>
     </row>
-    <row r="92" spans="1:53">
+    <row r="92" spans="1:54">
       <c r="A92" s="3">
         <v>42947</v>
       </c>
@@ -7498,17 +7504,17 @@
       <c r="AQ92" s="1">
         <v>-0.003179</v>
       </c>
-      <c r="AU92" s="1">
+      <c r="AV92" s="1">
         <v>-0.008812</v>
       </c>
-      <c r="AZ92" s="1">
+      <c r="BA92" s="1">
         <v>0.000888</v>
       </c>
-      <c r="BA92" s="1">
+      <c r="BB92" s="1">
         <v>0.006044000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:53">
+    <row r="93" spans="1:54">
       <c r="A93" s="3">
         <v>42978</v>
       </c>
@@ -7572,17 +7578,17 @@
       <c r="AQ93" s="1">
         <v>0.016824</v>
       </c>
-      <c r="AU93" s="1">
+      <c r="AV93" s="1">
         <v>0.004544</v>
       </c>
-      <c r="AZ93" s="1">
+      <c r="BA93" s="1">
         <v>0.014215</v>
       </c>
-      <c r="BA93" s="1">
+      <c r="BB93" s="1">
         <v>0.02669</v>
       </c>
     </row>
-    <row r="94" spans="1:53">
+    <row r="94" spans="1:54">
       <c r="A94" s="3">
         <v>43008</v>
       </c>
@@ -7652,20 +7658,20 @@
       <c r="AS94" s="1">
         <v>0</v>
       </c>
-      <c r="AU94" s="1">
+      <c r="AV94" s="1">
         <v>0.006196</v>
       </c>
-      <c r="AW94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ94" s="1">
+      <c r="AX94" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA94" s="1">
         <v>-0.00215</v>
       </c>
-      <c r="BA94" s="1">
+      <c r="BB94" s="1">
         <v>-0.033051</v>
       </c>
     </row>
-    <row r="95" spans="1:53">
+    <row r="95" spans="1:54">
       <c r="A95" s="3">
         <v>43039</v>
       </c>
@@ -7735,20 +7741,20 @@
       <c r="AS95" s="1">
         <v>0.006864</v>
       </c>
-      <c r="AU95" s="1">
+      <c r="AV95" s="1">
         <v>0.012415</v>
       </c>
-      <c r="AW95" s="1">
+      <c r="AX95" s="1">
         <v>0.051039</v>
       </c>
-      <c r="AZ95" s="1">
+      <c r="BA95" s="1">
         <v>0.019426</v>
       </c>
-      <c r="BA95" s="1">
+      <c r="BB95" s="1">
         <v>0.040477</v>
       </c>
     </row>
-    <row r="96" spans="1:53">
+    <row r="96" spans="1:54">
       <c r="A96" s="3">
         <v>43069</v>
       </c>
@@ -7818,20 +7824,20 @@
       <c r="AS96" s="1">
         <v>-0.026704</v>
       </c>
-      <c r="AU96" s="1">
+      <c r="AV96" s="1">
         <v>0.011996</v>
       </c>
-      <c r="AW96" s="1">
+      <c r="AX96" s="1">
         <v>-0.01181</v>
       </c>
-      <c r="AZ96" s="1">
+      <c r="BA96" s="1">
         <v>0.004482</v>
       </c>
-      <c r="BA96" s="1">
+      <c r="BB96" s="1">
         <v>-0.011183</v>
       </c>
     </row>
-    <row r="97" spans="1:53">
+    <row r="97" spans="1:54">
       <c r="A97" s="3">
         <v>43100</v>
       </c>
@@ -7898,20 +7904,20 @@
       <c r="AS97" s="1">
         <v>-0.02109</v>
       </c>
-      <c r="AU97" s="1">
+      <c r="AV97" s="1">
         <v>0.008704</v>
       </c>
-      <c r="AW97" s="1">
+      <c r="AX97" s="1">
         <v>0.03524099999999999</v>
       </c>
-      <c r="AZ97" s="1">
+      <c r="BA97" s="1">
         <v>0.005189</v>
       </c>
-      <c r="BA97" s="1">
+      <c r="BB97" s="1">
         <v>0.012073</v>
       </c>
     </row>
-    <row r="98" spans="1:53">
+    <row r="98" spans="1:54">
       <c r="A98" s="3">
         <v>43131</v>
       </c>
@@ -7978,20 +7984,20 @@
       <c r="AS98" s="1">
         <v>-0.01917</v>
       </c>
-      <c r="AU98" s="1">
+      <c r="AV98" s="1">
         <v>-0.017407</v>
       </c>
-      <c r="AW98" s="1">
+      <c r="AX98" s="1">
         <v>0.065429</v>
       </c>
-      <c r="AZ98" s="1">
+      <c r="BA98" s="1">
         <v>0.041193</v>
       </c>
-      <c r="BA98" s="1">
+      <c r="BB98" s="1">
         <v>0.070228</v>
       </c>
     </row>
-    <row r="99" spans="1:53">
+    <row r="99" spans="1:54">
       <c r="A99" s="3">
         <v>43159</v>
       </c>
@@ -8058,20 +8064,20 @@
       <c r="AS99" s="1">
         <v>0.050057</v>
       </c>
-      <c r="AU99" s="1">
+      <c r="AV99" s="1">
         <v>0.00121</v>
       </c>
-      <c r="AW99" s="1">
+      <c r="AX99" s="1">
         <v>-0.122211</v>
       </c>
-      <c r="AZ99" s="1">
+      <c r="BA99" s="1">
         <v>-0.012415</v>
       </c>
-      <c r="BA99" s="1">
+      <c r="BB99" s="1">
         <v>-0.099005</v>
       </c>
     </row>
-    <row r="100" spans="1:53">
+    <row r="100" spans="1:54">
       <c r="A100" s="3">
         <v>43190</v>
       </c>
@@ -8135,20 +8141,20 @@
       <c r="AS100" s="1">
         <v>0.022567</v>
       </c>
-      <c r="AU100" s="1">
+      <c r="AV100" s="1">
         <v>-0.9151269999999999</v>
       </c>
-      <c r="AW100" s="1">
+      <c r="AX100" s="1">
         <v>-0.010625</v>
       </c>
-      <c r="AZ100" s="1">
+      <c r="BA100" s="1">
         <v>-0.003737</v>
       </c>
-      <c r="BA100" s="1">
+      <c r="BB100" s="1">
         <v>-0.013803</v>
       </c>
     </row>
-    <row r="101" spans="1:53">
+    <row r="101" spans="1:54">
       <c r="A101" s="3">
         <v>43220</v>
       </c>
@@ -8212,20 +8218,20 @@
       <c r="AS101" s="1">
         <v>0.020992</v>
       </c>
-      <c r="AU101" s="1">
+      <c r="AV101" s="1">
         <v>0.001452</v>
       </c>
-      <c r="AW101" s="1">
+      <c r="AX101" s="1">
         <v>-0.021718</v>
       </c>
-      <c r="AZ101" s="1">
+      <c r="BA101" s="1">
         <v>-0.0005600000000000001</v>
       </c>
-      <c r="BA101" s="1">
+      <c r="BB101" s="1">
         <v>-0.004601</v>
       </c>
     </row>
-    <row r="102" spans="1:53">
+    <row r="102" spans="1:54">
       <c r="A102" s="3">
         <v>43251</v>
       </c>
@@ -8289,20 +8295,20 @@
       <c r="AS102" s="1">
         <v>-0.02324</v>
       </c>
-      <c r="AU102" s="1">
+      <c r="AV102" s="1">
         <v>0.001652</v>
       </c>
-      <c r="AW102" s="1">
+      <c r="AX102" s="1">
         <v>-0.047446</v>
       </c>
-      <c r="AZ102" s="1">
+      <c r="BA102" s="1">
         <v>0.000254</v>
       </c>
-      <c r="BA102" s="1">
+      <c r="BB102" s="1">
         <v>-0.035167</v>
       </c>
     </row>
-    <row r="103" spans="1:53">
+    <row r="103" spans="1:54">
       <c r="A103" s="3">
         <v>43281</v>
       </c>
@@ -8366,20 +8372,20 @@
       <c r="AS103" s="1">
         <v>0.011672</v>
       </c>
-      <c r="AU103" s="1">
+      <c r="AV103" s="1">
         <v>0.001472</v>
       </c>
-      <c r="AW103" s="1">
+      <c r="AX103" s="1">
         <v>0.011895</v>
       </c>
-      <c r="AZ103" s="1">
+      <c r="BA103" s="1">
         <v>0.000596</v>
       </c>
-      <c r="BA103" s="1">
+      <c r="BB103" s="1">
         <v>0.013491</v>
       </c>
     </row>
-    <row r="104" spans="1:53">
+    <row r="104" spans="1:54">
       <c r="A104" s="3">
         <v>43312</v>
       </c>
@@ -8443,20 +8449,20 @@
       <c r="AS104" s="1">
         <v>-0.001844</v>
       </c>
-      <c r="AU104" s="1">
+      <c r="AV104" s="1">
         <v>0.001673</v>
       </c>
-      <c r="AW104" s="1">
+      <c r="AX104" s="1">
         <v>0.023664</v>
       </c>
-      <c r="AZ104" s="1">
+      <c r="BA104" s="1">
         <v>-0.000511</v>
       </c>
-      <c r="BA104" s="1">
+      <c r="BB104" s="1">
         <v>-0.007092</v>
       </c>
     </row>
-    <row r="105" spans="1:53">
+    <row r="105" spans="1:54">
       <c r="A105" s="3">
         <v>43343</v>
       </c>
@@ -8520,20 +8526,20 @@
       <c r="AS105" s="1">
         <v>-0.048528</v>
       </c>
-      <c r="AU105" s="1">
+      <c r="AV105" s="1">
         <v>0.001703</v>
       </c>
-      <c r="AW105" s="1">
+      <c r="AX105" s="1">
         <v>0.082287</v>
       </c>
-      <c r="AZ105" s="1">
+      <c r="BA105" s="1">
         <v>-0.003202</v>
       </c>
-      <c r="BA105" s="1">
+      <c r="BB105" s="1">
         <v>0.048318</v>
       </c>
     </row>
-    <row r="106" spans="1:53">
+    <row r="106" spans="1:54">
       <c r="A106" s="3">
         <v>43373</v>
       </c>
@@ -8594,20 +8600,20 @@
       <c r="AS106" s="1">
         <v>0.004223</v>
       </c>
-      <c r="AU106" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW106" s="1">
+      <c r="AV106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX106" s="1">
         <v>-0.056481</v>
       </c>
-      <c r="AZ106" s="1">
+      <c r="BA106" s="1">
         <v>0.005291000000000001</v>
       </c>
-      <c r="BA106" s="1">
+      <c r="BB106" s="1">
         <v>-0.024567</v>
       </c>
     </row>
-    <row r="107" spans="1:53">
+    <row r="107" spans="1:54">
       <c r="A107" s="3">
         <v>43404</v>
       </c>
@@ -8668,20 +8674,20 @@
       <c r="AS107" s="1">
         <v>0.017934</v>
       </c>
-      <c r="AU107" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW107" s="1">
+      <c r="AV107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX107" s="1">
         <v>-0.009883999999999999</v>
       </c>
-      <c r="AZ107" s="1">
+      <c r="BA107" s="1">
         <v>0.009499</v>
       </c>
-      <c r="BA107" s="1">
+      <c r="BB107" s="1">
         <v>-0.01551</v>
       </c>
     </row>
-    <row r="108" spans="1:53">
+    <row r="108" spans="1:54">
       <c r="A108" s="3">
         <v>43434</v>
       </c>
@@ -8742,17 +8748,17 @@
       <c r="AS108" s="1">
         <v>-0.030511</v>
       </c>
-      <c r="AW108" s="1">
+      <c r="AX108" s="1">
         <v>-0.019518</v>
       </c>
-      <c r="AZ108" s="1">
+      <c r="BA108" s="1">
         <v>-0.011409</v>
       </c>
-      <c r="BA108" s="1">
+      <c r="BB108" s="1">
         <v>-0.009733</v>
       </c>
     </row>
-    <row r="109" spans="1:53">
+    <row r="109" spans="1:54">
       <c r="A109" s="3">
         <v>43465</v>
       </c>
@@ -8813,17 +8819,17 @@
       <c r="AS109" s="1">
         <v>0.023266</v>
       </c>
-      <c r="AW109" s="1">
+      <c r="AX109" s="1">
         <v>0.037229</v>
       </c>
-      <c r="AZ109" s="1">
+      <c r="BA109" s="1">
         <v>0.011448</v>
       </c>
-      <c r="BA109" s="1">
+      <c r="BB109" s="1">
         <v>0.04564</v>
       </c>
     </row>
-    <row r="110" spans="1:53">
+    <row r="110" spans="1:54">
       <c r="A110" s="3">
         <v>43496</v>
       </c>
@@ -8884,17 +8890,17 @@
       <c r="AS110" s="1">
         <v>0.004292000000000001</v>
       </c>
-      <c r="AW110" s="1">
+      <c r="AX110" s="1">
         <v>-0.0612</v>
       </c>
-      <c r="AZ110" s="1">
+      <c r="BA110" s="1">
         <v>-0.002874</v>
       </c>
-      <c r="BA110" s="1">
+      <c r="BB110" s="1">
         <v>-0.052918</v>
       </c>
     </row>
-    <row r="111" spans="1:53">
+    <row r="111" spans="1:54">
       <c r="A111" s="3">
         <v>43524</v>
       </c>
@@ -8955,17 +8961,17 @@
       <c r="AS111" s="1">
         <v>-0.007922999999999999</v>
       </c>
-      <c r="AW111" s="1">
+      <c r="AX111" s="1">
         <v>0.000835</v>
       </c>
-      <c r="AZ111" s="1">
+      <c r="BA111" s="1">
         <v>0.001174</v>
       </c>
-      <c r="BA111" s="1">
+      <c r="BB111" s="1">
         <v>-0.000568</v>
       </c>
     </row>
-    <row r="112" spans="1:53">
+    <row r="112" spans="1:54">
       <c r="A112" s="3">
         <v>43555</v>
       </c>
@@ -9026,17 +9032,17 @@
       <c r="AS112" s="1">
         <v>-0.01251</v>
       </c>
-      <c r="AW112" s="1">
+      <c r="AX112" s="1">
         <v>0.06095900000000001</v>
       </c>
-      <c r="AZ112" s="1">
+      <c r="BA112" s="1">
         <v>0.005143</v>
       </c>
-      <c r="BA112" s="1">
+      <c r="BB112" s="1">
         <v>0.060594</v>
       </c>
     </row>
-    <row r="113" spans="1:53">
+    <row r="113" spans="1:54">
       <c r="A113" s="3">
         <v>43585</v>
       </c>
@@ -9097,17 +9103,17 @@
       <c r="AS113" s="1">
         <v>0.036691</v>
       </c>
-      <c r="AW113" s="1">
+      <c r="AX113" s="1">
         <v>0.020007</v>
       </c>
-      <c r="AZ113" s="1">
+      <c r="BA113" s="1">
         <v>0.013467</v>
       </c>
-      <c r="BA113" s="1">
+      <c r="BB113" s="1">
         <v>0.02219</v>
       </c>
     </row>
-    <row r="114" spans="1:53">
+    <row r="114" spans="1:54">
       <c r="A114" s="3">
         <v>43616</v>
       </c>
@@ -9168,17 +9174,17 @@
       <c r="AS114" s="1">
         <v>-0.050073</v>
       </c>
-      <c r="AW114" s="1">
+      <c r="AX114" s="1">
         <v>0.041796</v>
       </c>
-      <c r="AZ114" s="1">
+      <c r="BA114" s="1">
         <v>-0.01469</v>
       </c>
-      <c r="BA114" s="1">
+      <c r="BB114" s="1">
         <v>0.012263</v>
       </c>
     </row>
-    <row r="115" spans="1:53">
+    <row r="115" spans="1:54">
       <c r="A115" s="3">
         <v>43646</v>
       </c>
@@ -9239,17 +9245,17 @@
       <c r="AS115" s="1">
         <v>0.009291000000000001</v>
       </c>
-      <c r="AW115" s="1">
+      <c r="AX115" s="1">
         <v>0.011272</v>
       </c>
-      <c r="AZ115" s="1">
+      <c r="BA115" s="1">
         <v>0.015903</v>
       </c>
-      <c r="BA115" s="1">
+      <c r="BB115" s="1">
         <v>0.011205</v>
       </c>
     </row>
-    <row r="116" spans="1:53">
+    <row r="116" spans="1:54">
       <c r="A116" s="3">
         <v>43677</v>
       </c>
@@ -9310,20 +9316,20 @@
       <c r="AS116" s="1">
         <v>-0.0356</v>
       </c>
-      <c r="AT116" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW116" s="1">
+      <c r="AU116" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX116" s="1">
         <v>0.07389999999999999</v>
       </c>
-      <c r="AZ116" s="1">
+      <c r="BA116" s="1">
         <v>0.012006</v>
       </c>
-      <c r="BA116" s="1">
+      <c r="BB116" s="1">
         <v>0.038174</v>
       </c>
     </row>
-    <row r="117" spans="1:53">
+    <row r="117" spans="1:54">
       <c r="A117" s="3">
         <v>43708</v>
       </c>
@@ -9384,17 +9390,17 @@
       <c r="AS117" s="1">
         <v>-0.030029</v>
       </c>
-      <c r="AW117" s="1">
+      <c r="AX117" s="1">
         <v>0.076267</v>
       </c>
-      <c r="AZ117" s="1">
+      <c r="BA117" s="1">
         <v>-0.008425</v>
       </c>
-      <c r="BA117" s="1">
+      <c r="BB117" s="1">
         <v>0.07710499999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:53">
+    <row r="118" spans="1:54">
       <c r="A118" s="3">
         <v>43738</v>
       </c>
@@ -9455,20 +9461,20 @@
       <c r="AS118" s="1">
         <v>0.027977</v>
       </c>
-      <c r="AT118" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW118" s="1">
+      <c r="AU118" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX118" s="1">
         <v>-0.053228</v>
       </c>
-      <c r="AZ118" s="1">
+      <c r="BA118" s="1">
         <v>0.005235999999999999</v>
       </c>
-      <c r="BA118" s="1">
+      <c r="BB118" s="1">
         <v>-0.061247</v>
       </c>
     </row>
-    <row r="119" spans="1:53">
+    <row r="119" spans="1:54">
       <c r="A119" s="3">
         <v>43769</v>
       </c>
@@ -9529,17 +9535,17 @@
       <c r="AS119" s="1">
         <v>0.036773</v>
       </c>
-      <c r="AW119" s="1">
+      <c r="AX119" s="1">
         <v>-0.054955</v>
       </c>
-      <c r="AZ119" s="1">
+      <c r="BA119" s="1">
         <v>-0.013224</v>
       </c>
-      <c r="BA119" s="1">
+      <c r="BB119" s="1">
         <v>-0.050982</v>
       </c>
     </row>
-    <row r="120" spans="1:53">
+    <row r="120" spans="1:54">
       <c r="A120" s="3">
         <v>43799</v>
       </c>
@@ -9600,20 +9606,20 @@
       <c r="AS120" s="1">
         <v>-0.019633</v>
       </c>
-      <c r="AT120" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW120" s="1">
+      <c r="AU120" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX120" s="1">
         <v>0.004627</v>
       </c>
-      <c r="AZ120" s="1">
+      <c r="BA120" s="1">
         <v>0.009103</v>
       </c>
-      <c r="BA120" s="1">
+      <c r="BB120" s="1">
         <v>-0.000206</v>
       </c>
     </row>
-    <row r="121" spans="1:53">
+    <row r="121" spans="1:54">
       <c r="A121" s="3">
         <v>43830</v>
       </c>
@@ -9674,20 +9680,20 @@
       <c r="AS121" s="1">
         <v>0.026371</v>
       </c>
-      <c r="AT121" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW121" s="1">
+      <c r="AU121" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX121" s="1">
         <v>-0.044626</v>
       </c>
-      <c r="AZ121" s="1">
+      <c r="BA121" s="1">
         <v>0.004902</v>
       </c>
-      <c r="BA121" s="1">
+      <c r="BB121" s="1">
         <v>-0.020609</v>
       </c>
     </row>
-    <row r="122" spans="1:53">
+    <row r="122" spans="1:54">
       <c r="A122" s="3">
         <v>43861</v>
       </c>
@@ -9754,20 +9760,20 @@
       <c r="AS122" s="1">
         <v>-0.039357</v>
       </c>
-      <c r="AT122" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW122" s="1">
+      <c r="AU122" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX122" s="1">
         <v>0.021488</v>
       </c>
-      <c r="AZ122" s="1">
+      <c r="BA122" s="1">
         <v>-0.0076</v>
       </c>
-      <c r="BA122" s="1">
+      <c r="BB122" s="1">
         <v>-0.0005909999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:53">
+    <row r="123" spans="1:54">
       <c r="A123" s="3">
         <v>43890</v>
       </c>
@@ -9834,20 +9840,20 @@
       <c r="AS123" s="1">
         <v>-0.028422</v>
       </c>
-      <c r="AT123" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW123" s="1">
+      <c r="AU123" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX123" s="1">
         <v>-0.076389</v>
       </c>
-      <c r="AZ123" s="1">
+      <c r="BA123" s="1">
         <v>-0.014564</v>
       </c>
-      <c r="BA123" s="1">
+      <c r="BB123" s="1">
         <v>0.010553</v>
       </c>
     </row>
-    <row r="124" spans="1:53">
+    <row r="124" spans="1:54">
       <c r="A124" s="3">
         <v>43921</v>
       </c>
@@ -9917,20 +9923,20 @@
       <c r="AS124" s="1">
         <v>-0.04364</v>
       </c>
-      <c r="AT124" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW124" s="1">
+      <c r="AU124" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX124" s="1">
         <v>0.045706</v>
       </c>
-      <c r="AZ124" s="1">
+      <c r="BA124" s="1">
         <v>-0.024447</v>
       </c>
-      <c r="BA124" s="1">
+      <c r="BB124" s="1">
         <v>0.064156</v>
       </c>
     </row>
-    <row r="125" spans="1:53">
+    <row r="125" spans="1:54">
       <c r="A125" s="3">
         <v>43951</v>
       </c>
@@ -10000,20 +10006,20 @@
       <c r="AS125" s="1">
         <v>-0.004172</v>
       </c>
-      <c r="AT125" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW125" s="1">
+      <c r="AU125" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX125" s="1">
         <v>-0.004946</v>
       </c>
-      <c r="AZ125" s="1">
+      <c r="BA125" s="1">
         <v>0.009820000000000001</v>
       </c>
-      <c r="BA125" s="1">
+      <c r="BB125" s="1">
         <v>-0.030118</v>
       </c>
     </row>
-    <row r="126" spans="1:53">
+    <row r="126" spans="1:54">
       <c r="A126" s="3">
         <v>43982</v>
       </c>
@@ -10083,20 +10089,20 @@
       <c r="AS126" s="1">
         <v>0.015155</v>
       </c>
-      <c r="AT126" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW126" s="1">
+      <c r="AU126" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX126" s="1">
         <v>-0.028259</v>
       </c>
-      <c r="AZ126" s="1">
+      <c r="BA126" s="1">
         <v>-0.007527000000000001</v>
       </c>
-      <c r="BA126" s="1">
+      <c r="BB126" s="1">
         <v>-0.02638</v>
       </c>
     </row>
-    <row r="127" spans="1:53">
+    <row r="127" spans="1:54">
       <c r="A127" s="3">
         <v>44012</v>
       </c>
@@ -10166,20 +10172,20 @@
       <c r="AS127" s="1">
         <v>-0.007319</v>
       </c>
-      <c r="AT127" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW127" s="1">
+      <c r="AU127" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX127" s="1">
         <v>-0.033605</v>
       </c>
-      <c r="AZ127" s="1">
+      <c r="BA127" s="1">
         <v>-0.005383</v>
       </c>
-      <c r="BA127" s="1">
+      <c r="BB127" s="1">
         <v>-0.025403</v>
       </c>
     </row>
-    <row r="128" spans="1:53">
+    <row r="128" spans="1:54">
       <c r="A128" s="3">
         <v>44043</v>
       </c>
@@ -10249,17 +10255,17 @@
       <c r="AS128" s="1">
         <v>0.04576</v>
       </c>
-      <c r="AW128" s="1">
+      <c r="AX128" s="1">
         <v>-0.019436</v>
       </c>
-      <c r="AZ128" s="1">
+      <c r="BA128" s="1">
         <v>0.02135</v>
       </c>
-      <c r="BA128" s="1">
+      <c r="BB128" s="1">
         <v>0.022713</v>
       </c>
     </row>
-    <row r="129" spans="1:53">
+    <row r="129" spans="1:54">
       <c r="A129" s="3">
         <v>44074</v>
       </c>
@@ -10329,20 +10335,20 @@
       <c r="AS129" s="1">
         <v>0.009602000000000001</v>
       </c>
-      <c r="AT129" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW129" s="1">
+      <c r="AU129" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX129" s="1">
         <v>-0.049203</v>
       </c>
-      <c r="AZ129" s="1">
+      <c r="BA129" s="1">
         <v>0.011047</v>
       </c>
-      <c r="BA129" s="1">
+      <c r="BB129" s="1">
         <v>-0.014559</v>
       </c>
     </row>
-    <row r="130" spans="1:53">
+    <row r="130" spans="1:54">
       <c r="A130" s="3">
         <v>44104</v>
       </c>
@@ -10412,20 +10418,20 @@
       <c r="AS130" s="1">
         <v>-0.04076</v>
       </c>
-      <c r="AT130" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW130" s="1">
+      <c r="AU130" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX130" s="1">
         <v>-0.016082</v>
       </c>
-      <c r="AZ130" s="1">
+      <c r="BA130" s="1">
         <v>-0.01332</v>
       </c>
-      <c r="BA130" s="1">
+      <c r="BB130" s="1">
         <v>-0.037963</v>
       </c>
     </row>
-    <row r="131" spans="1:53">
+    <row r="131" spans="1:54">
       <c r="A131" s="3">
         <v>44135</v>
       </c>
@@ -10495,20 +10501,20 @@
       <c r="AS131" s="1">
         <v>-0.022722</v>
       </c>
-      <c r="AT131" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW131" s="1">
+      <c r="AU131" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX131" s="1">
         <v>-0.004463</v>
       </c>
-      <c r="AZ131" s="1">
+      <c r="BA131" s="1">
         <v>-0.005556</v>
       </c>
-      <c r="BA131" s="1">
+      <c r="BB131" s="1">
         <v>0.002226</v>
       </c>
     </row>
-    <row r="132" spans="1:53">
+    <row r="132" spans="1:54">
       <c r="A132" s="3">
         <v>44165</v>
       </c>
@@ -10581,20 +10587,20 @@
       <c r="AS132" s="1">
         <v>0.06335300000000001</v>
       </c>
-      <c r="AT132" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW132" s="1">
+      <c r="AU132" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX132" s="1">
         <v>0.048489</v>
       </c>
-      <c r="AZ132" s="1">
+      <c r="BA132" s="1">
         <v>0.01917</v>
       </c>
-      <c r="BA132" s="1">
+      <c r="BB132" s="1">
         <v>0.019295</v>
       </c>
     </row>
-    <row r="133" spans="1:53">
+    <row r="133" spans="1:54">
       <c r="A133" s="3">
         <v>44196</v>
       </c>
@@ -10664,20 +10670,20 @@
       <c r="AS133" s="1">
         <v>0.025576</v>
       </c>
-      <c r="AT133" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW133" s="1">
+      <c r="AU133" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX133" s="1">
         <v>0.09293100000000001</v>
       </c>
-      <c r="AZ133" s="1">
+      <c r="BA133" s="1">
         <v>0.045658</v>
       </c>
-      <c r="BA133" s="1">
+      <c r="BB133" s="1">
         <v>0.084118</v>
       </c>
     </row>
-    <row r="134" spans="1:53">
+    <row r="134" spans="1:54">
       <c r="A134" s="3">
         <v>44227</v>
       </c>
@@ -10747,17 +10753,17 @@
       <c r="AS134" s="1">
         <v>-0.026241</v>
       </c>
-      <c r="AW134" s="1">
+      <c r="AX134" s="1">
         <v>-0.003705</v>
       </c>
-      <c r="AZ134" s="1">
+      <c r="BA134" s="1">
         <v>-0.015506</v>
       </c>
-      <c r="BA134" s="1">
+      <c r="BB134" s="1">
         <v>-0.006623</v>
       </c>
     </row>
-    <row r="135" spans="1:53">
+    <row r="135" spans="1:54">
       <c r="A135" s="3">
         <v>44255</v>
       </c>
@@ -10827,20 +10833,20 @@
       <c r="AS135" s="1">
         <v>-0.033981</v>
       </c>
-      <c r="AT135" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW135" s="1">
+      <c r="AU135" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX135" s="1">
         <v>0.058997</v>
       </c>
-      <c r="AZ135" s="1">
+      <c r="BA135" s="1">
         <v>0.006523999999999999</v>
       </c>
-      <c r="BA135" s="1">
+      <c r="BB135" s="1">
         <v>0.068702</v>
       </c>
     </row>
-    <row r="136" spans="1:53">
+    <row r="136" spans="1:54">
       <c r="A136" s="3">
         <v>44286</v>
       </c>
@@ -10919,20 +10925,20 @@
       <c r="AS136" s="1">
         <v>-0.06991</v>
       </c>
-      <c r="AT136" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW136" s="1">
+      <c r="AU136" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX136" s="1">
         <v>0.011794</v>
       </c>
-      <c r="AZ136" s="1">
+      <c r="BA136" s="1">
         <v>0.005825</v>
       </c>
-      <c r="BA136" s="1">
+      <c r="BB136" s="1">
         <v>0.005084</v>
       </c>
     </row>
-    <row r="137" spans="1:53">
+    <row r="137" spans="1:54">
       <c r="A137" s="3">
         <v>44316</v>
       </c>
@@ -11011,20 +11017,20 @@
       <c r="AS137" s="1">
         <v>0.04190000000000001</v>
       </c>
-      <c r="AT137" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW137" s="1">
+      <c r="AU137" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX137" s="1">
         <v>0.042522</v>
       </c>
-      <c r="AZ137" s="1">
+      <c r="BA137" s="1">
         <v>0.021886</v>
       </c>
-      <c r="BA137" s="1">
+      <c r="BB137" s="1">
         <v>0.037306</v>
       </c>
     </row>
-    <row r="138" spans="1:53">
+    <row r="138" spans="1:54">
       <c r="A138" s="3">
         <v>44347</v>
       </c>
@@ -11103,20 +11109,20 @@
       <c r="AS138" s="1">
         <v>0.0006940000000000001</v>
       </c>
-      <c r="AT138" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW138" s="1">
+      <c r="AU138" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX138" s="1">
         <v>0.030567</v>
       </c>
-      <c r="AZ138" s="1">
+      <c r="BA138" s="1">
         <v>0.018868</v>
       </c>
-      <c r="BA138" s="1">
+      <c r="BB138" s="1">
         <v>0.022799</v>
       </c>
     </row>
-    <row r="139" spans="1:53">
+    <row r="139" spans="1:54">
       <c r="A139" s="3">
         <v>44377</v>
       </c>
@@ -11195,20 +11201,20 @@
       <c r="AS139" s="1">
         <v>0</v>
       </c>
-      <c r="AT139" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW139" s="1">
+      <c r="AU139" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX139" s="1">
         <v>-0.04336599999999999</v>
       </c>
-      <c r="AZ139" s="1">
+      <c r="BA139" s="1">
         <v>-0.012663</v>
       </c>
-      <c r="BA139" s="1">
+      <c r="BB139" s="1">
         <v>-0.03916</v>
       </c>
     </row>
-    <row r="140" spans="1:53">
+    <row r="140" spans="1:54">
       <c r="A140" s="3">
         <v>44408</v>
       </c>
@@ -11287,17 +11293,17 @@
       <c r="AS140" s="1">
         <v>0</v>
       </c>
-      <c r="AW140" s="1">
+      <c r="AX140" s="1">
         <v>-0.020782</v>
       </c>
-      <c r="AZ140" s="1">
+      <c r="BA140" s="1">
         <v>-0.001576</v>
       </c>
-      <c r="BA140" s="1">
+      <c r="BB140" s="1">
         <v>0.000372</v>
       </c>
     </row>
-    <row r="141" spans="1:53">
+    <row r="141" spans="1:54">
       <c r="A141" s="3">
         <v>44439</v>
       </c>
@@ -11373,17 +11379,17 @@
       <c r="AQ141" s="1">
         <v>0.005305</v>
       </c>
-      <c r="AW141" s="1">
+      <c r="AX141" s="1">
         <v>0.007342</v>
       </c>
-      <c r="AZ141" s="1">
+      <c r="BA141" s="1">
         <v>0.0005</v>
       </c>
-      <c r="BA141" s="1">
+      <c r="BB141" s="1">
         <v>-0.007043000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:53">
+    <row r="142" spans="1:54">
       <c r="A142" s="3">
         <v>44469</v>
       </c>
@@ -11459,17 +11465,17 @@
       <c r="AQ142" s="1">
         <v>0.013983</v>
       </c>
-      <c r="AW142" s="1">
+      <c r="AX142" s="1">
         <v>0.006888999999999999</v>
       </c>
-      <c r="AZ142" s="1">
+      <c r="BA142" s="1">
         <v>0.005103</v>
       </c>
-      <c r="BA142" s="1">
+      <c r="BB142" s="1">
         <v>0.004238</v>
       </c>
     </row>
-    <row r="143" spans="1:53">
+    <row r="143" spans="1:54">
       <c r="A143" s="3">
         <v>44500</v>
       </c>
@@ -11545,20 +11551,20 @@
       <c r="AQ143" s="1">
         <v>0.003722</v>
       </c>
-      <c r="AT143" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW143" s="1">
+      <c r="AU143" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX143" s="1">
         <v>0.066457</v>
       </c>
-      <c r="AZ143" s="1">
+      <c r="BA143" s="1">
         <v>0.005445</v>
       </c>
-      <c r="BA143" s="1">
+      <c r="BB143" s="1">
         <v>0.037436</v>
       </c>
     </row>
-    <row r="144" spans="1:53">
+    <row r="144" spans="1:54">
       <c r="A144" s="3">
         <v>44530</v>
       </c>
@@ -11634,17 +11640,17 @@
       <c r="AQ144" s="1">
         <v>-0.020934</v>
       </c>
-      <c r="AW144" s="1">
+      <c r="AX144" s="1">
         <v>-0.052971</v>
       </c>
-      <c r="AZ144" s="1">
+      <c r="BA144" s="1">
         <v>-0.01632</v>
       </c>
-      <c r="BA144" s="1">
+      <c r="BB144" s="1">
         <v>-0.066209</v>
       </c>
     </row>
-    <row r="145" spans="1:53">
+    <row r="145" spans="1:54">
       <c r="A145" s="3">
         <v>44561</v>
       </c>
@@ -11720,20 +11726,20 @@
       <c r="AQ145" s="1">
         <v>0.034174</v>
       </c>
-      <c r="AT145" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW145" s="1">
+      <c r="AU145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX145" s="1">
         <v>0.005547</v>
       </c>
-      <c r="AZ145" s="1">
+      <c r="BA145" s="1">
         <v>0.016288</v>
       </c>
-      <c r="BA145" s="1">
+      <c r="BB145" s="1">
         <v>-0.009860000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:53">
+    <row r="146" spans="1:54">
       <c r="A146" s="3">
         <v>44592</v>
       </c>
@@ -11809,20 +11815,20 @@
       <c r="AQ146" s="1">
         <v>0.02083</v>
       </c>
-      <c r="AT146" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW146" s="1">
+      <c r="AU146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX146" s="1">
         <v>-0.004702</v>
       </c>
-      <c r="AZ146" s="1">
+      <c r="BA146" s="1">
         <v>0.010149</v>
       </c>
-      <c r="BA146" s="1">
+      <c r="BB146" s="1">
         <v>0.028255</v>
       </c>
     </row>
-    <row r="147" spans="1:53">
+    <row r="147" spans="1:54">
       <c r="A147" s="3">
         <v>44620</v>
       </c>
@@ -11898,20 +11904,20 @@
       <c r="AQ147" s="1">
         <v>0.02012</v>
       </c>
-      <c r="AT147" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW147" s="1">
+      <c r="AU147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX147" s="1">
         <v>0.033018</v>
       </c>
-      <c r="AZ147" s="1">
+      <c r="BA147" s="1">
         <v>0.014706</v>
       </c>
-      <c r="BA147" s="1">
+      <c r="BB147" s="1">
         <v>0.042861</v>
       </c>
     </row>
-    <row r="148" spans="1:53">
+    <row r="148" spans="1:54">
       <c r="A148" s="3">
         <v>44651</v>
       </c>
@@ -11987,20 +11993,20 @@
       <c r="AQ148" s="1">
         <v>0.052848</v>
       </c>
-      <c r="AT148" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW148" s="1">
+      <c r="AU148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX148" s="1">
         <v>0.100056</v>
       </c>
-      <c r="AZ148" s="1">
+      <c r="BA148" s="1">
         <v>0.038538</v>
       </c>
-      <c r="BA148" s="1">
+      <c r="BB148" s="1">
         <v>0.111477</v>
       </c>
     </row>
-    <row r="149" spans="1:53">
+    <row r="149" spans="1:54">
       <c r="A149" s="3">
         <v>44681</v>
       </c>
@@ -12073,17 +12079,17 @@
       <c r="AQ149" s="1">
         <v>0.050393</v>
       </c>
-      <c r="AW149" s="1">
+      <c r="AX149" s="1">
         <v>0.08835000000000001</v>
       </c>
-      <c r="AZ149" s="1">
+      <c r="BA149" s="1">
         <v>0.03497</v>
       </c>
-      <c r="BA149" s="1">
+      <c r="BB149" s="1">
         <v>0.081454</v>
       </c>
     </row>
-    <row r="150" spans="1:53">
+    <row r="150" spans="1:54">
       <c r="A150" s="3">
         <v>44712</v>
       </c>
@@ -12156,20 +12162,20 @@
       <c r="AQ150" s="1">
         <v>-0.003539</v>
       </c>
-      <c r="AT150" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW150" s="1">
+      <c r="AU150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX150" s="1">
         <v>-0.016799</v>
       </c>
-      <c r="AZ150" s="1">
+      <c r="BA150" s="1">
         <v>-0.006725999999999999</v>
       </c>
-      <c r="BA150" s="1">
+      <c r="BB150" s="1">
         <v>-0.012652</v>
       </c>
     </row>
-    <row r="151" spans="1:53">
+    <row r="151" spans="1:54">
       <c r="A151" s="3">
         <v>44742</v>
       </c>
@@ -12239,20 +12245,20 @@
       <c r="AQ151" s="1">
         <v>0.024551</v>
       </c>
-      <c r="AT151" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW151" s="1">
+      <c r="AU151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX151" s="1">
         <v>0.080397</v>
       </c>
-      <c r="AZ151" s="1">
+      <c r="BA151" s="1">
         <v>0.021364</v>
       </c>
-      <c r="BA151" s="1">
+      <c r="BB151" s="1">
         <v>0.073393</v>
       </c>
     </row>
-    <row r="152" spans="1:53">
+    <row r="152" spans="1:54">
       <c r="A152" s="3">
         <v>44773</v>
       </c>
@@ -12322,17 +12328,17 @@
       <c r="AQ152" s="1">
         <v>-0.039427</v>
       </c>
-      <c r="AW152" s="1">
+      <c r="AX152" s="1">
         <v>-0.07184499999999999</v>
       </c>
-      <c r="AZ152" s="1">
+      <c r="BA152" s="1">
         <v>-0.033578</v>
       </c>
-      <c r="BA152" s="1">
+      <c r="BB152" s="1">
         <v>-0.080594</v>
       </c>
     </row>
-    <row r="153" spans="1:53">
+    <row r="153" spans="1:54">
       <c r="A153" s="3">
         <v>44804</v>
       </c>
@@ -12402,23 +12408,23 @@
       <c r="AQ153" s="1">
         <v>0.015709</v>
       </c>
-      <c r="AT153" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV153" s="1">
+      <c r="AU153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW153" s="1">
         <v>-0.294715</v>
       </c>
-      <c r="AW153" s="1">
+      <c r="AX153" s="1">
         <v>0.022244</v>
       </c>
-      <c r="AZ153" s="1">
+      <c r="BA153" s="1">
         <v>0.014346</v>
       </c>
-      <c r="BA153" s="1">
+      <c r="BB153" s="1">
         <v>0.039931</v>
       </c>
     </row>
-    <row r="154" spans="1:53">
+    <row r="154" spans="1:54">
       <c r="A154" s="3">
         <v>44834</v>
       </c>
@@ -12488,23 +12494,23 @@
       <c r="AQ154" s="1">
         <v>0.036151</v>
       </c>
-      <c r="AT154" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV154" s="1">
+      <c r="AU154" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW154" s="1">
         <v>-0.146089</v>
       </c>
-      <c r="AW154" s="1">
+      <c r="AX154" s="1">
         <v>0.145801</v>
       </c>
-      <c r="AZ154" s="1">
+      <c r="BA154" s="1">
         <v>0.040747</v>
       </c>
-      <c r="BA154" s="1">
+      <c r="BB154" s="1">
         <v>0.11619</v>
       </c>
     </row>
-    <row r="155" spans="1:53">
+    <row r="155" spans="1:54">
       <c r="A155" s="3">
         <v>44865</v>
       </c>
@@ -12574,23 +12580,23 @@
       <c r="AQ155" s="1">
         <v>-0.033459</v>
       </c>
-      <c r="AT155" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV155" s="1">
+      <c r="AU155" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW155" s="1">
         <v>0.352214</v>
       </c>
-      <c r="AW155" s="1">
+      <c r="AX155" s="1">
         <v>-0.014505</v>
       </c>
-      <c r="AZ155" s="1">
+      <c r="BA155" s="1">
         <v>-0.017756</v>
       </c>
-      <c r="BA155" s="1">
+      <c r="BB155" s="1">
         <v>-0.021035</v>
       </c>
     </row>
-    <row r="156" spans="1:53">
+    <row r="156" spans="1:54">
       <c r="A156" s="3">
         <v>44895</v>
       </c>
@@ -12660,29 +12666,281 @@
       <c r="AQ156" s="1">
         <v>-0.060704</v>
       </c>
-      <c r="AT156" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV156" s="1">
+      <c r="AU156" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW156" s="1">
         <v>0.322609</v>
       </c>
-      <c r="AW156" s="1">
+      <c r="AX156" s="1">
         <v>-0.105612</v>
       </c>
-      <c r="AZ156" s="1">
+      <c r="BA156" s="1">
         <v>-0.046014</v>
       </c>
-      <c r="BA156" s="1">
+      <c r="BB156" s="1">
         <v>-0.089447</v>
       </c>
     </row>
+    <row r="157" spans="1:54">
+      <c r="A157" s="3">
+        <v>44926</v>
+      </c>
+      <c r="B157" s="1">
+        <v>-0.020348</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0.000227</v>
+      </c>
+      <c r="D157" s="1">
+        <v>-0.825757</v>
+      </c>
+      <c r="E157" s="1">
+        <v>-0.000571</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0.007511</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0.02633</v>
+      </c>
+      <c r="J157" s="1">
+        <v>0.02721</v>
+      </c>
+      <c r="L157" s="1">
+        <v>-0.04897</v>
+      </c>
+      <c r="N157" s="1">
+        <v>-0.015408</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>-0.0009829999999999999</v>
+      </c>
+      <c r="R157" s="1">
+        <v>-0.0071</v>
+      </c>
+      <c r="S157" s="1">
+        <v>0</v>
+      </c>
+      <c r="W157" s="1">
+        <v>0.022004</v>
+      </c>
+      <c r="AC157" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD157" s="1">
+        <v>0.011653</v>
+      </c>
+      <c r="AF157" s="1">
+        <v>0.013579</v>
+      </c>
+      <c r="AI157" s="1">
+        <v>-0.012933</v>
+      </c>
+      <c r="AK157" s="1">
+        <v>0.0159</v>
+      </c>
+      <c r="AN157" s="1">
+        <v>0.05558</v>
+      </c>
+      <c r="AO157" s="1">
+        <v>0.006999999999999999</v>
+      </c>
+      <c r="AQ157" s="1">
+        <v>0.001581</v>
+      </c>
+      <c r="AU157" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW157" s="1">
+        <v>-0.400069</v>
+      </c>
+      <c r="AX157" s="1">
+        <v>0.004486</v>
+      </c>
+      <c r="BA157" s="1">
+        <v>-0.001305</v>
+      </c>
+      <c r="BB157" s="1">
+        <v>-0.005933000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:54">
+      <c r="A158" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B158" s="1">
+        <v>-0.012244</v>
+      </c>
+      <c r="C158" s="1">
+        <v>-0.02111</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1">
+        <v>-0.024064</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0.008464000000000001</v>
+      </c>
+      <c r="G158" s="1">
+        <v>-0.033728</v>
+      </c>
+      <c r="J158" s="1">
+        <v>0.026004</v>
+      </c>
+      <c r="L158" s="1">
+        <v>-0.040236</v>
+      </c>
+      <c r="N158" s="1">
+        <v>-0.00306</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>0.007007999999999999</v>
+      </c>
+      <c r="R158" s="1">
+        <v>0.04874</v>
+      </c>
+      <c r="S158" s="1">
+        <v>0</v>
+      </c>
+      <c r="W158" s="1">
+        <v>0.020436</v>
+      </c>
+      <c r="AC158" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD158" s="1">
+        <v>-0.002093</v>
+      </c>
+      <c r="AF158" s="1">
+        <v>-0.07438600000000001</v>
+      </c>
+      <c r="AI158" s="1">
+        <v>-0.026291</v>
+      </c>
+      <c r="AK158" s="1">
+        <v>0.009368</v>
+      </c>
+      <c r="AN158" s="1">
+        <v>-0.09626200000000001</v>
+      </c>
+      <c r="AO158" s="1">
+        <v>0.006999999999999999</v>
+      </c>
+      <c r="AQ158" s="1">
+        <v>-0.055905</v>
+      </c>
+      <c r="AU158" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW158" s="1">
+        <v>0.004142</v>
+      </c>
+      <c r="AX158" s="1">
+        <v>0.011629</v>
+      </c>
+      <c r="BA158" s="1">
+        <v>-0.018539</v>
+      </c>
+      <c r="BB158" s="1">
+        <v>-0.007882999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:54">
+      <c r="A159" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B159" s="1">
+        <v>0.053765</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0.009686</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0.04055</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0.006814</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0.025</v>
+      </c>
+      <c r="J159" s="1">
+        <v>0.019662</v>
+      </c>
+      <c r="L159" s="1">
+        <v>-0.023994</v>
+      </c>
+      <c r="N159" s="1">
+        <v>-0.029727</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>0.016932</v>
+      </c>
+      <c r="R159" s="1">
+        <v>-0.017142</v>
+      </c>
+      <c r="S159" s="1">
+        <v>0.007122000000000001</v>
+      </c>
+      <c r="W159" s="1">
+        <v>-0.018589</v>
+      </c>
+      <c r="AC159" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD159" s="1">
+        <v>0.025027</v>
+      </c>
+      <c r="AF159" s="1">
+        <v>0.053551</v>
+      </c>
+      <c r="AI159" s="1">
+        <v>0.043488</v>
+      </c>
+      <c r="AK159" s="1">
+        <v>0.005750999999999999</v>
+      </c>
+      <c r="AN159" s="1">
+        <v>-0.016111</v>
+      </c>
+      <c r="AO159" s="1">
+        <v>0.00114</v>
+      </c>
+      <c r="AQ159" s="1">
+        <v>0.021026</v>
+      </c>
+      <c r="AT159" s="1">
+        <v>-0.001298</v>
+      </c>
+      <c r="AU159" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW159" s="1">
+        <v>0.183458</v>
+      </c>
+      <c r="AX159" s="1">
+        <v>0.012685</v>
+      </c>
+      <c r="BA159" s="1">
+        <v>0.013952</v>
+      </c>
+      <c r="BB159" s="1">
+        <v>0.000895</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A156">
+  <conditionalFormatting sqref="A1:A159">
     <cfRule type="notContainsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:BB156">
+  <conditionalFormatting sqref="B2:BC159">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -12699,7 +12957,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM156"/>
+  <dimension ref="A1:ALM159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12708,9 +12966,9 @@
     <col min="1" max="1001" width="21.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:55">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -12871,8 +13129,11 @@
       <c r="BB1" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:54">
+      <c r="BC1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55">
       <c r="A2" s="3">
         <v>40209</v>
       </c>
@@ -12909,14 +13170,14 @@
       <c r="AQ2" s="1">
         <v>996881239.72</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AY2" s="1">
         <v>51599497.4</v>
       </c>
-      <c r="AZ2" s="1">
+      <c r="BA2" s="1">
         <v>1297105025.5</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:55">
       <c r="A3" s="3">
         <v>40237</v>
       </c>
@@ -12953,14 +13214,14 @@
       <c r="AQ3" s="1">
         <v>1005103724.17</v>
       </c>
-      <c r="AX3" s="1">
+      <c r="AY3" s="1">
         <v>51551323.28</v>
       </c>
-      <c r="AZ3" s="1">
+      <c r="BA3" s="1">
         <v>1309512031.24</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:55">
       <c r="A4" s="3">
         <v>40268</v>
       </c>
@@ -13003,17 +13264,17 @@
       <c r="AQ4" s="1">
         <v>1053305293.62</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AY4" s="1">
         <v>52418980.56</v>
       </c>
-      <c r="AZ4" s="1">
+      <c r="BA4" s="1">
         <v>1417157893.79</v>
       </c>
-      <c r="BA4" s="1">
+      <c r="BB4" s="1">
         <v>53064262.25</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:55">
       <c r="A5" s="3">
         <v>40298</v>
       </c>
@@ -13056,17 +13317,17 @@
       <c r="AQ5" s="1">
         <v>1097561345.8</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AY5" s="1">
         <v>53897195.81</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="BA5" s="1">
         <v>1516516818.53</v>
       </c>
-      <c r="BA5" s="1">
+      <c r="BB5" s="1">
         <v>106324089.35</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:55">
       <c r="A6" s="3">
         <v>40329</v>
       </c>
@@ -13109,17 +13370,17 @@
       <c r="AQ6" s="1">
         <v>1094069408.1</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AY6" s="1">
         <v>51315977.65</v>
       </c>
-      <c r="AZ6" s="1">
+      <c r="BA6" s="1">
         <v>1500013788.91</v>
       </c>
-      <c r="BA6" s="1">
+      <c r="BB6" s="1">
         <v>97472088</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:55">
       <c r="A7" s="3">
         <v>40359</v>
       </c>
@@ -13162,17 +13423,17 @@
       <c r="AQ7" s="1">
         <v>1135483230.11</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="AY7" s="1">
         <v>48966839.54</v>
       </c>
-      <c r="AZ7" s="1">
+      <c r="BA7" s="1">
         <v>1542560785.81</v>
       </c>
-      <c r="BA7" s="1">
+      <c r="BB7" s="1">
         <v>98134936.25</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:55">
       <c r="A8" s="3">
         <v>40390</v>
       </c>
@@ -13215,17 +13476,17 @@
       <c r="AQ8" s="1">
         <v>1142068400.89</v>
       </c>
-      <c r="AX8" s="1">
+      <c r="AY8" s="1">
         <v>49497837.71</v>
       </c>
-      <c r="AZ8" s="1">
+      <c r="BA8" s="1">
         <v>1554716252.6</v>
       </c>
-      <c r="BA8" s="1">
+      <c r="BB8" s="1">
         <v>99018622.48999999</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:55">
       <c r="A9" s="3">
         <v>40421</v>
       </c>
@@ -13268,17 +13529,17 @@
       <c r="AQ9" s="1">
         <v>1164645022.87</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="AY9" s="1">
         <v>48072471.62</v>
       </c>
-      <c r="AZ9" s="1">
+      <c r="BA9" s="1">
         <v>1784761638.46</v>
       </c>
-      <c r="BA9" s="1">
+      <c r="BB9" s="1">
         <v>98965972.92</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:55">
       <c r="A10" s="3">
         <v>40451</v>
       </c>
@@ -13321,17 +13582,17 @@
       <c r="AQ10" s="1">
         <v>1186189249.04</v>
       </c>
-      <c r="AX10" s="1">
+      <c r="AY10" s="1">
         <v>51801862.86</v>
       </c>
-      <c r="AZ10" s="1">
+      <c r="BA10" s="1">
         <v>1823228860.11</v>
       </c>
-      <c r="BA10" s="1">
+      <c r="BB10" s="1">
         <v>103902717.91</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:55">
       <c r="A11" s="3">
         <v>40482</v>
       </c>
@@ -13374,17 +13635,17 @@
       <c r="AQ11" s="1">
         <v>1204207461.04</v>
       </c>
-      <c r="AX11" s="1">
+      <c r="AY11" s="1">
         <v>52701302.1</v>
       </c>
-      <c r="AZ11" s="1">
+      <c r="BA11" s="1">
         <v>1851342488.07</v>
       </c>
-      <c r="BA11" s="1">
+      <c r="BB11" s="1">
         <v>107399514.98</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:55">
       <c r="A12" s="3">
         <v>40512</v>
       </c>
@@ -13427,17 +13688,17 @@
       <c r="AQ12" s="1">
         <v>1198845676.94</v>
       </c>
-      <c r="AX12" s="1">
+      <c r="AY12" s="1">
         <v>52947785.96</v>
       </c>
-      <c r="AZ12" s="1">
+      <c r="BA12" s="1">
         <v>1837190924.47</v>
       </c>
-      <c r="BA12" s="1">
+      <c r="BB12" s="1">
         <v>104172621.94</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:55">
       <c r="A13" s="3">
         <v>40543</v>
       </c>
@@ -13483,17 +13744,17 @@
       <c r="AQ13" s="1">
         <v>1348224711.93</v>
       </c>
-      <c r="AX13" s="1">
+      <c r="AY13" s="1">
         <v>57716156.66</v>
       </c>
-      <c r="AZ13" s="1">
+      <c r="BA13" s="1">
         <v>2023443106.31</v>
       </c>
-      <c r="BA13" s="1">
+      <c r="BB13" s="1">
         <v>137792247.03</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:55">
       <c r="A14" s="3">
         <v>40574</v>
       </c>
@@ -13542,17 +13803,17 @@
       <c r="AQ14" s="1">
         <v>1359334675.71</v>
       </c>
-      <c r="AX14" s="1">
+      <c r="AY14" s="1">
         <v>57861424.16</v>
       </c>
-      <c r="AZ14" s="1">
+      <c r="BA14" s="1">
         <v>2036376334.73</v>
       </c>
-      <c r="BA14" s="1">
+      <c r="BB14" s="1">
         <v>138573445.55</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:55">
       <c r="A15" s="3">
         <v>40602</v>
       </c>
@@ -13604,17 +13865,17 @@
       <c r="AQ15" s="1">
         <v>1499748946.16</v>
       </c>
-      <c r="AX15" s="1">
+      <c r="AY15" s="1">
         <v>58792993.09</v>
       </c>
-      <c r="AZ15" s="1">
+      <c r="BA15" s="1">
         <v>2191148384.7</v>
       </c>
-      <c r="BA15" s="1">
+      <c r="BB15" s="1">
         <v>143345244.85</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:55">
       <c r="A16" s="3">
         <v>40633</v>
       </c>
@@ -13666,20 +13927,17 @@
       <c r="AQ16" s="1">
         <v>1583036521.43</v>
       </c>
-      <c r="AX16" s="1">
+      <c r="AY16" s="1">
         <v>56984439.62</v>
       </c>
-      <c r="AZ16" s="1">
+      <c r="BA16" s="1">
         <v>2271418645.72</v>
       </c>
-      <c r="BA16" s="1">
+      <c r="BB16" s="1">
         <v>142132130.8</v>
       </c>
-      <c r="BB16" s="1">
-        <v>75000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:54">
+    </row>
+    <row r="17" spans="1:55">
       <c r="A17" s="3">
         <v>40663</v>
       </c>
@@ -13731,20 +13989,20 @@
       <c r="AQ17" s="1">
         <v>1634136505.42</v>
       </c>
-      <c r="AX17" s="1">
+      <c r="AY17" s="1">
         <v>56967339.85</v>
       </c>
-      <c r="AZ17" s="1">
+      <c r="BA17" s="1">
         <v>2343560215.81</v>
       </c>
-      <c r="BA17" s="1">
+      <c r="BB17" s="1">
         <v>150571038.56</v>
       </c>
-      <c r="BB17" s="1">
+      <c r="BC17" s="1">
         <v>76659413.98</v>
       </c>
     </row>
-    <row r="18" spans="1:54">
+    <row r="18" spans="1:55">
       <c r="A18" s="3">
         <v>40694</v>
       </c>
@@ -13796,20 +14054,20 @@
       <c r="AQ18" s="1">
         <v>1627908701.6</v>
       </c>
-      <c r="AX18" s="1">
+      <c r="AY18" s="1">
         <v>54649644.47</v>
       </c>
-      <c r="AZ18" s="1">
+      <c r="BA18" s="1">
         <v>2335723516.13</v>
       </c>
-      <c r="BA18" s="1">
+      <c r="BB18" s="1">
         <v>145745970.67</v>
       </c>
-      <c r="BB18" s="1">
+      <c r="BC18" s="1">
         <v>74373552.04000001</v>
       </c>
     </row>
-    <row r="19" spans="1:54">
+    <row r="19" spans="1:55">
       <c r="A19" s="3">
         <v>40724</v>
       </c>
@@ -13861,20 +14119,20 @@
       <c r="AQ19" s="1">
         <v>1619305542.28</v>
       </c>
-      <c r="AX19" s="1">
+      <c r="AY19" s="1">
         <v>50655337.25</v>
       </c>
-      <c r="AZ19" s="1">
+      <c r="BA19" s="1">
         <v>2319357170.88</v>
       </c>
-      <c r="BA19" s="1">
+      <c r="BB19" s="1">
         <v>140063608.14</v>
       </c>
-      <c r="BB19" s="1">
+      <c r="BC19" s="1">
         <v>72210799.01000001</v>
       </c>
     </row>
-    <row r="20" spans="1:54">
+    <row r="20" spans="1:55">
       <c r="A20" s="3">
         <v>40755</v>
       </c>
@@ -13926,20 +14184,20 @@
       <c r="AQ20" s="1">
         <v>1651194086.72</v>
       </c>
-      <c r="AX20" s="1">
+      <c r="AY20" s="1">
         <v>48973804.01</v>
       </c>
-      <c r="AZ20" s="1">
+      <c r="BA20" s="1">
         <v>2392066647.38</v>
       </c>
-      <c r="BA20" s="1">
+      <c r="BB20" s="1">
         <v>165745945.98</v>
       </c>
-      <c r="BB20" s="1">
+      <c r="BC20" s="1">
         <v>73104626.03</v>
       </c>
     </row>
-    <row r="21" spans="1:54">
+    <row r="21" spans="1:55">
       <c r="A21" s="3">
         <v>40786</v>
       </c>
@@ -13991,20 +14249,20 @@
       <c r="AQ21" s="1">
         <v>1663753115.09</v>
       </c>
-      <c r="AX21" s="1">
+      <c r="AY21" s="1">
         <v>44325051.13</v>
       </c>
-      <c r="AZ21" s="1">
+      <c r="BA21" s="1">
         <v>2398194879.13</v>
       </c>
-      <c r="BA21" s="1">
+      <c r="BB21" s="1">
         <v>162282989.89</v>
       </c>
-      <c r="BB21" s="1">
+      <c r="BC21" s="1">
         <v>74958962.98999999</v>
       </c>
     </row>
-    <row r="22" spans="1:54">
+    <row r="22" spans="1:55">
       <c r="A22" s="3">
         <v>40816</v>
       </c>
@@ -14056,20 +14314,20 @@
       <c r="AQ22" s="1">
         <v>1642132723.41</v>
       </c>
-      <c r="AX22" s="1">
+      <c r="AY22" s="1">
         <v>38843499.07</v>
       </c>
-      <c r="AZ22" s="1">
+      <c r="BA22" s="1">
         <v>2371520668.79</v>
       </c>
-      <c r="BA22" s="1">
+      <c r="BB22" s="1">
         <v>162556082.25</v>
       </c>
-      <c r="BB22" s="1">
+      <c r="BC22" s="1">
         <v>78611212.98</v>
       </c>
     </row>
-    <row r="23" spans="1:54">
+    <row r="23" spans="1:55">
       <c r="A23" s="3">
         <v>40847</v>
       </c>
@@ -14121,26 +14379,23 @@
       <c r="AQ23" s="1">
         <v>1613986264.43</v>
       </c>
-      <c r="AX23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="1">
+      <c r="AY23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="1">
         <v>2342404561.8</v>
       </c>
-      <c r="BA23" s="1">
+      <c r="BB23" s="1">
         <v>150770986.39</v>
       </c>
-      <c r="BB23" s="1">
+      <c r="BC23" s="1">
         <v>76697885.97</v>
       </c>
     </row>
-    <row r="24" spans="1:54">
+    <row r="24" spans="1:55">
       <c r="A24" s="3">
         <v>40877</v>
       </c>
-      <c r="P24" s="1">
-        <v>300000000</v>
-      </c>
       <c r="Q24" s="1">
         <v>735036902.0599999</v>
       </c>
@@ -14189,17 +14444,17 @@
       <c r="AQ24" s="1">
         <v>1692315923.54</v>
       </c>
-      <c r="AZ24" s="1">
+      <c r="BA24" s="1">
         <v>2717031366.35</v>
       </c>
-      <c r="BA24" s="1">
+      <c r="BB24" s="1">
         <v>153396907.38</v>
       </c>
-      <c r="BB24" s="1">
+      <c r="BC24" s="1">
         <v>75711085.98</v>
       </c>
     </row>
-    <row r="25" spans="1:54">
+    <row r="25" spans="1:55">
       <c r="A25" s="3">
         <v>40908</v>
       </c>
@@ -14254,17 +14509,17 @@
       <c r="AQ25" s="1">
         <v>1896165362.84</v>
       </c>
-      <c r="AZ25" s="1">
+      <c r="BA25" s="1">
         <v>2937746455.53</v>
       </c>
-      <c r="BA25" s="1">
+      <c r="BB25" s="1">
         <v>156803060.98</v>
       </c>
-      <c r="BB25" s="1">
+      <c r="BC25" s="1">
         <v>176175953</v>
       </c>
     </row>
-    <row r="26" spans="1:54">
+    <row r="26" spans="1:55">
       <c r="A26" s="3">
         <v>40939</v>
       </c>
@@ -14319,17 +14574,17 @@
       <c r="AQ26" s="1">
         <v>1914086254.25</v>
       </c>
-      <c r="AZ26" s="1">
+      <c r="BA26" s="1">
         <v>3187957746.79</v>
       </c>
-      <c r="BA26" s="1">
+      <c r="BB26" s="1">
         <v>158072967.13</v>
       </c>
-      <c r="BB26" s="1">
+      <c r="BC26" s="1">
         <v>178264902.06</v>
       </c>
     </row>
-    <row r="27" spans="1:54">
+    <row r="27" spans="1:55">
       <c r="A27" s="3">
         <v>40968</v>
       </c>
@@ -14348,9 +14603,6 @@
       <c r="V27" s="1">
         <v>143309583.49</v>
       </c>
-      <c r="X27" s="1">
-        <v>403925199.8</v>
-      </c>
       <c r="Y27" s="1">
         <v>5895904.31</v>
       </c>
@@ -14387,17 +14639,17 @@
       <c r="AQ27" s="1">
         <v>1932936487.56</v>
       </c>
-      <c r="AZ27" s="1">
+      <c r="BA27" s="1">
         <v>3629832335.23</v>
       </c>
-      <c r="BA27" s="1">
+      <c r="BB27" s="1">
         <v>160021474.63</v>
       </c>
-      <c r="BB27" s="1">
+      <c r="BC27" s="1">
         <v>181656987.02</v>
       </c>
     </row>
-    <row r="28" spans="1:54">
+    <row r="28" spans="1:55">
       <c r="A28" s="3">
         <v>40999</v>
       </c>
@@ -14458,17 +14710,17 @@
       <c r="AQ28" s="1">
         <v>2138738708.2</v>
       </c>
-      <c r="AZ28" s="1">
+      <c r="BA28" s="1">
         <v>3820871703.39</v>
       </c>
-      <c r="BA28" s="1">
+      <c r="BB28" s="1">
         <v>152216196.4</v>
       </c>
-      <c r="BB28" s="1">
+      <c r="BC28" s="1">
         <v>181057518.85</v>
       </c>
     </row>
-    <row r="29" spans="1:54">
+    <row r="29" spans="1:55">
       <c r="A29" s="3">
         <v>41029</v>
       </c>
@@ -14484,9 +14736,6 @@
       <c r="T29" s="1">
         <v>424806137.37</v>
       </c>
-      <c r="U29" s="1">
-        <v>120000000</v>
-      </c>
       <c r="V29" s="1">
         <v>0</v>
       </c>
@@ -14532,20 +14781,17 @@
       <c r="AQ29" s="1">
         <v>2259535963.52</v>
       </c>
-      <c r="AR29" s="1">
-        <v>30086072.3</v>
-      </c>
-      <c r="AZ29" s="1">
+      <c r="BA29" s="1">
         <v>3847782351.12</v>
       </c>
-      <c r="BA29" s="1">
+      <c r="BB29" s="1">
         <v>157867374.22</v>
       </c>
-      <c r="BB29" s="1">
+      <c r="BC29" s="1">
         <v>177405035</v>
       </c>
     </row>
-    <row r="30" spans="1:54">
+    <row r="30" spans="1:55">
       <c r="A30" s="3">
         <v>41060</v>
       </c>
@@ -14609,17 +14855,17 @@
       <c r="AR30" s="1">
         <v>50048559.48</v>
       </c>
-      <c r="AZ30" s="1">
+      <c r="BA30" s="1">
         <v>3852298980.3</v>
       </c>
-      <c r="BA30" s="1">
+      <c r="BB30" s="1">
         <v>159540870.59</v>
       </c>
-      <c r="BB30" s="1">
+      <c r="BC30" s="1">
         <v>184300341</v>
       </c>
     </row>
-    <row r="31" spans="1:54">
+    <row r="31" spans="1:55">
       <c r="A31" s="3">
         <v>41090</v>
       </c>
@@ -14683,17 +14929,17 @@
       <c r="AR31" s="1">
         <v>74959825.95</v>
       </c>
-      <c r="AZ31" s="1">
+      <c r="BA31" s="1">
         <v>3857802969.67</v>
       </c>
-      <c r="BA31" s="1">
+      <c r="BB31" s="1">
         <v>150944150.38</v>
       </c>
-      <c r="BB31" s="1">
+      <c r="BC31" s="1">
         <v>176246925</v>
       </c>
     </row>
-    <row r="32" spans="1:54">
+    <row r="32" spans="1:55">
       <c r="A32" s="3">
         <v>41121</v>
       </c>
@@ -14757,17 +15003,17 @@
       <c r="AR32" s="1">
         <v>75789352.06</v>
       </c>
-      <c r="AZ32" s="1">
+      <c r="BA32" s="1">
         <v>3937623777.32</v>
       </c>
-      <c r="BA32" s="1">
+      <c r="BB32" s="1">
         <v>160934957.89</v>
       </c>
-      <c r="BB32" s="1">
+      <c r="BC32" s="1">
         <v>181208172</v>
       </c>
     </row>
-    <row r="33" spans="1:54">
+    <row r="33" spans="1:55">
       <c r="A33" s="3">
         <v>41152</v>
       </c>
@@ -14831,17 +15077,17 @@
       <c r="AR33" s="1">
         <v>75711690.81999999</v>
       </c>
-      <c r="AZ33" s="1">
+      <c r="BA33" s="1">
         <v>3967320801.02</v>
       </c>
-      <c r="BA33" s="1">
+      <c r="BB33" s="1">
         <v>160763997.99</v>
       </c>
-      <c r="BB33" s="1">
+      <c r="BC33" s="1">
         <v>182041729.59</v>
       </c>
     </row>
-    <row r="34" spans="1:54">
+    <row r="34" spans="1:55">
       <c r="A34" s="3">
         <v>41182</v>
       </c>
@@ -14908,17 +15154,17 @@
       <c r="AR34" s="1">
         <v>126529638.31</v>
       </c>
-      <c r="AZ34" s="1">
+      <c r="BA34" s="1">
         <v>4206633211.91</v>
       </c>
-      <c r="BA34" s="1">
+      <c r="BB34" s="1">
         <v>160459598.02</v>
       </c>
-      <c r="BB34" s="1">
+      <c r="BC34" s="1">
         <v>182343334</v>
       </c>
     </row>
-    <row r="35" spans="1:54">
+    <row r="35" spans="1:55">
       <c r="A35" s="3">
         <v>41213</v>
       </c>
@@ -14985,17 +15231,17 @@
       <c r="AR35" s="1">
         <v>127952134.64</v>
       </c>
-      <c r="AZ35" s="1">
+      <c r="BA35" s="1">
         <v>4187902915.85</v>
       </c>
-      <c r="BA35" s="1">
+      <c r="BB35" s="1">
         <v>151885583.66</v>
       </c>
-      <c r="BB35" s="1">
+      <c r="BC35" s="1">
         <v>179498850</v>
       </c>
     </row>
-    <row r="36" spans="1:54">
+    <row r="36" spans="1:55">
       <c r="A36" s="3">
         <v>41243</v>
       </c>
@@ -15062,17 +15308,17 @@
       <c r="AR36" s="1">
         <v>202362214.27</v>
       </c>
-      <c r="AZ36" s="1">
+      <c r="BA36" s="1">
         <v>4306479222.81</v>
       </c>
-      <c r="BA36" s="1">
+      <c r="BB36" s="1">
         <v>154520677.23</v>
       </c>
-      <c r="BB36" s="1">
+      <c r="BC36" s="1">
         <v>181408162</v>
       </c>
     </row>
-    <row r="37" spans="1:54">
+    <row r="37" spans="1:55">
       <c r="A37" s="3">
         <v>41274</v>
       </c>
@@ -15139,17 +15385,17 @@
       <c r="AR37" s="1">
         <v>206430162.06</v>
       </c>
-      <c r="AZ37" s="1">
+      <c r="BA37" s="1">
         <v>4375437156.99</v>
       </c>
-      <c r="BA37" s="1">
+      <c r="BB37" s="1">
         <v>156833147.64</v>
       </c>
-      <c r="BB37" s="1">
+      <c r="BC37" s="1">
         <v>186326410</v>
       </c>
     </row>
-    <row r="38" spans="1:54">
+    <row r="38" spans="1:55">
       <c r="A38" s="3">
         <v>41305</v>
       </c>
@@ -15216,17 +15462,17 @@
       <c r="AR38" s="1">
         <v>206420379.78</v>
       </c>
-      <c r="AZ38" s="1">
+      <c r="BA38" s="1">
         <v>4321589478.76</v>
       </c>
-      <c r="BA38" s="1">
+      <c r="BB38" s="1">
         <v>162814654.86</v>
       </c>
-      <c r="BB38" s="1">
+      <c r="BC38" s="1">
         <v>194375710.91</v>
       </c>
     </row>
-    <row r="39" spans="1:54">
+    <row r="39" spans="1:55">
       <c r="A39" s="3">
         <v>41333</v>
       </c>
@@ -15296,17 +15542,17 @@
       <c r="AR39" s="1">
         <v>208472416.62</v>
       </c>
-      <c r="AZ39" s="1">
+      <c r="BA39" s="1">
         <v>4539686276.8</v>
       </c>
-      <c r="BA39" s="1">
+      <c r="BB39" s="1">
         <v>160805828.85</v>
       </c>
-      <c r="BB39" s="1">
+      <c r="BC39" s="1">
         <v>195732134.78</v>
       </c>
     </row>
-    <row r="40" spans="1:54">
+    <row r="40" spans="1:55">
       <c r="A40" s="3">
         <v>41364</v>
       </c>
@@ -15376,17 +15622,17 @@
       <c r="AR40" s="1">
         <v>218131515.33</v>
       </c>
-      <c r="AZ40" s="1">
+      <c r="BA40" s="1">
         <v>4568992999.7</v>
       </c>
-      <c r="BA40" s="1">
+      <c r="BB40" s="1">
         <v>164860285.04</v>
       </c>
-      <c r="BB40" s="1">
+      <c r="BC40" s="1">
         <v>199534087</v>
       </c>
     </row>
-    <row r="41" spans="1:54">
+    <row r="41" spans="1:55">
       <c r="A41" s="3">
         <v>41394</v>
       </c>
@@ -15456,20 +15702,20 @@
       <c r="AR41" s="1">
         <v>223323688.52</v>
       </c>
-      <c r="AY41" s="1">
+      <c r="AZ41" s="1">
         <v>50000000</v>
       </c>
-      <c r="AZ41" s="1">
+      <c r="BA41" s="1">
         <v>4685680639.53</v>
       </c>
-      <c r="BA41" s="1">
+      <c r="BB41" s="1">
         <v>169041559.88</v>
       </c>
-      <c r="BB41" s="1">
+      <c r="BC41" s="1">
         <v>200683771</v>
       </c>
     </row>
-    <row r="42" spans="1:54">
+    <row r="42" spans="1:55">
       <c r="A42" s="3">
         <v>41425</v>
       </c>
@@ -15539,20 +15785,20 @@
       <c r="AR42" s="1">
         <v>226902010.93</v>
       </c>
-      <c r="AY42" s="1">
+      <c r="AZ42" s="1">
         <v>51779002.9</v>
       </c>
-      <c r="AZ42" s="1">
+      <c r="BA42" s="1">
         <v>4776819338.42</v>
       </c>
-      <c r="BA42" s="1">
+      <c r="BB42" s="1">
         <v>155235606.24</v>
       </c>
-      <c r="BB42" s="1">
+      <c r="BC42" s="1">
         <v>207890029</v>
       </c>
     </row>
-    <row r="43" spans="1:54">
+    <row r="43" spans="1:55">
       <c r="A43" s="3">
         <v>41455</v>
       </c>
@@ -15622,20 +15868,20 @@
       <c r="AR43" s="1">
         <v>221953911.67</v>
       </c>
-      <c r="AY43" s="1">
+      <c r="AZ43" s="1">
         <v>51920831.45</v>
       </c>
-      <c r="AZ43" s="1">
+      <c r="BA43" s="1">
         <v>4453329598.92</v>
       </c>
-      <c r="BA43" s="1">
+      <c r="BB43" s="1">
         <v>140550402.36</v>
       </c>
-      <c r="BB43" s="1">
+      <c r="BC43" s="1">
         <v>208987771</v>
       </c>
     </row>
-    <row r="44" spans="1:54">
+    <row r="44" spans="1:55">
       <c r="A44" s="3">
         <v>41486</v>
       </c>
@@ -15705,20 +15951,20 @@
       <c r="AR44" s="1">
         <v>223567170.43</v>
       </c>
-      <c r="AY44" s="1">
+      <c r="AZ44" s="1">
         <v>52281724.5</v>
       </c>
-      <c r="AZ44" s="1">
+      <c r="BA44" s="1">
         <v>4403374521.78</v>
       </c>
-      <c r="BA44" s="1">
+      <c r="BB44" s="1">
         <v>139444918.4</v>
       </c>
-      <c r="BB44" s="1">
+      <c r="BC44" s="1">
         <v>203052518.3</v>
       </c>
     </row>
-    <row r="45" spans="1:54">
+    <row r="45" spans="1:55">
       <c r="A45" s="3">
         <v>41517</v>
       </c>
@@ -15791,20 +16037,20 @@
       <c r="AR45" s="1">
         <v>228365536.89</v>
       </c>
-      <c r="AY45" s="1">
+      <c r="AZ45" s="1">
         <v>52682468.35</v>
       </c>
-      <c r="AZ45" s="1">
+      <c r="BA45" s="1">
         <v>4288881297.13</v>
       </c>
-      <c r="BA45" s="1">
+      <c r="BB45" s="1">
         <v>138735113.58</v>
       </c>
-      <c r="BB45" s="1">
+      <c r="BC45" s="1">
         <v>201560396.96</v>
       </c>
     </row>
-    <row r="46" spans="1:54">
+    <row r="46" spans="1:55">
       <c r="A46" s="3">
         <v>41547</v>
       </c>
@@ -15880,20 +16126,20 @@
       <c r="AR46" s="1">
         <v>231761694.91</v>
       </c>
-      <c r="AY46" s="1">
+      <c r="AZ46" s="1">
         <v>203178458.85</v>
       </c>
-      <c r="AZ46" s="1">
+      <c r="BA46" s="1">
         <v>4587207076.49</v>
       </c>
-      <c r="BA46" s="1">
+      <c r="BB46" s="1">
         <v>137651875</v>
       </c>
-      <c r="BB46" s="1">
+      <c r="BC46" s="1">
         <v>200815633</v>
       </c>
     </row>
-    <row r="47" spans="1:54">
+    <row r="47" spans="1:55">
       <c r="A47" s="3">
         <v>41578</v>
       </c>
@@ -15969,20 +16215,20 @@
       <c r="AR47" s="1">
         <v>234066382.29</v>
       </c>
-      <c r="AY47" s="1">
+      <c r="AZ47" s="1">
         <v>203945143.4</v>
       </c>
-      <c r="AZ47" s="1">
+      <c r="BA47" s="1">
         <v>4773651527.66</v>
       </c>
-      <c r="BA47" s="1">
+      <c r="BB47" s="1">
         <v>142904457.28</v>
       </c>
-      <c r="BB47" s="1">
+      <c r="BC47" s="1">
         <v>200795551.44</v>
       </c>
     </row>
-    <row r="48" spans="1:54">
+    <row r="48" spans="1:55">
       <c r="A48" s="3">
         <v>41608</v>
       </c>
@@ -16058,20 +16304,20 @@
       <c r="AR48" s="1">
         <v>235256996.88</v>
       </c>
-      <c r="AY48" s="1">
+      <c r="AZ48" s="1">
         <v>207135082.2</v>
       </c>
-      <c r="AZ48" s="1">
+      <c r="BA48" s="1">
         <v>4903753229.73</v>
       </c>
-      <c r="BA48" s="1">
+      <c r="BB48" s="1">
         <v>143323342.29</v>
       </c>
-      <c r="BB48" s="1">
+      <c r="BC48" s="1">
         <v>208093317</v>
       </c>
     </row>
-    <row r="49" spans="1:54">
+    <row r="49" spans="1:55">
       <c r="A49" s="3">
         <v>41639</v>
       </c>
@@ -16147,20 +16393,20 @@
       <c r="AR49" s="1">
         <v>236236156.94</v>
       </c>
-      <c r="AY49" s="1">
+      <c r="AZ49" s="1">
         <v>208586273.6</v>
       </c>
-      <c r="AZ49" s="1">
+      <c r="BA49" s="1">
         <v>4970144874.45</v>
       </c>
-      <c r="BA49" s="1">
+      <c r="BB49" s="1">
         <v>138850236.47</v>
       </c>
-      <c r="BB49" s="1">
+      <c r="BC49" s="1">
         <v>212950731</v>
       </c>
     </row>
-    <row r="50" spans="1:54">
+    <row r="50" spans="1:55">
       <c r="A50" s="3">
         <v>41670</v>
       </c>
@@ -16236,20 +16482,20 @@
       <c r="AR50" s="1">
         <v>238673228.23</v>
       </c>
-      <c r="AY50" s="1">
+      <c r="AZ50" s="1">
         <v>212024331</v>
       </c>
-      <c r="AZ50" s="1">
+      <c r="BA50" s="1">
         <v>4975732746.9</v>
       </c>
-      <c r="BA50" s="1">
+      <c r="BB50" s="1">
         <v>133364894.58</v>
       </c>
-      <c r="BB50" s="1">
+      <c r="BC50" s="1">
         <v>208542650.87</v>
       </c>
     </row>
-    <row r="51" spans="1:54">
+    <row r="51" spans="1:55">
       <c r="A51" s="3">
         <v>41698</v>
       </c>
@@ -16325,20 +16571,20 @@
       <c r="AR51" s="1">
         <v>240784225.13</v>
       </c>
-      <c r="AY51" s="1">
+      <c r="AZ51" s="1">
         <v>214671168.6</v>
       </c>
-      <c r="AZ51" s="1">
+      <c r="BA51" s="1">
         <v>4576236896.4</v>
       </c>
-      <c r="BA51" s="1">
+      <c r="BB51" s="1">
         <v>136965632.94</v>
       </c>
-      <c r="BB51" s="1">
+      <c r="BC51" s="1">
         <v>206794552</v>
       </c>
     </row>
-    <row r="52" spans="1:54">
+    <row r="52" spans="1:55">
       <c r="A52" s="3">
         <v>41729</v>
       </c>
@@ -16414,20 +16660,20 @@
       <c r="AR52" s="1">
         <v>242793399.6</v>
       </c>
-      <c r="AY52" s="1">
+      <c r="AZ52" s="1">
         <v>215101241</v>
       </c>
-      <c r="AZ52" s="1">
+      <c r="BA52" s="1">
         <v>4577191865.6</v>
       </c>
-      <c r="BA52" s="1">
+      <c r="BB52" s="1">
         <v>133678376.17</v>
       </c>
-      <c r="BB52" s="1">
+      <c r="BC52" s="1">
         <v>206148717</v>
       </c>
     </row>
-    <row r="53" spans="1:54">
+    <row r="53" spans="1:55">
       <c r="A53" s="3">
         <v>41759</v>
       </c>
@@ -16503,20 +16749,20 @@
       <c r="AR53" s="1">
         <v>243015886.33</v>
       </c>
-      <c r="AY53" s="1">
+      <c r="AZ53" s="1">
         <v>216717802.4</v>
       </c>
-      <c r="AZ53" s="1">
+      <c r="BA53" s="1">
         <v>4556250885.5</v>
       </c>
-      <c r="BA53" s="1">
+      <c r="BB53" s="1">
         <v>134955708.68</v>
       </c>
-      <c r="BB53" s="1">
+      <c r="BC53" s="1">
         <v>204523978</v>
       </c>
     </row>
-    <row r="54" spans="1:54">
+    <row r="54" spans="1:55">
       <c r="A54" s="3">
         <v>41790</v>
       </c>
@@ -16592,20 +16838,20 @@
       <c r="AR54" s="1">
         <v>243057072.98</v>
       </c>
-      <c r="AY54" s="1">
+      <c r="AZ54" s="1">
         <v>217989610.2</v>
       </c>
-      <c r="AZ54" s="1">
+      <c r="BA54" s="1">
         <v>4632774692.71</v>
       </c>
-      <c r="BA54" s="1">
+      <c r="BB54" s="1">
         <v>143486592.78</v>
       </c>
-      <c r="BB54" s="1">
+      <c r="BC54" s="1">
         <v>203527722</v>
       </c>
     </row>
-    <row r="55" spans="1:54">
+    <row r="55" spans="1:55">
       <c r="A55" s="3">
         <v>41820</v>
       </c>
@@ -16681,20 +16927,20 @@
       <c r="AR55" s="1">
         <v>244433655.1</v>
       </c>
-      <c r="AY55" s="1">
+      <c r="AZ55" s="1">
         <v>219477365.6</v>
       </c>
-      <c r="AZ55" s="1">
+      <c r="BA55" s="1">
         <v>4662628407.67</v>
       </c>
-      <c r="BA55" s="1">
+      <c r="BB55" s="1">
         <v>147400544.92</v>
       </c>
-      <c r="BB55" s="1">
+      <c r="BC55" s="1">
         <v>204164281</v>
       </c>
     </row>
-    <row r="56" spans="1:54">
+    <row r="56" spans="1:55">
       <c r="A56" s="3">
         <v>41851</v>
       </c>
@@ -16770,20 +17016,20 @@
       <c r="AR56" s="1">
         <v>245702444.31</v>
       </c>
-      <c r="AY56" s="1">
+      <c r="AZ56" s="1">
         <v>220837904</v>
       </c>
-      <c r="AZ56" s="1">
+      <c r="BA56" s="1">
         <v>4540304003.09</v>
       </c>
-      <c r="BA56" s="1">
+      <c r="BB56" s="1">
         <v>144283767.49</v>
       </c>
-      <c r="BB56" s="1">
+      <c r="BC56" s="1">
         <v>207293505</v>
       </c>
     </row>
-    <row r="57" spans="1:54">
+    <row r="57" spans="1:55">
       <c r="A57" s="3">
         <v>41882</v>
       </c>
@@ -16856,20 +17102,20 @@
       <c r="AR57" s="1">
         <v>247659229.82</v>
       </c>
-      <c r="AY57" s="1">
+      <c r="AZ57" s="1">
         <v>222067951.8</v>
       </c>
-      <c r="AZ57" s="1">
+      <c r="BA57" s="1">
         <v>4579625158.19</v>
       </c>
-      <c r="BA57" s="1">
+      <c r="BB57" s="1">
         <v>151337365.49</v>
       </c>
-      <c r="BB57" s="1">
+      <c r="BC57" s="1">
         <v>207864866</v>
       </c>
     </row>
-    <row r="58" spans="1:54">
+    <row r="58" spans="1:55">
       <c r="A58" s="3">
         <v>41912</v>
       </c>
@@ -16942,20 +17188,20 @@
       <c r="AR58" s="1">
         <v>248789261.99</v>
       </c>
-      <c r="AY58" s="1">
+      <c r="AZ58" s="1">
         <v>223788531.8</v>
       </c>
-      <c r="AZ58" s="1">
+      <c r="BA58" s="1">
         <v>4560715491.46</v>
       </c>
-      <c r="BA58" s="1">
+      <c r="BB58" s="1">
         <v>147259996.67</v>
       </c>
-      <c r="BB58" s="1">
+      <c r="BC58" s="1">
         <v>215351568</v>
       </c>
     </row>
-    <row r="59" spans="1:54">
+    <row r="59" spans="1:55">
       <c r="A59" s="3">
         <v>41943</v>
       </c>
@@ -17028,20 +17274,20 @@
       <c r="AR59" s="1">
         <v>248858363.4</v>
       </c>
-      <c r="AY59" s="1">
+      <c r="AZ59" s="1">
         <v>225131263</v>
       </c>
-      <c r="AZ59" s="1">
+      <c r="BA59" s="1">
         <v>4532430948.68</v>
       </c>
-      <c r="BA59" s="1">
+      <c r="BB59" s="1">
         <v>150531644.66</v>
       </c>
-      <c r="BB59" s="1">
+      <c r="BC59" s="1">
         <v>211833304</v>
       </c>
     </row>
-    <row r="60" spans="1:54">
+    <row r="60" spans="1:55">
       <c r="A60" s="3">
         <v>41973</v>
       </c>
@@ -17114,20 +17360,20 @@
       <c r="AR60" s="1">
         <v>250102484.07</v>
       </c>
-      <c r="AY60" s="1">
+      <c r="AZ60" s="1">
         <v>226067099.4</v>
       </c>
-      <c r="AZ60" s="1">
+      <c r="BA60" s="1">
         <v>4585367562.52</v>
       </c>
-      <c r="BA60" s="1">
+      <c r="BB60" s="1">
         <v>158029560.45</v>
       </c>
-      <c r="BB60" s="1">
+      <c r="BC60" s="1">
         <v>218698368</v>
       </c>
     </row>
-    <row r="61" spans="1:54">
+    <row r="61" spans="1:55">
       <c r="A61" s="3">
         <v>42004</v>
       </c>
@@ -17200,20 +17446,20 @@
       <c r="AR61" s="1">
         <v>251103159.04</v>
       </c>
-      <c r="AY61" s="1">
+      <c r="AZ61" s="1">
         <v>226088928</v>
       </c>
-      <c r="AZ61" s="1">
+      <c r="BA61" s="1">
         <v>4628438838.64</v>
       </c>
-      <c r="BA61" s="1">
+      <c r="BB61" s="1">
         <v>156668685.21</v>
       </c>
-      <c r="BB61" s="1">
+      <c r="BC61" s="1">
         <v>220338605.76</v>
       </c>
     </row>
-    <row r="62" spans="1:54">
+    <row r="62" spans="1:55">
       <c r="A62" s="3">
         <v>42035</v>
       </c>
@@ -17286,20 +17532,20 @@
       <c r="AR62" s="1">
         <v>250859517.38</v>
       </c>
-      <c r="AY62" s="1">
+      <c r="AZ62" s="1">
         <v>225410661.2</v>
       </c>
-      <c r="AZ62" s="1">
+      <c r="BA62" s="1">
         <v>4762387432.58</v>
       </c>
-      <c r="BA62" s="1">
+      <c r="BB62" s="1">
         <v>221678130.15</v>
       </c>
-      <c r="BB62" s="1">
+      <c r="BC62" s="1">
         <v>226239615.54</v>
       </c>
     </row>
-    <row r="63" spans="1:54">
+    <row r="63" spans="1:55">
       <c r="A63" s="3">
         <v>42063</v>
       </c>
@@ -17372,20 +17618,20 @@
       <c r="AR63" s="1">
         <v>252745776.22</v>
       </c>
-      <c r="AY63" s="1">
+      <c r="AZ63" s="1">
         <v>223434967.8</v>
       </c>
-      <c r="AZ63" s="1">
+      <c r="BA63" s="1">
         <v>4825564988.26</v>
       </c>
-      <c r="BA63" s="1">
+      <c r="BB63" s="1">
         <v>221972583.71</v>
       </c>
-      <c r="BB63" s="1">
+      <c r="BC63" s="1">
         <v>224907904</v>
       </c>
     </row>
-    <row r="64" spans="1:54">
+    <row r="64" spans="1:55">
       <c r="A64" s="3">
         <v>42094</v>
       </c>
@@ -17458,20 +17704,20 @@
       <c r="AR64" s="1">
         <v>254350246.93</v>
       </c>
-      <c r="AY64" s="1">
+      <c r="AZ64" s="1">
         <v>225200615</v>
       </c>
-      <c r="AZ64" s="1">
+      <c r="BA64" s="1">
         <v>4840983722.27</v>
       </c>
-      <c r="BA64" s="1">
+      <c r="BB64" s="1">
         <v>226230925.9</v>
       </c>
-      <c r="BB64" s="1">
+      <c r="BC64" s="1">
         <v>229285166</v>
       </c>
     </row>
-    <row r="65" spans="1:54">
+    <row r="65" spans="1:55">
       <c r="A65" s="3">
         <v>42124</v>
       </c>
@@ -17544,20 +17790,20 @@
       <c r="AR65" s="1">
         <v>255329348.82</v>
       </c>
-      <c r="AY65" s="1">
+      <c r="AZ65" s="1">
         <v>227072919.6</v>
       </c>
-      <c r="AZ65" s="1">
+      <c r="BA65" s="1">
         <v>4827762138.07</v>
       </c>
-      <c r="BA65" s="1">
+      <c r="BB65" s="1">
         <v>219187878.02</v>
       </c>
-      <c r="BB65" s="1">
+      <c r="BC65" s="1">
         <v>223756105</v>
       </c>
     </row>
-    <row r="66" spans="1:54">
+    <row r="66" spans="1:55">
       <c r="A66" s="3">
         <v>42155</v>
       </c>
@@ -17630,20 +17876,20 @@
       <c r="AR66" s="1">
         <v>256888908.35</v>
       </c>
-      <c r="AY66" s="1">
+      <c r="AZ66" s="1">
         <v>228943376.2</v>
       </c>
-      <c r="AZ66" s="1">
+      <c r="BA66" s="1">
         <v>4895695933.5</v>
       </c>
-      <c r="BA66" s="1">
+      <c r="BB66" s="1">
         <v>214615231.62</v>
       </c>
-      <c r="BB66" s="1">
+      <c r="BC66" s="1">
         <v>227248589</v>
       </c>
     </row>
-    <row r="67" spans="1:54">
+    <row r="67" spans="1:55">
       <c r="A67" s="3">
         <v>42185</v>
       </c>
@@ -17713,20 +17959,20 @@
       <c r="AR67" s="1">
         <v>256594626.8</v>
       </c>
-      <c r="AY67" s="1">
+      <c r="AZ67" s="1">
         <v>228211854.4</v>
       </c>
-      <c r="AZ67" s="1">
+      <c r="BA67" s="1">
         <v>4785027778.35</v>
       </c>
-      <c r="BA67" s="1">
+      <c r="BB67" s="1">
         <v>196824367.56</v>
       </c>
-      <c r="BB67" s="1">
+      <c r="BC67" s="1">
         <v>221025380</v>
       </c>
     </row>
-    <row r="68" spans="1:54">
+    <row r="68" spans="1:55">
       <c r="A68" s="3">
         <v>42216</v>
       </c>
@@ -17796,20 +18042,20 @@
       <c r="AR68" s="1">
         <v>257744041.25</v>
       </c>
-      <c r="AY68" s="1">
+      <c r="AZ68" s="1">
         <v>226644681.6</v>
       </c>
-      <c r="AZ68" s="1">
+      <c r="BA68" s="1">
         <v>4724190922.78</v>
       </c>
-      <c r="BA68" s="1">
+      <c r="BB68" s="1">
         <v>209094677.72</v>
       </c>
-      <c r="BB68" s="1">
+      <c r="BC68" s="1">
         <v>224709162</v>
       </c>
     </row>
-    <row r="69" spans="1:54">
+    <row r="69" spans="1:55">
       <c r="A69" s="3">
         <v>42247</v>
       </c>
@@ -17879,20 +18125,20 @@
       <c r="AR69" s="1">
         <v>257646578.75</v>
       </c>
-      <c r="AY69" s="1">
+      <c r="AZ69" s="1">
         <v>226621535.4</v>
       </c>
-      <c r="AZ69" s="1">
+      <c r="BA69" s="1">
         <v>4663595194.82</v>
       </c>
-      <c r="BA69" s="1">
+      <c r="BB69" s="1">
         <v>209958268.81</v>
       </c>
-      <c r="BB69" s="1">
+      <c r="BC69" s="1">
         <v>222919122</v>
       </c>
     </row>
-    <row r="70" spans="1:54">
+    <row r="70" spans="1:55">
       <c r="A70" s="3">
         <v>42277</v>
       </c>
@@ -17962,20 +18208,20 @@
       <c r="AR70" s="1">
         <v>307477915.79</v>
       </c>
-      <c r="AY70" s="1">
+      <c r="AZ70" s="1">
         <v>224348047.6</v>
       </c>
-      <c r="AZ70" s="1">
+      <c r="BA70" s="1">
         <v>4693750572.11</v>
       </c>
-      <c r="BA70" s="1">
+      <c r="BB70" s="1">
         <v>215129220.66</v>
       </c>
-      <c r="BB70" s="1">
+      <c r="BC70" s="1">
         <v>220257226</v>
       </c>
     </row>
-    <row r="71" spans="1:54">
+    <row r="71" spans="1:55">
       <c r="A71" s="3">
         <v>42308</v>
       </c>
@@ -18045,20 +18291,20 @@
       <c r="AR71" s="1">
         <v>282126498.92</v>
       </c>
-      <c r="AY71" s="1">
+      <c r="AZ71" s="1">
         <v>220031612.8</v>
       </c>
-      <c r="AZ71" s="1">
+      <c r="BA71" s="1">
         <v>4593997433.41</v>
       </c>
-      <c r="BA71" s="1">
+      <c r="BB71" s="1">
         <v>211173543.79</v>
       </c>
-      <c r="BB71" s="1">
+      <c r="BC71" s="1">
         <v>220257226</v>
       </c>
     </row>
-    <row r="72" spans="1:54">
+    <row r="72" spans="1:55">
       <c r="A72" s="3">
         <v>42338</v>
       </c>
@@ -18128,20 +18374,20 @@
       <c r="AR72" s="1">
         <v>281055487.2</v>
       </c>
-      <c r="AY72" s="1">
+      <c r="AZ72" s="1">
         <v>221052557</v>
       </c>
-      <c r="AZ72" s="1">
+      <c r="BA72" s="1">
         <v>4606466911.94</v>
       </c>
-      <c r="BA72" s="1">
+      <c r="BB72" s="1">
         <v>218089742.55</v>
       </c>
-      <c r="BB72" s="1">
+      <c r="BC72" s="1">
         <v>225394616</v>
       </c>
     </row>
-    <row r="73" spans="1:54">
+    <row r="73" spans="1:55">
       <c r="A73" s="3">
         <v>42369</v>
       </c>
@@ -18211,20 +18457,20 @@
       <c r="AR73" s="1">
         <v>281979248.51</v>
       </c>
-      <c r="AY73" s="1">
+      <c r="AZ73" s="1">
         <v>221320241.2</v>
       </c>
-      <c r="AZ73" s="1">
+      <c r="BA73" s="1">
         <v>4472054342.58</v>
       </c>
-      <c r="BA73" s="1">
+      <c r="BB73" s="1">
         <v>210302909.19</v>
       </c>
-      <c r="BB73" s="1">
+      <c r="BC73" s="1">
         <v>223433682.84</v>
       </c>
     </row>
-    <row r="74" spans="1:54">
+    <row r="74" spans="1:55">
       <c r="A74" s="3">
         <v>42400</v>
       </c>
@@ -18297,20 +18543,20 @@
       <c r="AQ74" s="1">
         <v>1983861924.63</v>
       </c>
-      <c r="AU74" s="1">
+      <c r="AV74" s="1">
         <v>500885384.92</v>
       </c>
-      <c r="AZ74" s="1">
+      <c r="BA74" s="1">
         <v>3722782471.22</v>
       </c>
-      <c r="BA74" s="1">
+      <c r="BB74" s="1">
         <v>226204455.59</v>
       </c>
-      <c r="BB74" s="1">
+      <c r="BC74" s="1">
         <v>221566673.84</v>
       </c>
     </row>
-    <row r="75" spans="1:54">
+    <row r="75" spans="1:55">
       <c r="A75" s="3">
         <v>42429</v>
       </c>
@@ -18383,20 +18629,20 @@
       <c r="AQ75" s="1">
         <v>1923624567.57</v>
       </c>
-      <c r="AU75" s="1">
+      <c r="AV75" s="1">
         <v>492446022.42</v>
       </c>
-      <c r="AZ75" s="1">
+      <c r="BA75" s="1">
         <v>3708123594.16</v>
       </c>
-      <c r="BA75" s="1">
+      <c r="BB75" s="1">
         <v>231182985.72</v>
       </c>
-      <c r="BB75" s="1">
+      <c r="BC75" s="1">
         <v>221134427</v>
       </c>
     </row>
-    <row r="76" spans="1:54">
+    <row r="76" spans="1:55">
       <c r="A76" s="3">
         <v>42460</v>
       </c>
@@ -18463,20 +18709,20 @@
       <c r="AQ76" s="1">
         <v>1837301239.45</v>
       </c>
-      <c r="AU76" s="1">
+      <c r="AV76" s="1">
         <v>500157526.22</v>
       </c>
-      <c r="AZ76" s="1">
+      <c r="BA76" s="1">
         <v>3155090115.78</v>
       </c>
-      <c r="BA76" s="1">
+      <c r="BB76" s="1">
         <v>226774066.87</v>
       </c>
-      <c r="BB76" s="1">
+      <c r="BC76" s="1">
         <v>217204641.27</v>
       </c>
     </row>
-    <row r="77" spans="1:54">
+    <row r="77" spans="1:55">
       <c r="A77" s="3">
         <v>42490</v>
       </c>
@@ -18540,20 +18786,20 @@
       <c r="AQ77" s="1">
         <v>1599835881.39</v>
       </c>
-      <c r="AU77" s="1">
+      <c r="AV77" s="1">
         <v>501656598.93</v>
       </c>
-      <c r="AZ77" s="1">
+      <c r="BA77" s="1">
         <v>2916091433.61</v>
       </c>
-      <c r="BA77" s="1">
+      <c r="BB77" s="1">
         <v>211002387.94</v>
       </c>
-      <c r="BB77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:54">
+      <c r="BC77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:55">
       <c r="A78" s="3">
         <v>42521</v>
       </c>
@@ -18614,20 +18860,20 @@
       <c r="AQ78" s="1">
         <v>1597356974.35</v>
       </c>
-      <c r="AU78" s="1">
+      <c r="AV78" s="1">
         <v>501570483.08</v>
       </c>
-      <c r="AZ78" s="1">
+      <c r="BA78" s="1">
         <v>2907942255.67</v>
       </c>
-      <c r="BA78" s="1">
+      <c r="BB78" s="1">
         <v>205455942.3</v>
       </c>
-      <c r="BB78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:54">
+      <c r="BC78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:55">
       <c r="A79" s="3">
         <v>42551</v>
       </c>
@@ -18688,17 +18934,17 @@
       <c r="AQ79" s="1">
         <v>1575837109.13</v>
       </c>
-      <c r="AU79" s="1">
+      <c r="AV79" s="1">
         <v>504387997.99</v>
       </c>
-      <c r="AZ79" s="1">
+      <c r="BA79" s="1">
         <v>2906355036.4</v>
       </c>
-      <c r="BA79" s="1">
+      <c r="BB79" s="1">
         <v>211135659.18</v>
       </c>
     </row>
-    <row r="80" spans="1:54">
+    <row r="80" spans="1:55">
       <c r="A80" s="3">
         <v>42582</v>
       </c>
@@ -18756,17 +19002,17 @@
       <c r="AQ80" s="1">
         <v>1521111009.92</v>
       </c>
-      <c r="AU80" s="1">
+      <c r="AV80" s="1">
         <v>506536803.27</v>
       </c>
-      <c r="AZ80" s="1">
+      <c r="BA80" s="1">
         <v>2872473438.01</v>
       </c>
-      <c r="BA80" s="1">
+      <c r="BB80" s="1">
         <v>217485723.44</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="3">
         <v>42613</v>
       </c>
@@ -18827,17 +19073,17 @@
       <c r="AQ81" s="1">
         <v>1525094337.7</v>
       </c>
-      <c r="AU81" s="1">
+      <c r="AV81" s="1">
         <v>496480666.53</v>
       </c>
-      <c r="AZ81" s="1">
+      <c r="BA81" s="1">
         <v>2916345320.33</v>
       </c>
-      <c r="BA81" s="1">
+      <c r="BB81" s="1">
         <v>248249251.89</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="3">
         <v>42643</v>
       </c>
@@ -18898,17 +19144,17 @@
       <c r="AQ82" s="1">
         <v>1517328813.58</v>
       </c>
-      <c r="AU82" s="1">
+      <c r="AV82" s="1">
         <v>496551955.57</v>
       </c>
-      <c r="AZ82" s="1">
+      <c r="BA82" s="1">
         <v>2899656875.79</v>
       </c>
-      <c r="BA82" s="1">
+      <c r="BB82" s="1">
         <v>236148256.83</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:54">
       <c r="A83" s="3">
         <v>42674</v>
       </c>
@@ -18972,17 +19218,17 @@
       <c r="AQ83" s="1">
         <v>1487763691.63</v>
       </c>
-      <c r="AU83" s="1">
+      <c r="AV83" s="1">
         <v>498294252.64</v>
       </c>
-      <c r="AZ83" s="1">
+      <c r="BA83" s="1">
         <v>2933983813.47</v>
       </c>
-      <c r="BA83" s="1">
+      <c r="BB83" s="1">
         <v>225657727.54</v>
       </c>
     </row>
-    <row r="84" spans="1:53">
+    <row r="84" spans="1:54">
       <c r="A84" s="3">
         <v>42704</v>
       </c>
@@ -19046,17 +19292,17 @@
       <c r="AQ84" s="1">
         <v>1515725955.24</v>
       </c>
-      <c r="AU84" s="1">
+      <c r="AV84" s="1">
         <v>499119518.33</v>
       </c>
-      <c r="AZ84" s="1">
+      <c r="BA84" s="1">
         <v>2963160774.71</v>
       </c>
-      <c r="BA84" s="1">
+      <c r="BB84" s="1">
         <v>223902630.26</v>
       </c>
     </row>
-    <row r="85" spans="1:53">
+    <row r="85" spans="1:54">
       <c r="A85" s="3">
         <v>42735</v>
       </c>
@@ -19120,17 +19366,17 @@
       <c r="AQ85" s="1">
         <v>1536348082.41</v>
       </c>
-      <c r="AU85" s="1">
+      <c r="AV85" s="1">
         <v>505988252.82</v>
       </c>
-      <c r="AZ85" s="1">
+      <c r="BA85" s="1">
         <v>3006169542.6</v>
       </c>
-      <c r="BA85" s="1">
+      <c r="BB85" s="1">
         <v>226204191.98</v>
       </c>
     </row>
-    <row r="86" spans="1:53">
+    <row r="86" spans="1:54">
       <c r="A86" s="3">
         <v>42766</v>
       </c>
@@ -19197,17 +19443,17 @@
       <c r="AQ86" s="1">
         <v>1488656553.22</v>
       </c>
-      <c r="AU86" s="1">
+      <c r="AV86" s="1">
         <v>515583287.53</v>
       </c>
-      <c r="AZ86" s="1">
+      <c r="BA86" s="1">
         <v>3100546904.62</v>
       </c>
-      <c r="BA86" s="1">
+      <c r="BB86" s="1">
         <v>221940533.8</v>
       </c>
     </row>
-    <row r="87" spans="1:53">
+    <row r="87" spans="1:54">
       <c r="A87" s="3">
         <v>42794</v>
       </c>
@@ -19277,17 +19523,17 @@
       <c r="AQ87" s="1">
         <v>1504486868.39</v>
       </c>
-      <c r="AU87" s="1">
+      <c r="AV87" s="1">
         <v>518905292.8</v>
       </c>
-      <c r="AZ87" s="1">
+      <c r="BA87" s="1">
         <v>3439920905.25</v>
       </c>
-      <c r="BA87" s="1">
+      <c r="BB87" s="1">
         <v>377135782.53</v>
       </c>
     </row>
-    <row r="88" spans="1:53">
+    <row r="88" spans="1:54">
       <c r="A88" s="3">
         <v>42825</v>
       </c>
@@ -19354,17 +19600,17 @@
       <c r="AQ88" s="1">
         <v>1501002491.22</v>
       </c>
-      <c r="AU88" s="1">
+      <c r="AV88" s="1">
         <v>521293658.78</v>
       </c>
-      <c r="AZ88" s="1">
+      <c r="BA88" s="1">
         <v>3455555314.54</v>
       </c>
-      <c r="BA88" s="1">
+      <c r="BB88" s="1">
         <v>373943735.1</v>
       </c>
     </row>
-    <row r="89" spans="1:53">
+    <row r="89" spans="1:54">
       <c r="A89" s="3">
         <v>42855</v>
       </c>
@@ -19428,17 +19674,17 @@
       <c r="AQ89" s="1">
         <v>1474795669.48</v>
       </c>
-      <c r="AU89" s="1">
+      <c r="AV89" s="1">
         <v>513925697.55</v>
       </c>
-      <c r="AZ89" s="1">
+      <c r="BA89" s="1">
         <v>3427398227.44</v>
       </c>
-      <c r="BA89" s="1">
+      <c r="BB89" s="1">
         <v>377099718.98</v>
       </c>
     </row>
-    <row r="90" spans="1:53">
+    <row r="90" spans="1:54">
       <c r="A90" s="3">
         <v>42886</v>
       </c>
@@ -19502,17 +19748,17 @@
       <c r="AQ90" s="1">
         <v>1430013802.63</v>
       </c>
-      <c r="AU90" s="1">
+      <c r="AV90" s="1">
         <v>515556301.87</v>
       </c>
-      <c r="AZ90" s="1">
+      <c r="BA90" s="1">
         <v>3391977907.5</v>
       </c>
-      <c r="BA90" s="1">
+      <c r="BB90" s="1">
         <v>386175107.91</v>
       </c>
     </row>
-    <row r="91" spans="1:53">
+    <row r="91" spans="1:54">
       <c r="A91" s="3">
         <v>42916</v>
       </c>
@@ -19576,17 +19822,17 @@
       <c r="AQ91" s="1">
         <v>1411788560.17</v>
       </c>
-      <c r="AU91" s="1">
+      <c r="AV91" s="1">
         <v>532950815.76</v>
       </c>
-      <c r="AZ91" s="1">
+      <c r="BA91" s="1">
         <v>3375228373.26</v>
       </c>
-      <c r="BA91" s="1">
+      <c r="BB91" s="1">
         <v>370920150.42</v>
       </c>
     </row>
-    <row r="92" spans="1:53">
+    <row r="92" spans="1:54">
       <c r="A92" s="3">
         <v>42947</v>
       </c>
@@ -19650,17 +19896,17 @@
       <c r="AQ92" s="1">
         <v>1404635345.6</v>
       </c>
-      <c r="AU92" s="1">
+      <c r="AV92" s="1">
         <v>528254205.81</v>
       </c>
-      <c r="AZ92" s="1">
+      <c r="BA92" s="1">
         <v>3375740681.97</v>
       </c>
-      <c r="BA92" s="1">
+      <c r="BB92" s="1">
         <v>373161948.49</v>
       </c>
     </row>
-    <row r="93" spans="1:53">
+    <row r="93" spans="1:54">
       <c r="A93" s="3">
         <v>42978</v>
       </c>
@@ -19724,17 +19970,17 @@
       <c r="AQ93" s="1">
         <v>1394819867.64</v>
       </c>
-      <c r="AU93" s="1">
+      <c r="AV93" s="1">
         <v>530654760.62</v>
       </c>
-      <c r="AZ93" s="1">
+      <c r="BA93" s="1">
         <v>3390409957.24</v>
       </c>
-      <c r="BA93" s="1">
+      <c r="BB93" s="1">
         <v>383121711.86</v>
       </c>
     </row>
-    <row r="94" spans="1:53">
+    <row r="94" spans="1:54">
       <c r="A94" s="3">
         <v>43008</v>
       </c>
@@ -19804,20 +20050,20 @@
       <c r="AS94" s="1">
         <v>155000000</v>
       </c>
-      <c r="AU94" s="1">
+      <c r="AV94" s="1">
         <v>534012954.78</v>
       </c>
-      <c r="AW94" s="1">
+      <c r="AX94" s="1">
         <v>100000000</v>
       </c>
-      <c r="AZ94" s="1">
+      <c r="BA94" s="1">
         <v>3638245654.38</v>
       </c>
-      <c r="BA94" s="1">
+      <c r="BB94" s="1">
         <v>470238676.69</v>
       </c>
     </row>
-    <row r="95" spans="1:53">
+    <row r="95" spans="1:54">
       <c r="A95" s="3">
         <v>43039</v>
       </c>
@@ -19887,20 +20133,20 @@
       <c r="AS95" s="1">
         <v>156063852.01</v>
       </c>
-      <c r="AU95" s="1">
+      <c r="AV95" s="1">
         <v>540642619.1799999</v>
       </c>
-      <c r="AW95" s="1">
+      <c r="AX95" s="1">
         <v>105103925.3</v>
       </c>
-      <c r="AZ95" s="1">
+      <c r="BA95" s="1">
         <v>3704962895.2</v>
       </c>
-      <c r="BA95" s="1">
+      <c r="BB95" s="1">
         <v>493793637.15</v>
       </c>
     </row>
-    <row r="96" spans="1:53">
+    <row r="96" spans="1:54">
       <c r="A96" s="3">
         <v>43069</v>
       </c>
@@ -19970,20 +20216,20 @@
       <c r="AS96" s="1">
         <v>151896267.01</v>
       </c>
-      <c r="AU96" s="1">
+      <c r="AV96" s="1">
         <v>547128307.05</v>
       </c>
-      <c r="AW96" s="1">
+      <c r="AX96" s="1">
         <v>103862615.1</v>
       </c>
-      <c r="AZ96" s="1">
+      <c r="BA96" s="1">
         <v>3689923660.26</v>
       </c>
-      <c r="BA96" s="1">
+      <c r="BB96" s="1">
         <v>488271487.74</v>
       </c>
     </row>
-    <row r="97" spans="1:53">
+    <row r="97" spans="1:54">
       <c r="A97" s="3">
         <v>43100</v>
       </c>
@@ -20050,20 +20296,20 @@
       <c r="AS97" s="1">
         <v>148692737.44</v>
       </c>
-      <c r="AU97" s="1">
+      <c r="AV97" s="1">
         <v>11115.37</v>
       </c>
-      <c r="AW97" s="1">
+      <c r="AX97" s="1">
         <v>107522861.3</v>
       </c>
-      <c r="AZ97" s="1">
+      <c r="BA97" s="1">
         <v>3155942442.11</v>
       </c>
-      <c r="BA97" s="1">
+      <c r="BB97" s="1">
         <v>494166280.71</v>
       </c>
     </row>
-    <row r="98" spans="1:53">
+    <row r="98" spans="1:54">
       <c r="A98" s="3">
         <v>43131</v>
       </c>
@@ -20130,20 +20376,20 @@
       <c r="AS98" s="1">
         <v>145842355.07</v>
       </c>
-      <c r="AU98" s="1">
+      <c r="AV98" s="1">
         <v>22521.9</v>
       </c>
-      <c r="AW98" s="1">
+      <c r="AX98" s="1">
         <v>114558016.4</v>
       </c>
-      <c r="AZ98" s="1">
+      <c r="BA98" s="1">
         <v>3235357892.72</v>
       </c>
-      <c r="BA98" s="1">
+      <c r="BB98" s="1">
         <v>528870653.5</v>
       </c>
     </row>
-    <row r="99" spans="1:53">
+    <row r="99" spans="1:54">
       <c r="A99" s="3">
         <v>43159</v>
       </c>
@@ -20210,20 +20456,20 @@
       <c r="AS99" s="1">
         <v>153142744.71</v>
       </c>
-      <c r="AU99" s="1">
+      <c r="AV99" s="1">
         <v>22549.15</v>
       </c>
-      <c r="AW99" s="1">
+      <c r="AX99" s="1">
         <v>100557725.9</v>
       </c>
-      <c r="AZ99" s="1">
+      <c r="BA99" s="1">
         <v>3134484137.97</v>
       </c>
-      <c r="BA99" s="1">
+      <c r="BB99" s="1">
         <v>476509950.76</v>
       </c>
     </row>
-    <row r="100" spans="1:53">
+    <row r="100" spans="1:54">
       <c r="A100" s="3">
         <v>43190</v>
       </c>
@@ -20287,20 +20533,20 @@
       <c r="AS100" s="1">
         <v>156598784.28</v>
       </c>
-      <c r="AU100" s="1">
+      <c r="AV100" s="1">
         <v>22925.37</v>
       </c>
-      <c r="AW100" s="1">
+      <c r="AX100" s="1">
         <v>99489267.2</v>
       </c>
-      <c r="AZ100" s="1">
+      <c r="BA100" s="1">
         <v>2973445134.87</v>
       </c>
-      <c r="BA100" s="1">
+      <c r="BB100" s="1">
         <v>469932508.37</v>
       </c>
     </row>
-    <row r="101" spans="1:53">
+    <row r="101" spans="1:54">
       <c r="A101" s="3">
         <v>43220</v>
       </c>
@@ -20364,20 +20610,20 @@
       <c r="AS101" s="1">
         <v>159886182.87</v>
       </c>
-      <c r="AU101" s="1">
+      <c r="AV101" s="1">
         <v>22958.65</v>
       </c>
-      <c r="AW101" s="1">
+      <c r="AX101" s="1">
         <v>97328601</v>
       </c>
-      <c r="AZ101" s="1">
+      <c r="BA101" s="1">
         <v>3121739776.94</v>
       </c>
-      <c r="BA101" s="1">
+      <c r="BB101" s="1">
         <v>467770242.68</v>
       </c>
     </row>
-    <row r="102" spans="1:53">
+    <row r="102" spans="1:54">
       <c r="A102" s="3">
         <v>43251</v>
       </c>
@@ -20441,20 +20687,20 @@
       <c r="AS102" s="1">
         <v>156170405.77</v>
       </c>
-      <c r="AU102" s="1">
+      <c r="AV102" s="1">
         <v>22996.57</v>
       </c>
-      <c r="AW102" s="1">
+      <c r="AX102" s="1">
         <v>92710707.90000001</v>
       </c>
-      <c r="AZ102" s="1">
+      <c r="BA102" s="1">
         <v>3121500748.52</v>
       </c>
-      <c r="BA102" s="1">
+      <c r="BB102" s="1">
         <v>451320310.4</v>
       </c>
     </row>
-    <row r="103" spans="1:53">
+    <row r="103" spans="1:54">
       <c r="A103" s="3">
         <v>43281</v>
       </c>
@@ -20518,20 +20764,20 @@
       <c r="AS103" s="1">
         <v>157993294.79</v>
       </c>
-      <c r="AU103" s="1">
+      <c r="AV103" s="1">
         <v>23030.42</v>
       </c>
-      <c r="AW103" s="1">
+      <c r="AX103" s="1">
         <v>93813487.90000001</v>
       </c>
-      <c r="AZ103" s="1">
+      <c r="BA103" s="1">
         <v>3123626729.83</v>
       </c>
-      <c r="BA103" s="1">
+      <c r="BB103" s="1">
         <v>457409015.27</v>
       </c>
     </row>
-    <row r="104" spans="1:53">
+    <row r="104" spans="1:54">
       <c r="A104" s="3">
         <v>43312</v>
       </c>
@@ -20595,20 +20841,20 @@
       <c r="AS104" s="1">
         <v>157701886.43</v>
       </c>
-      <c r="AU104" s="1">
+      <c r="AV104" s="1">
         <v>23068.95</v>
       </c>
-      <c r="AW104" s="1">
+      <c r="AX104" s="1">
         <v>96033482.8</v>
       </c>
-      <c r="AZ104" s="1">
+      <c r="BA104" s="1">
         <v>3122029251.95</v>
       </c>
-      <c r="BA104" s="1">
+      <c r="BB104" s="1">
         <v>454165258.52</v>
       </c>
     </row>
-    <row r="105" spans="1:53">
+    <row r="105" spans="1:54">
       <c r="A105" s="3">
         <v>43343</v>
       </c>
@@ -20672,20 +20918,20 @@
       <c r="AS105" s="1">
         <v>150049005.95</v>
       </c>
-      <c r="AU105" s="1">
+      <c r="AV105" s="1">
         <v>1.28</v>
       </c>
-      <c r="AW105" s="1">
+      <c r="AX105" s="1">
         <v>103935786.3</v>
       </c>
-      <c r="AZ105" s="1">
+      <c r="BA105" s="1">
         <v>3111604291.95</v>
       </c>
-      <c r="BA105" s="1">
+      <c r="BB105" s="1">
         <v>476109462.4</v>
       </c>
     </row>
-    <row r="106" spans="1:53">
+    <row r="106" spans="1:54">
       <c r="A106" s="3">
         <v>43373</v>
       </c>
@@ -20746,20 +20992,20 @@
       <c r="AS106" s="1">
         <v>150682633.19</v>
       </c>
-      <c r="AU106" s="1">
+      <c r="AV106" s="1">
         <v>1.28</v>
       </c>
-      <c r="AW106" s="1">
+      <c r="AX106" s="1">
         <v>98065379.09999999</v>
       </c>
-      <c r="AZ106" s="1">
+      <c r="BA106" s="1">
         <v>3128247861.07</v>
       </c>
-      <c r="BA106" s="1">
+      <c r="BB106" s="1">
         <v>464412661.46</v>
       </c>
     </row>
-    <row r="107" spans="1:53">
+    <row r="107" spans="1:54">
       <c r="A107" s="3">
         <v>43404</v>
       </c>
@@ -20820,20 +21066,20 @@
       <c r="AS107" s="1">
         <v>153384927.98</v>
       </c>
-      <c r="AU107" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW107" s="1">
+      <c r="AV107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX107" s="1">
         <v>97096053.90000001</v>
       </c>
-      <c r="AZ107" s="1">
+      <c r="BA107" s="1">
         <v>3157962611.64</v>
       </c>
-      <c r="BA107" s="1">
+      <c r="BB107" s="1">
         <v>457209548.45</v>
       </c>
     </row>
-    <row r="108" spans="1:53">
+    <row r="108" spans="1:54">
       <c r="A108" s="3">
         <v>43434</v>
       </c>
@@ -20894,17 +21140,17 @@
       <c r="AS108" s="1">
         <v>148704951.45</v>
       </c>
-      <c r="AW108" s="1">
+      <c r="AX108" s="1">
         <v>95200967.8</v>
       </c>
-      <c r="AZ108" s="1">
+      <c r="BA108" s="1">
         <v>3122016828.81</v>
       </c>
-      <c r="BA108" s="1">
+      <c r="BB108" s="1">
         <v>452759431.2</v>
       </c>
     </row>
-    <row r="109" spans="1:53">
+    <row r="109" spans="1:54">
       <c r="A109" s="3">
         <v>43465</v>
       </c>
@@ -20965,17 +21211,17 @@
       <c r="AS109" s="1">
         <v>152164712.26</v>
       </c>
-      <c r="AW109" s="1">
+      <c r="AX109" s="1">
         <v>98745204.7</v>
       </c>
-      <c r="AZ109" s="1">
+      <c r="BA109" s="1">
         <v>3157932799.61</v>
       </c>
-      <c r="BA109" s="1">
+      <c r="BB109" s="1">
         <v>473423438.74</v>
       </c>
     </row>
-    <row r="110" spans="1:53">
+    <row r="110" spans="1:54">
       <c r="A110" s="3">
         <v>43496</v>
       </c>
@@ -21036,17 +21282,17 @@
       <c r="AS110" s="1">
         <v>152817739.34</v>
       </c>
-      <c r="AW110" s="1">
+      <c r="AX110" s="1">
         <v>92701998.2</v>
       </c>
-      <c r="AZ110" s="1">
+      <c r="BA110" s="1">
         <v>3134778451.21</v>
       </c>
-      <c r="BA110" s="1">
+      <c r="BB110" s="1">
         <v>448370746.71</v>
       </c>
     </row>
-    <row r="111" spans="1:53">
+    <row r="111" spans="1:54">
       <c r="A111" s="3">
         <v>43524</v>
       </c>
@@ -21107,17 +21353,17 @@
       <c r="AS111" s="1">
         <v>151606955.18</v>
       </c>
-      <c r="AW111" s="1">
+      <c r="AX111" s="1">
         <v>92779396.90000001</v>
       </c>
-      <c r="AZ111" s="1">
+      <c r="BA111" s="1">
         <v>3138053810.63</v>
       </c>
-      <c r="BA111" s="1">
+      <c r="BB111" s="1">
         <v>448115976.47</v>
       </c>
     </row>
-    <row r="112" spans="1:53">
+    <row r="112" spans="1:54">
       <c r="A112" s="3">
         <v>43555</v>
       </c>
@@ -21178,17 +21424,17 @@
       <c r="AS112" s="1">
         <v>149710390.01</v>
       </c>
-      <c r="AW112" s="1">
+      <c r="AX112" s="1">
         <v>98435100.8</v>
       </c>
-      <c r="AZ112" s="1">
+      <c r="BA112" s="1">
         <v>3154452630.05</v>
       </c>
-      <c r="BA112" s="1">
+      <c r="BB112" s="1">
         <v>475269076.03</v>
       </c>
     </row>
-    <row r="113" spans="1:53">
+    <row r="113" spans="1:54">
       <c r="A113" s="3">
         <v>43585</v>
       </c>
@@ -21249,17 +21495,17 @@
       <c r="AS113" s="1">
         <v>155203372.85</v>
       </c>
-      <c r="AW113" s="1">
+      <c r="AX113" s="1">
         <v>100404469.5</v>
       </c>
-      <c r="AZ113" s="1">
+      <c r="BA113" s="1">
         <v>3101678152.39</v>
       </c>
-      <c r="BA113" s="1">
+      <c r="BB113" s="1">
         <v>485815109.21</v>
       </c>
     </row>
-    <row r="114" spans="1:53">
+    <row r="114" spans="1:54">
       <c r="A114" s="3">
         <v>43616</v>
       </c>
@@ -21320,17 +21566,17 @@
       <c r="AS114" s="1">
         <v>147431833.7</v>
       </c>
-      <c r="AW114" s="1">
+      <c r="AX114" s="1">
         <v>104601002.5</v>
       </c>
-      <c r="AZ114" s="1">
+      <c r="BA114" s="1">
         <v>3056282527.42</v>
       </c>
-      <c r="BA114" s="1">
+      <c r="BB114" s="1">
         <v>491772827.27</v>
       </c>
     </row>
-    <row r="115" spans="1:53">
+    <row r="115" spans="1:54">
       <c r="A115" s="3">
         <v>43646</v>
       </c>
@@ -21391,17 +21637,17 @@
       <c r="AS115" s="1">
         <v>148801644.62</v>
       </c>
-      <c r="AW115" s="1">
+      <c r="AX115" s="1">
         <v>105780026.9</v>
       </c>
-      <c r="AZ115" s="1">
+      <c r="BA115" s="1">
         <v>3104854484.65</v>
       </c>
-      <c r="BA115" s="1">
+      <c r="BB115" s="1">
         <v>497282965.13</v>
       </c>
     </row>
-    <row r="116" spans="1:53">
+    <row r="116" spans="1:54">
       <c r="A116" s="3">
         <v>43677</v>
       </c>
@@ -21462,20 +21708,20 @@
       <c r="AS116" s="1">
         <v>143504305.95</v>
       </c>
-      <c r="AT116" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW116" s="1">
+      <c r="AU116" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX116" s="1">
         <v>113597170.9</v>
       </c>
-      <c r="AZ116" s="1">
+      <c r="BA116" s="1">
         <v>3142347928.72</v>
       </c>
-      <c r="BA116" s="1">
+      <c r="BB116" s="1">
         <v>516342660.14</v>
       </c>
     </row>
-    <row r="117" spans="1:53">
+    <row r="117" spans="1:54">
       <c r="A117" s="3">
         <v>43708</v>
       </c>
@@ -21536,17 +21782,17 @@
       <c r="AS117" s="1">
         <v>139194954.07</v>
       </c>
-      <c r="AW117" s="1">
+      <c r="AX117" s="1">
         <v>122260941.3</v>
       </c>
-      <c r="AZ117" s="1">
+      <c r="BA117" s="1">
         <v>3113597629.48</v>
       </c>
-      <c r="BA117" s="1">
+      <c r="BB117" s="1">
         <v>556155102.55</v>
       </c>
     </row>
-    <row r="118" spans="1:53">
+    <row r="118" spans="1:54">
       <c r="A118" s="3">
         <v>43738</v>
       </c>
@@ -21607,20 +21853,20 @@
       <c r="AS118" s="1">
         <v>143089216.34</v>
       </c>
-      <c r="AT118" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW118" s="1">
+      <c r="AU118" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX118" s="1">
         <v>115753272.8</v>
       </c>
-      <c r="AZ118" s="1">
+      <c r="BA118" s="1">
         <v>3130144031.42</v>
       </c>
-      <c r="BA118" s="1">
+      <c r="BB118" s="1">
         <v>522092361.68</v>
       </c>
     </row>
-    <row r="119" spans="1:53">
+    <row r="119" spans="1:54">
       <c r="A119" s="3">
         <v>43769</v>
       </c>
@@ -21681,17 +21927,17 @@
       <c r="AS119" s="1">
         <v>148351002.16</v>
       </c>
-      <c r="AW119" s="1">
+      <c r="AX119" s="1">
         <v>109392094.6</v>
       </c>
-      <c r="AZ119" s="1">
+      <c r="BA119" s="1">
         <v>3088751454.66</v>
       </c>
-      <c r="BA119" s="1">
+      <c r="BB119" s="1">
         <v>495474979.38</v>
       </c>
     </row>
-    <row r="120" spans="1:53">
+    <row r="120" spans="1:54">
       <c r="A120" s="3">
         <v>43799</v>
       </c>
@@ -21752,20 +21998,20 @@
       <c r="AS120" s="1">
         <v>145438367.35</v>
       </c>
-      <c r="AT120" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW120" s="1">
+      <c r="AU120" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX120" s="1">
         <v>109898290.4</v>
       </c>
-      <c r="AZ120" s="1">
+      <c r="BA120" s="1">
         <v>3114329388.18</v>
       </c>
-      <c r="BA120" s="1">
+      <c r="BB120" s="1">
         <v>495372884.95</v>
       </c>
     </row>
-    <row r="121" spans="1:53">
+    <row r="121" spans="1:54">
       <c r="A121" s="3">
         <v>43830</v>
       </c>
@@ -21805,9 +22051,6 @@
       <c r="AC121" s="1">
         <v>96960.78999999999</v>
       </c>
-      <c r="AD121" s="1">
-        <v>0</v>
-      </c>
       <c r="AF121" s="1">
         <v>494476657.06</v>
       </c>
@@ -21829,20 +22072,20 @@
       <c r="AS121" s="1">
         <v>149273671.46</v>
       </c>
-      <c r="AT121" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW121" s="1">
+      <c r="AU121" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX121" s="1">
         <v>104994022</v>
       </c>
-      <c r="AZ121" s="1">
+      <c r="BA121" s="1">
         <v>3129536491.28</v>
       </c>
-      <c r="BA121" s="1">
+      <c r="BB121" s="1">
         <v>485090478.96</v>
       </c>
     </row>
-    <row r="122" spans="1:53">
+    <row r="122" spans="1:54">
       <c r="A122" s="3">
         <v>43861</v>
       </c>
@@ -21909,20 +22152,20 @@
       <c r="AS122" s="1">
         <v>143398658.88</v>
       </c>
-      <c r="AT122" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW122" s="1">
+      <c r="AU122" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX122" s="1">
         <v>107250088.2</v>
       </c>
-      <c r="AZ122" s="1">
+      <c r="BA122" s="1">
         <v>3068104908.23</v>
       </c>
-      <c r="BA122" s="1">
+      <c r="BB122" s="1">
         <v>484803884.03</v>
       </c>
     </row>
-    <row r="123" spans="1:53">
+    <row r="123" spans="1:54">
       <c r="A123" s="3">
         <v>43890</v>
       </c>
@@ -21989,20 +22232,20 @@
       <c r="AS123" s="1">
         <v>139322935.12</v>
       </c>
-      <c r="AT123" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW123" s="1">
+      <c r="AU123" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX123" s="1">
         <v>99057327.3</v>
       </c>
-      <c r="AZ123" s="1">
+      <c r="BA123" s="1">
         <v>3022781949.3</v>
       </c>
-      <c r="BA123" s="1">
+      <c r="BB123" s="1">
         <v>489920056.12</v>
       </c>
     </row>
-    <row r="124" spans="1:53">
+    <row r="124" spans="1:54">
       <c r="A124" s="3">
         <v>43921</v>
       </c>
@@ -22072,20 +22315,20 @@
       <c r="AS124" s="1">
         <v>133242823.82</v>
       </c>
-      <c r="AT124" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW124" s="1">
+      <c r="AU124" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX124" s="1">
         <v>103584890</v>
       </c>
-      <c r="AZ124" s="1">
+      <c r="BA124" s="1">
         <v>3034262110.62</v>
       </c>
-      <c r="BA124" s="1">
+      <c r="BB124" s="1">
         <v>521351564.71</v>
       </c>
     </row>
-    <row r="125" spans="1:53">
+    <row r="125" spans="1:54">
       <c r="A125" s="3">
         <v>43951</v>
       </c>
@@ -22155,20 +22398,20 @@
       <c r="AS125" s="1">
         <v>132686943.21</v>
       </c>
-      <c r="AT125" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW125" s="1">
+      <c r="AU125" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX125" s="1">
         <v>103072585.2</v>
       </c>
-      <c r="AZ125" s="1">
+      <c r="BA125" s="1">
         <v>3064111141.88</v>
       </c>
-      <c r="BA125" s="1">
+      <c r="BB125" s="1">
         <v>505649507.92</v>
       </c>
     </row>
-    <row r="126" spans="1:53">
+    <row r="126" spans="1:54">
       <c r="A126" s="3">
         <v>43982</v>
       </c>
@@ -22238,20 +22481,20 @@
       <c r="AS126" s="1">
         <v>103434288.17</v>
       </c>
-      <c r="AT126" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW126" s="1">
+      <c r="AU126" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX126" s="1">
         <v>100159807.7</v>
       </c>
-      <c r="AZ126" s="1">
+      <c r="BA126" s="1">
         <v>3009050084.34</v>
       </c>
-      <c r="BA126" s="1">
+      <c r="BB126" s="1">
         <v>492310617.94</v>
       </c>
     </row>
-    <row r="127" spans="1:53">
+    <row r="127" spans="1:54">
       <c r="A127" s="3">
         <v>44012</v>
       </c>
@@ -22321,20 +22564,20 @@
       <c r="AS127" s="1">
         <v>94591955.06999999</v>
       </c>
-      <c r="AT127" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW127" s="1">
+      <c r="AU127" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX127" s="1">
         <v>96793944.09999999</v>
       </c>
-      <c r="AZ127" s="1">
+      <c r="BA127" s="1">
         <v>2984940433.57</v>
       </c>
-      <c r="BA127" s="1">
+      <c r="BB127" s="1">
         <v>479804380.48</v>
       </c>
     </row>
-    <row r="128" spans="1:53">
+    <row r="128" spans="1:54">
       <c r="A128" s="3">
         <v>44043</v>
       </c>
@@ -22404,17 +22647,17 @@
       <c r="AS128" s="1">
         <v>98920496.27</v>
       </c>
-      <c r="AW128" s="1">
+      <c r="AX128" s="1">
         <v>94912682</v>
       </c>
-      <c r="AZ128" s="1">
+      <c r="BA128" s="1">
         <v>3048670242.63</v>
       </c>
-      <c r="BA128" s="1">
+      <c r="BB128" s="1">
         <v>490702345.45</v>
       </c>
     </row>
-    <row r="129" spans="1:53">
+    <row r="129" spans="1:54">
       <c r="A129" s="3">
         <v>44074</v>
       </c>
@@ -22484,20 +22727,20 @@
       <c r="AS129" s="1">
         <v>99875938.09</v>
       </c>
-      <c r="AT129" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW129" s="1">
+      <c r="AU129" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX129" s="1">
         <v>90242713.09999999</v>
       </c>
-      <c r="AZ129" s="1">
+      <c r="BA129" s="1">
         <v>3082354002.59</v>
       </c>
-      <c r="BA129" s="1">
+      <c r="BB129" s="1">
         <v>483558167.94</v>
       </c>
     </row>
-    <row r="130" spans="1:53">
+    <row r="130" spans="1:54">
       <c r="A130" s="3">
         <v>44104</v>
       </c>
@@ -22567,20 +22810,20 @@
       <c r="AS130" s="1">
         <v>95804981.40000001</v>
       </c>
-      <c r="AT130" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW130" s="1">
+      <c r="AU130" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX130" s="1">
         <v>88791422.40000001</v>
       </c>
-      <c r="AZ130" s="1">
+      <c r="BA130" s="1">
         <v>3041465213.13</v>
       </c>
-      <c r="BA130" s="1">
+      <c r="BB130" s="1">
         <v>465200665.01</v>
       </c>
     </row>
-    <row r="131" spans="1:53">
+    <row r="131" spans="1:54">
       <c r="A131" s="3">
         <v>44135</v>
       </c>
@@ -22650,20 +22893,20 @@
       <c r="AS131" s="1">
         <v>93628071.19</v>
       </c>
-      <c r="AT131" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW131" s="1">
+      <c r="AU131" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX131" s="1">
         <v>88395175.3</v>
       </c>
-      <c r="AZ131" s="1">
+      <c r="BA131" s="1">
         <v>3024600622.64</v>
       </c>
-      <c r="BA131" s="1">
+      <c r="BB131" s="1">
         <v>466236115.64</v>
       </c>
     </row>
-    <row r="132" spans="1:53">
+    <row r="132" spans="1:54">
       <c r="A132" s="3">
         <v>44165</v>
       </c>
@@ -22736,20 +22979,20 @@
       <c r="AS132" s="1">
         <v>92184143.33</v>
       </c>
-      <c r="AT132" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW132" s="1">
+      <c r="AU132" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX132" s="1">
         <v>92681331.5</v>
       </c>
-      <c r="AZ132" s="1">
+      <c r="BA132" s="1">
         <v>3129146454.19</v>
       </c>
-      <c r="BA132" s="1">
+      <c r="BB132" s="1">
         <v>475232023.83</v>
       </c>
     </row>
-    <row r="133" spans="1:53">
+    <row r="133" spans="1:54">
       <c r="A133" s="3">
         <v>44196</v>
       </c>
@@ -22819,20 +23062,20 @@
       <c r="AS133" s="1">
         <v>94541816.44</v>
       </c>
-      <c r="AT133" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW133" s="1">
+      <c r="AU133" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX133" s="1">
         <v>101294344.3</v>
       </c>
-      <c r="AZ133" s="1">
+      <c r="BA133" s="1">
         <v>3272125769.21</v>
       </c>
-      <c r="BA133" s="1">
+      <c r="BB133" s="1">
         <v>515207775.44</v>
       </c>
     </row>
-    <row r="134" spans="1:53">
+    <row r="134" spans="1:54">
       <c r="A134" s="3">
         <v>44227</v>
       </c>
@@ -22902,17 +23145,17 @@
       <c r="AS134" s="1">
         <v>92060899.27</v>
       </c>
-      <c r="AW134" s="1">
+      <c r="AX134" s="1">
         <v>100919093.8</v>
       </c>
-      <c r="AZ134" s="1">
+      <c r="BA134" s="1">
         <v>3221388087.97</v>
       </c>
-      <c r="BA134" s="1">
+      <c r="BB134" s="1">
         <v>511795384.36</v>
       </c>
     </row>
-    <row r="135" spans="1:53">
+    <row r="135" spans="1:54">
       <c r="A135" s="3">
         <v>44255</v>
       </c>
@@ -22982,20 +23225,20 @@
       <c r="AS135" s="1">
         <v>88932610.52</v>
       </c>
-      <c r="AT135" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW135" s="1">
+      <c r="AU135" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX135" s="1">
         <v>106873009.8</v>
       </c>
-      <c r="AZ135" s="1">
+      <c r="BA135" s="1">
         <v>3239901882.66</v>
       </c>
-      <c r="BA135" s="1">
+      <c r="BB135" s="1">
         <v>546956901.4</v>
       </c>
     </row>
-    <row r="136" spans="1:53">
+    <row r="136" spans="1:54">
       <c r="A136" s="3">
         <v>44286</v>
       </c>
@@ -23074,20 +23317,20 @@
       <c r="AS136" s="1">
         <v>82715332.37</v>
       </c>
-      <c r="AT136" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW136" s="1">
+      <c r="AU136" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX136" s="1">
         <v>108133492.3</v>
       </c>
-      <c r="AZ136" s="1">
+      <c r="BA136" s="1">
         <v>3446132063.88</v>
       </c>
-      <c r="BA136" s="1">
+      <c r="BB136" s="1">
         <v>549737880.86</v>
       </c>
     </row>
-    <row r="137" spans="1:53">
+    <row r="137" spans="1:54">
       <c r="A137" s="3">
         <v>44316</v>
       </c>
@@ -23166,20 +23409,20 @@
       <c r="AS137" s="1">
         <v>40562376.25</v>
       </c>
-      <c r="AT137" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW137" s="1">
+      <c r="AU137" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX137" s="1">
         <v>112731577.4</v>
       </c>
-      <c r="AZ137" s="1">
+      <c r="BA137" s="1">
         <v>3476470166.47</v>
       </c>
-      <c r="BA137" s="1">
+      <c r="BB137" s="1">
         <v>570246485.21</v>
       </c>
     </row>
-    <row r="138" spans="1:53">
+    <row r="138" spans="1:54">
       <c r="A138" s="3">
         <v>44347</v>
       </c>
@@ -23258,20 +23501,20 @@
       <c r="AS138" s="1">
         <v>2051361.28</v>
       </c>
-      <c r="AT138" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW138" s="1">
+      <c r="AU138" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX138" s="1">
         <v>116177483.9</v>
       </c>
-      <c r="AZ138" s="1">
+      <c r="BA138" s="1">
         <v>3544096812.41</v>
       </c>
-      <c r="BA138" s="1">
+      <c r="BB138" s="1">
         <v>624100657.49</v>
       </c>
     </row>
-    <row r="139" spans="1:53">
+    <row r="139" spans="1:54">
       <c r="A139" s="3">
         <v>44377</v>
       </c>
@@ -23350,20 +23593,20 @@
       <c r="AS139" s="1">
         <v>0</v>
       </c>
-      <c r="AT139" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW139" s="1">
+      <c r="AU139" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX139" s="1">
         <v>111139332.6</v>
       </c>
-      <c r="AZ139" s="1">
+      <c r="BA139" s="1">
         <v>3536850110.63</v>
       </c>
-      <c r="BA139" s="1">
+      <c r="BB139" s="1">
         <v>599661145.5599999</v>
       </c>
     </row>
-    <row r="140" spans="1:53">
+    <row r="140" spans="1:54">
       <c r="A140" s="3">
         <v>44408</v>
       </c>
@@ -23442,17 +23685,17 @@
       <c r="AS140" s="1">
         <v>0</v>
       </c>
-      <c r="AW140" s="1">
+      <c r="AX140" s="1">
         <v>108829620.2</v>
       </c>
-      <c r="AZ140" s="1">
+      <c r="BA140" s="1">
         <v>3531276846.12</v>
       </c>
-      <c r="BA140" s="1">
+      <c r="BB140" s="1">
         <v>599883932.47</v>
       </c>
     </row>
-    <row r="141" spans="1:53">
+    <row r="141" spans="1:54">
       <c r="A141" s="3">
         <v>44439</v>
       </c>
@@ -23528,17 +23771,17 @@
       <c r="AQ141" s="1">
         <v>1163913888.03</v>
       </c>
-      <c r="AW141" s="1">
+      <c r="AX141" s="1">
         <v>109628637.7</v>
       </c>
-      <c r="AZ141" s="1">
+      <c r="BA141" s="1">
         <v>3533041719.05</v>
       </c>
-      <c r="BA141" s="1">
+      <c r="BB141" s="1">
         <v>595659207.86</v>
       </c>
     </row>
-    <row r="142" spans="1:53">
+    <row r="142" spans="1:54">
       <c r="A142" s="3">
         <v>44469</v>
       </c>
@@ -23614,20 +23857,20 @@
       <c r="AQ142" s="1">
         <v>1180188948.64</v>
       </c>
-      <c r="AT142" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW142" s="1">
+      <c r="AU142" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX142" s="1">
         <v>110383905.3</v>
       </c>
-      <c r="AZ142" s="1">
+      <c r="BA142" s="1">
         <v>3551221251.49</v>
       </c>
-      <c r="BA142" s="1">
+      <c r="BB142" s="1">
         <v>598183337.08</v>
       </c>
     </row>
-    <row r="143" spans="1:53">
+    <row r="143" spans="1:54">
       <c r="A143" s="3">
         <v>44500</v>
       </c>
@@ -23703,20 +23946,20 @@
       <c r="AQ143" s="1">
         <v>1184581223.59</v>
       </c>
-      <c r="AT143" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW143" s="1">
+      <c r="AU143" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX143" s="1">
         <v>117719707.5</v>
       </c>
-      <c r="AZ143" s="1">
+      <c r="BA143" s="1">
         <v>3570612784.01</v>
       </c>
-      <c r="BA143" s="1">
+      <c r="BB143" s="1">
         <v>620576910.95</v>
       </c>
     </row>
-    <row r="144" spans="1:53">
+    <row r="144" spans="1:54">
       <c r="A144" s="3">
         <v>44530</v>
       </c>
@@ -23792,17 +24035,17 @@
       <c r="AQ144" s="1">
         <v>1159782875.03</v>
       </c>
-      <c r="AW144" s="1">
+      <c r="AX144" s="1">
         <v>111483976.6</v>
       </c>
-      <c r="AZ144" s="1">
+      <c r="BA144" s="1">
         <v>3512341186.39</v>
       </c>
-      <c r="BA144" s="1">
+      <c r="BB144" s="1">
         <v>579489004.91</v>
       </c>
     </row>
-    <row r="145" spans="1:53">
+    <row r="145" spans="1:54">
       <c r="A145" s="3">
         <v>44561</v>
       </c>
@@ -23878,20 +24121,20 @@
       <c r="AQ145" s="1">
         <v>1199417505.87</v>
       </c>
-      <c r="AT145" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW145" s="1">
+      <c r="AU145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX145" s="1">
         <v>112102352.9</v>
       </c>
-      <c r="AZ145" s="1">
+      <c r="BA145" s="1">
         <v>3569721947.72</v>
       </c>
-      <c r="BA145" s="1">
+      <c r="BB145" s="1">
         <v>573775434.1900001</v>
       </c>
     </row>
-    <row r="146" spans="1:53">
+    <row r="146" spans="1:54">
       <c r="A146" s="3">
         <v>44592</v>
       </c>
@@ -23967,20 +24210,20 @@
       <c r="AQ146" s="1">
         <v>1187916978.02</v>
       </c>
-      <c r="AT146" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW146" s="1">
+      <c r="AU146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX146" s="1">
         <v>111575272</v>
       </c>
-      <c r="AZ146" s="1">
+      <c r="BA146" s="1">
         <v>3569618216.12</v>
       </c>
-      <c r="BA146" s="1">
+      <c r="BB146" s="1">
         <v>589987370.11</v>
       </c>
     </row>
-    <row r="147" spans="1:53">
+    <row r="147" spans="1:54">
       <c r="A147" s="3">
         <v>44620</v>
       </c>
@@ -24056,20 +24299,20 @@
       <c r="AQ147" s="1">
         <v>1211432891.81</v>
       </c>
-      <c r="AT147" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW147" s="1">
+      <c r="AU147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX147" s="1">
         <v>115259258.1</v>
       </c>
-      <c r="AZ147" s="1">
+      <c r="BA147" s="1">
         <v>3621730637.64</v>
       </c>
-      <c r="BA147" s="1">
+      <c r="BB147" s="1">
         <v>615274606.51</v>
       </c>
     </row>
-    <row r="148" spans="1:53">
+    <row r="148" spans="1:54">
       <c r="A148" s="3">
         <v>44651</v>
       </c>
@@ -24145,20 +24388,20 @@
       <c r="AQ148" s="1">
         <v>1275455106.04</v>
       </c>
-      <c r="AT148" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW148" s="1">
+      <c r="AU148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX148" s="1">
         <v>126791676.3</v>
       </c>
-      <c r="AZ148" s="1">
+      <c r="BA148" s="1">
         <v>3703587939.47</v>
       </c>
-      <c r="BA148" s="1">
+      <c r="BB148" s="1">
         <v>683863529.08</v>
       </c>
     </row>
-    <row r="149" spans="1:53">
+    <row r="149" spans="1:54">
       <c r="A149" s="3">
         <v>44681</v>
       </c>
@@ -24231,20 +24474,20 @@
       <c r="AQ149" s="1">
         <v>1339729495.38</v>
       </c>
-      <c r="AT149" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW149" s="1">
+      <c r="AU149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX149" s="1">
         <v>137993771.7</v>
       </c>
-      <c r="AZ149" s="1">
+      <c r="BA149" s="1">
         <v>3833022179.6</v>
       </c>
-      <c r="BA149" s="1">
+      <c r="BB149" s="1">
         <v>739566759.6900001</v>
       </c>
     </row>
-    <row r="150" spans="1:53">
+    <row r="150" spans="1:54">
       <c r="A150" s="3">
         <v>44712</v>
       </c>
@@ -24317,20 +24560,20 @@
       <c r="AQ150" s="1">
         <v>1333965550.99</v>
       </c>
-      <c r="AT150" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW150" s="1">
+      <c r="AU150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX150" s="1">
         <v>135675590.6</v>
       </c>
-      <c r="AZ150" s="1">
+      <c r="BA150" s="1">
         <v>3541792627.47</v>
       </c>
-      <c r="BA150" s="1">
+      <c r="BB150" s="1">
         <v>730210084.61</v>
       </c>
     </row>
-    <row r="151" spans="1:53">
+    <row r="151" spans="1:54">
       <c r="A151" s="3">
         <v>44742</v>
       </c>
@@ -24400,20 +24643,20 @@
       <c r="AQ151" s="1">
         <v>1366715917.42</v>
       </c>
-      <c r="AT151" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW151" s="1">
+      <c r="AU151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX151" s="1">
         <v>146583554.4</v>
       </c>
-      <c r="AZ151" s="1">
+      <c r="BA151" s="1">
         <v>3617647510.89</v>
       </c>
-      <c r="BA151" s="1">
+      <c r="BB151" s="1">
         <v>783802420.6</v>
       </c>
     </row>
-    <row r="152" spans="1:53">
+    <row r="152" spans="1:54">
       <c r="A152" s="3">
         <v>44773</v>
       </c>
@@ -24483,17 +24726,17 @@
       <c r="AQ152" s="1">
         <v>1312829850.08</v>
       </c>
-      <c r="AW152" s="1">
+      <c r="AX152" s="1">
         <v>136052196.7</v>
       </c>
-      <c r="AZ152" s="1">
+      <c r="BA152" s="1">
         <v>3496174442.82</v>
       </c>
-      <c r="BA152" s="1">
+      <c r="BB152" s="1">
         <v>720632805.83</v>
       </c>
     </row>
-    <row r="153" spans="1:53">
+    <row r="153" spans="1:54">
       <c r="A153" s="3">
         <v>44804</v>
       </c>
@@ -24563,23 +24806,23 @@
       <c r="AQ153" s="1">
         <v>1128855645.54</v>
       </c>
-      <c r="AT153" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV153" s="1">
+      <c r="AU153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW153" s="1">
         <v>10579272.85</v>
       </c>
-      <c r="AW153" s="1">
+      <c r="AX153" s="1">
         <v>139078567.3</v>
       </c>
-      <c r="AZ153" s="1">
+      <c r="BA153" s="1">
         <v>3357054472.88</v>
       </c>
-      <c r="BA153" s="1">
+      <c r="BB153" s="1">
         <v>749408384.04</v>
       </c>
     </row>
-    <row r="154" spans="1:53">
+    <row r="154" spans="1:54">
       <c r="A154" s="3">
         <v>44834</v>
       </c>
@@ -24649,23 +24892,23 @@
       <c r="AQ154" s="1">
         <v>1169665062.84</v>
       </c>
-      <c r="AT154" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV154" s="1">
+      <c r="AU154" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW154" s="1">
         <v>18108519.49</v>
       </c>
-      <c r="AW154" s="1">
+      <c r="AX154" s="1">
         <v>159356399.5</v>
       </c>
-      <c r="AZ154" s="1">
+      <c r="BA154" s="1">
         <v>3303523459.42</v>
       </c>
-      <c r="BA154" s="1">
+      <c r="BB154" s="1">
         <v>836482087.98</v>
       </c>
     </row>
-    <row r="155" spans="1:53">
+    <row r="155" spans="1:54">
       <c r="A155" s="3">
         <v>44865</v>
       </c>
@@ -24735,23 +24978,23 @@
       <c r="AQ155" s="1">
         <v>1130529778.51</v>
       </c>
-      <c r="AT155" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV155" s="1">
+      <c r="AU155" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW155" s="1">
         <v>24486591.76</v>
       </c>
-      <c r="AW155" s="1">
+      <c r="AX155" s="1">
         <v>157044933</v>
       </c>
-      <c r="AZ155" s="1">
+      <c r="BA155" s="1">
         <v>3215494625.1</v>
       </c>
-      <c r="BA155" s="1">
+      <c r="BB155" s="1">
         <v>818886602.03</v>
       </c>
     </row>
-    <row r="156" spans="1:53">
+    <row r="156" spans="1:54">
       <c r="A156" s="3">
         <v>44895</v>
       </c>
@@ -24821,29 +25064,281 @@
       <c r="AQ156" s="1">
         <v>1061902377.54</v>
       </c>
-      <c r="AT156" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV156" s="1">
+      <c r="AU156" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW156" s="1">
         <v>32386197.53</v>
       </c>
-      <c r="AW156" s="1">
+      <c r="AX156" s="1">
         <v>140459139</v>
       </c>
-      <c r="AZ156" s="1">
+      <c r="BA156" s="1">
         <v>3020201153.37</v>
       </c>
-      <c r="BA156" s="1">
+      <c r="BB156" s="1">
         <v>745639314.09</v>
       </c>
     </row>
+    <row r="157" spans="1:54">
+      <c r="A157" s="3">
+        <v>44926</v>
+      </c>
+      <c r="B157" s="1">
+        <v>88766949.88</v>
+      </c>
+      <c r="C157" s="1">
+        <v>97080713.16</v>
+      </c>
+      <c r="D157" s="1">
+        <v>687749.4</v>
+      </c>
+      <c r="E157" s="1">
+        <v>185451968.33</v>
+      </c>
+      <c r="F157" s="1">
+        <v>102550359.1</v>
+      </c>
+      <c r="G157" s="1">
+        <v>183497179</v>
+      </c>
+      <c r="J157" s="1">
+        <v>236161385.79</v>
+      </c>
+      <c r="L157" s="1">
+        <v>148815727.14</v>
+      </c>
+      <c r="N157" s="1">
+        <v>317593525.82</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>1213279810.88</v>
+      </c>
+      <c r="R157" s="1">
+        <v>104495587.3</v>
+      </c>
+      <c r="S157" s="1">
+        <v>10372122.12</v>
+      </c>
+      <c r="W157" s="1">
+        <v>3117201.25</v>
+      </c>
+      <c r="AC157" s="1">
+        <v>96960.78999999999</v>
+      </c>
+      <c r="AD157" s="1">
+        <v>66068723.37</v>
+      </c>
+      <c r="AF157" s="1">
+        <v>338168109.75</v>
+      </c>
+      <c r="AI157" s="1">
+        <v>378999160.43</v>
+      </c>
+      <c r="AK157" s="1">
+        <v>79506734.3</v>
+      </c>
+      <c r="AN157" s="1">
+        <v>185648563.8</v>
+      </c>
+      <c r="AO157" s="1">
+        <v>328929422.49</v>
+      </c>
+      <c r="AQ157" s="1">
+        <v>1062100644.03</v>
+      </c>
+      <c r="AU157" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW157" s="1">
+        <v>19498519</v>
+      </c>
+      <c r="AX157" s="1">
+        <v>141089280.7</v>
+      </c>
+      <c r="BA157" s="1">
+        <v>3016595942.92</v>
+      </c>
+      <c r="BB157" s="1">
+        <v>741215488.01</v>
+      </c>
+    </row>
+    <row r="158" spans="1:54">
+      <c r="A158" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B158" s="1">
+        <v>87680099.27</v>
+      </c>
+      <c r="C158" s="1">
+        <v>95031373.09999999</v>
+      </c>
+      <c r="D158" s="1">
+        <v>687749.4</v>
+      </c>
+      <c r="E158" s="1">
+        <v>180989321.45</v>
+      </c>
+      <c r="F158" s="1">
+        <v>103418384.3</v>
+      </c>
+      <c r="G158" s="1">
+        <v>208012953.36</v>
+      </c>
+      <c r="J158" s="1">
+        <v>242302620.02</v>
+      </c>
+      <c r="L158" s="1">
+        <v>142827988.65</v>
+      </c>
+      <c r="N158" s="1">
+        <v>316621798.36</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>1261866069.43</v>
+      </c>
+      <c r="R158" s="1">
+        <v>109588754.2</v>
+      </c>
+      <c r="S158" s="1">
+        <v>10372122.12</v>
+      </c>
+      <c r="W158" s="1">
+        <v>3180903.77</v>
+      </c>
+      <c r="AC158" s="1">
+        <v>96960.78999999999</v>
+      </c>
+      <c r="AD158" s="1">
+        <v>65930468.18</v>
+      </c>
+      <c r="AF158" s="1">
+        <v>313013232.93</v>
+      </c>
+      <c r="AI158" s="1">
+        <v>338280001.7</v>
+      </c>
+      <c r="AK158" s="1">
+        <v>80251582.59999999</v>
+      </c>
+      <c r="AN158" s="1">
+        <v>167777622.71</v>
+      </c>
+      <c r="AO158" s="1">
+        <v>331231928.45</v>
+      </c>
+      <c r="AQ158" s="1">
+        <v>972367928.9</v>
+      </c>
+      <c r="AU158" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW158" s="1">
+        <v>29580625.88</v>
+      </c>
+      <c r="AX158" s="1">
+        <v>142730072.8</v>
+      </c>
+      <c r="BA158" s="1">
+        <v>2969606564.04</v>
+      </c>
+      <c r="BB158" s="1">
+        <v>735372565.71</v>
+      </c>
+    </row>
+    <row r="159" spans="1:54">
+      <c r="A159" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B159" s="1">
+        <v>92394197.68000001</v>
+      </c>
+      <c r="C159" s="1">
+        <v>95951891.42</v>
+      </c>
+      <c r="D159" s="1">
+        <v>687749.4</v>
+      </c>
+      <c r="E159" s="1">
+        <v>188328499.12</v>
+      </c>
+      <c r="F159" s="1">
+        <v>104123093.2</v>
+      </c>
+      <c r="G159" s="1">
+        <v>213213296.49</v>
+      </c>
+      <c r="J159" s="1">
+        <v>247066846.44</v>
+      </c>
+      <c r="L159" s="1">
+        <v>139400910.96</v>
+      </c>
+      <c r="N159" s="1">
+        <v>307209638.24</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>1283544309.64</v>
+      </c>
+      <c r="R159" s="1">
+        <v>107710150.8</v>
+      </c>
+      <c r="S159" s="1">
+        <v>7977289</v>
+      </c>
+      <c r="W159" s="1">
+        <v>3121772.38</v>
+      </c>
+      <c r="AC159" s="1">
+        <v>96960.78999999999</v>
+      </c>
+      <c r="AD159" s="1">
+        <v>67580521.58</v>
+      </c>
+      <c r="AF159" s="1">
+        <v>171742802.61</v>
+      </c>
+      <c r="AI159" s="1">
+        <v>352991271.02</v>
+      </c>
+      <c r="AK159" s="1">
+        <v>80713108</v>
+      </c>
+      <c r="AN159" s="1">
+        <v>165074525.2</v>
+      </c>
+      <c r="AO159" s="1">
+        <v>331609553.88</v>
+      </c>
+      <c r="AQ159" s="1">
+        <v>987283760.04</v>
+      </c>
+      <c r="AT159" s="1">
+        <v>150000000.46</v>
+      </c>
+      <c r="AU159" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW159" s="1">
+        <v>35324019.79</v>
+      </c>
+      <c r="AX159" s="1">
+        <v>144540594.3</v>
+      </c>
+      <c r="BA159" s="1">
+        <v>3006858692.76</v>
+      </c>
+      <c r="BB159" s="1">
+        <v>736030623.08</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A156">
+  <conditionalFormatting sqref="A1:A159">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:BB156">
+  <conditionalFormatting sqref="B2:BC159">
     <cfRule type="notContainsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
